--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC83910-C03A-483F-B6E8-793A717E6B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95CBA69-EE2F-4265-A316-9BD9F6B8F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7804,93 +7804,6 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7989,6 +7902,93 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9444,57 +9444,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="193" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="164" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="202" t="s">
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="211" t="s">
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="182" t="s">
         <v>466</v>
       </c>
-      <c r="T1" s="212"/>
-      <c r="U1" s="212"/>
-      <c r="V1" s="212"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="187" t="s">
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="189" t="str">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="160" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
-      <c r="AF1" s="191"/>
-      <c r="AG1" s="196" t="str">
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="162"/>
+      <c r="AG1" s="167" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="198"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="169"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9502,53 +9502,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="193" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="164" t="s">
         <v>468</v>
       </c>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="187" t="s">
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="199" t="str">
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="196" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="167" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="169"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9556,45 +9556,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="193" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="164" t="s">
         <v>469</v>
       </c>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="189"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="190"/>
-      <c r="AF3" s="191"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="198"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="189"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="189"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="189"/>
+      <c r="Y3" s="189"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="161"/>
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="169"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9631,1181 +9631,1020 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="171" t="s">
+      <c r="C7" s="192"/>
+      <c r="D7" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="173"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="171" t="s">
+      <c r="E7" s="193"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="173"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="171" t="s">
+      <c r="H7" s="193"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="171" t="s">
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="172"/>
-      <c r="AF7" s="171" t="s">
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="192"/>
+      <c r="AF7" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="172"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="192"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="182"/>
-      <c r="O8" s="182"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185"/>
-      <c r="Y8" s="185"/>
-      <c r="Z8" s="185"/>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185"/>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185"/>
-      <c r="AE8" s="186"/>
-      <c r="AF8" s="181"/>
-      <c r="AG8" s="182"/>
-      <c r="AH8" s="182"/>
-      <c r="AI8" s="183"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="205"/>
+      <c r="T8" s="205"/>
+      <c r="U8" s="205"/>
+      <c r="V8" s="205"/>
+      <c r="W8" s="205"/>
+      <c r="X8" s="205"/>
+      <c r="Y8" s="205"/>
+      <c r="Z8" s="205"/>
+      <c r="AA8" s="205"/>
+      <c r="AB8" s="205"/>
+      <c r="AC8" s="205"/>
+      <c r="AD8" s="205"/>
+      <c r="AE8" s="206"/>
+      <c r="AF8" s="201"/>
+      <c r="AG8" s="202"/>
+      <c r="AH8" s="202"/>
+      <c r="AI8" s="203"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="168"/>
-      <c r="T9" s="168"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="168"/>
-      <c r="AA9" s="168"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="168"/>
-      <c r="AD9" s="168"/>
-      <c r="AE9" s="169"/>
-      <c r="AF9" s="164"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="165"/>
-      <c r="AI9" s="166"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="214"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="217"/>
+      <c r="U9" s="217"/>
+      <c r="V9" s="217"/>
+      <c r="W9" s="217"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="217"/>
+      <c r="Z9" s="217"/>
+      <c r="AA9" s="217"/>
+      <c r="AB9" s="217"/>
+      <c r="AC9" s="217"/>
+      <c r="AD9" s="217"/>
+      <c r="AE9" s="218"/>
+      <c r="AF9" s="213"/>
+      <c r="AG9" s="214"/>
+      <c r="AH9" s="214"/>
+      <c r="AI9" s="215"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="168"/>
-      <c r="AA10" s="168"/>
-      <c r="AB10" s="168"/>
-      <c r="AC10" s="168"/>
-      <c r="AD10" s="168"/>
-      <c r="AE10" s="169"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="165"/>
-      <c r="AH10" s="165"/>
-      <c r="AI10" s="166"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="214"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="217"/>
+      <c r="U10" s="217"/>
+      <c r="V10" s="217"/>
+      <c r="W10" s="217"/>
+      <c r="X10" s="217"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="217"/>
+      <c r="AA10" s="217"/>
+      <c r="AB10" s="217"/>
+      <c r="AC10" s="217"/>
+      <c r="AD10" s="217"/>
+      <c r="AE10" s="218"/>
+      <c r="AF10" s="213"/>
+      <c r="AG10" s="214"/>
+      <c r="AH10" s="214"/>
+      <c r="AI10" s="215"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="168"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="168"/>
-      <c r="AC11" s="168"/>
-      <c r="AD11" s="168"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="166"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="214"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="216"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="217"/>
+      <c r="U11" s="217"/>
+      <c r="V11" s="217"/>
+      <c r="W11" s="217"/>
+      <c r="X11" s="217"/>
+      <c r="Y11" s="217"/>
+      <c r="Z11" s="217"/>
+      <c r="AA11" s="217"/>
+      <c r="AB11" s="217"/>
+      <c r="AC11" s="217"/>
+      <c r="AD11" s="217"/>
+      <c r="AE11" s="218"/>
+      <c r="AF11" s="213"/>
+      <c r="AG11" s="214"/>
+      <c r="AH11" s="214"/>
+      <c r="AI11" s="215"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="168"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="166"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="214"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="216"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="217"/>
+      <c r="U12" s="217"/>
+      <c r="V12" s="217"/>
+      <c r="W12" s="217"/>
+      <c r="X12" s="217"/>
+      <c r="Y12" s="217"/>
+      <c r="Z12" s="217"/>
+      <c r="AA12" s="217"/>
+      <c r="AB12" s="217"/>
+      <c r="AC12" s="217"/>
+      <c r="AD12" s="217"/>
+      <c r="AE12" s="218"/>
+      <c r="AF12" s="213"/>
+      <c r="AG12" s="214"/>
+      <c r="AH12" s="214"/>
+      <c r="AI12" s="215"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="168"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="164"/>
-      <c r="AG13" s="165"/>
-      <c r="AH13" s="165"/>
-      <c r="AI13" s="166"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="217"/>
+      <c r="U13" s="217"/>
+      <c r="V13" s="217"/>
+      <c r="W13" s="217"/>
+      <c r="X13" s="217"/>
+      <c r="Y13" s="217"/>
+      <c r="Z13" s="217"/>
+      <c r="AA13" s="217"/>
+      <c r="AB13" s="217"/>
+      <c r="AC13" s="217"/>
+      <c r="AD13" s="217"/>
+      <c r="AE13" s="218"/>
+      <c r="AF13" s="213"/>
+      <c r="AG13" s="214"/>
+      <c r="AH13" s="214"/>
+      <c r="AI13" s="215"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="168"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="168"/>
-      <c r="AA14" s="168"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="168"/>
-      <c r="AD14" s="168"/>
-      <c r="AE14" s="169"/>
-      <c r="AF14" s="164"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="165"/>
-      <c r="AI14" s="166"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="214"/>
+      <c r="P14" s="215"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="217"/>
+      <c r="U14" s="217"/>
+      <c r="V14" s="217"/>
+      <c r="W14" s="217"/>
+      <c r="X14" s="217"/>
+      <c r="Y14" s="217"/>
+      <c r="Z14" s="217"/>
+      <c r="AA14" s="217"/>
+      <c r="AB14" s="217"/>
+      <c r="AC14" s="217"/>
+      <c r="AD14" s="217"/>
+      <c r="AE14" s="218"/>
+      <c r="AF14" s="213"/>
+      <c r="AG14" s="214"/>
+      <c r="AH14" s="214"/>
+      <c r="AI14" s="215"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="167"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="168"/>
-      <c r="T15" s="168"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="168"/>
-      <c r="AA15" s="168"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="168"/>
-      <c r="AE15" s="169"/>
-      <c r="AF15" s="164"/>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="165"/>
-      <c r="AI15" s="166"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="214"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="216"/>
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+      <c r="T15" s="217"/>
+      <c r="U15" s="217"/>
+      <c r="V15" s="217"/>
+      <c r="W15" s="217"/>
+      <c r="X15" s="217"/>
+      <c r="Y15" s="217"/>
+      <c r="Z15" s="217"/>
+      <c r="AA15" s="217"/>
+      <c r="AB15" s="217"/>
+      <c r="AC15" s="217"/>
+      <c r="AD15" s="217"/>
+      <c r="AE15" s="218"/>
+      <c r="AF15" s="213"/>
+      <c r="AG15" s="214"/>
+      <c r="AH15" s="214"/>
+      <c r="AI15" s="215"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="167"/>
-      <c r="R16" s="168"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="168"/>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="168"/>
-      <c r="AA16" s="168"/>
-      <c r="AB16" s="168"/>
-      <c r="AC16" s="168"/>
-      <c r="AD16" s="168"/>
-      <c r="AE16" s="169"/>
-      <c r="AF16" s="164"/>
-      <c r="AG16" s="165"/>
-      <c r="AH16" s="165"/>
-      <c r="AI16" s="166"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
+      <c r="N16" s="214"/>
+      <c r="O16" s="214"/>
+      <c r="P16" s="215"/>
+      <c r="Q16" s="216"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="217"/>
+      <c r="T16" s="217"/>
+      <c r="U16" s="217"/>
+      <c r="V16" s="217"/>
+      <c r="W16" s="217"/>
+      <c r="X16" s="217"/>
+      <c r="Y16" s="217"/>
+      <c r="Z16" s="217"/>
+      <c r="AA16" s="217"/>
+      <c r="AB16" s="217"/>
+      <c r="AC16" s="217"/>
+      <c r="AD16" s="217"/>
+      <c r="AE16" s="218"/>
+      <c r="AF16" s="213"/>
+      <c r="AG16" s="214"/>
+      <c r="AH16" s="214"/>
+      <c r="AI16" s="215"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="168"/>
-      <c r="T17" s="168"/>
-      <c r="U17" s="168"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="168"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="168"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="168"/>
-      <c r="AD17" s="168"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="164"/>
-      <c r="AG17" s="165"/>
-      <c r="AH17" s="165"/>
-      <c r="AI17" s="166"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="214"/>
+      <c r="P17" s="215"/>
+      <c r="Q17" s="216"/>
+      <c r="R17" s="217"/>
+      <c r="S17" s="217"/>
+      <c r="T17" s="217"/>
+      <c r="U17" s="217"/>
+      <c r="V17" s="217"/>
+      <c r="W17" s="217"/>
+      <c r="X17" s="217"/>
+      <c r="Y17" s="217"/>
+      <c r="Z17" s="217"/>
+      <c r="AA17" s="217"/>
+      <c r="AB17" s="217"/>
+      <c r="AC17" s="217"/>
+      <c r="AD17" s="217"/>
+      <c r="AE17" s="218"/>
+      <c r="AF17" s="213"/>
+      <c r="AG17" s="214"/>
+      <c r="AH17" s="214"/>
+      <c r="AI17" s="215"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="167"/>
-      <c r="R18" s="168"/>
-      <c r="S18" s="168"/>
-      <c r="T18" s="168"/>
-      <c r="U18" s="168"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="168"/>
-      <c r="AE18" s="169"/>
-      <c r="AF18" s="164"/>
-      <c r="AG18" s="165"/>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="166"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="214"/>
+      <c r="P18" s="215"/>
+      <c r="Q18" s="216"/>
+      <c r="R18" s="217"/>
+      <c r="S18" s="217"/>
+      <c r="T18" s="217"/>
+      <c r="U18" s="217"/>
+      <c r="V18" s="217"/>
+      <c r="W18" s="217"/>
+      <c r="X18" s="217"/>
+      <c r="Y18" s="217"/>
+      <c r="Z18" s="217"/>
+      <c r="AA18" s="217"/>
+      <c r="AB18" s="217"/>
+      <c r="AC18" s="217"/>
+      <c r="AD18" s="217"/>
+      <c r="AE18" s="218"/>
+      <c r="AF18" s="213"/>
+      <c r="AG18" s="214"/>
+      <c r="AH18" s="214"/>
+      <c r="AI18" s="215"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="168"/>
-      <c r="S19" s="168"/>
-      <c r="T19" s="168"/>
-      <c r="U19" s="168"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="168"/>
-      <c r="X19" s="168"/>
-      <c r="Y19" s="168"/>
-      <c r="Z19" s="168"/>
-      <c r="AA19" s="168"/>
-      <c r="AB19" s="168"/>
-      <c r="AC19" s="168"/>
-      <c r="AD19" s="168"/>
-      <c r="AE19" s="169"/>
-      <c r="AF19" s="164"/>
-      <c r="AG19" s="165"/>
-      <c r="AH19" s="165"/>
-      <c r="AI19" s="166"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="215"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="217"/>
+      <c r="S19" s="217"/>
+      <c r="T19" s="217"/>
+      <c r="U19" s="217"/>
+      <c r="V19" s="217"/>
+      <c r="W19" s="217"/>
+      <c r="X19" s="217"/>
+      <c r="Y19" s="217"/>
+      <c r="Z19" s="217"/>
+      <c r="AA19" s="217"/>
+      <c r="AB19" s="217"/>
+      <c r="AC19" s="217"/>
+      <c r="AD19" s="217"/>
+      <c r="AE19" s="218"/>
+      <c r="AF19" s="213"/>
+      <c r="AG19" s="214"/>
+      <c r="AH19" s="214"/>
+      <c r="AI19" s="215"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="168"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="168"/>
-      <c r="U20" s="168"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="168"/>
-      <c r="X20" s="168"/>
-      <c r="Y20" s="168"/>
-      <c r="Z20" s="168"/>
-      <c r="AA20" s="168"/>
-      <c r="AB20" s="168"/>
-      <c r="AC20" s="168"/>
-      <c r="AD20" s="168"/>
-      <c r="AE20" s="169"/>
-      <c r="AF20" s="164"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="166"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="214"/>
+      <c r="P20" s="215"/>
+      <c r="Q20" s="216"/>
+      <c r="R20" s="217"/>
+      <c r="S20" s="217"/>
+      <c r="T20" s="217"/>
+      <c r="U20" s="217"/>
+      <c r="V20" s="217"/>
+      <c r="W20" s="217"/>
+      <c r="X20" s="217"/>
+      <c r="Y20" s="217"/>
+      <c r="Z20" s="217"/>
+      <c r="AA20" s="217"/>
+      <c r="AB20" s="217"/>
+      <c r="AC20" s="217"/>
+      <c r="AD20" s="217"/>
+      <c r="AE20" s="218"/>
+      <c r="AF20" s="213"/>
+      <c r="AG20" s="214"/>
+      <c r="AH20" s="214"/>
+      <c r="AI20" s="215"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="167"/>
-      <c r="R21" s="168"/>
-      <c r="S21" s="168"/>
-      <c r="T21" s="168"/>
-      <c r="U21" s="168"/>
-      <c r="V21" s="168"/>
-      <c r="W21" s="168"/>
-      <c r="X21" s="168"/>
-      <c r="Y21" s="168"/>
-      <c r="Z21" s="168"/>
-      <c r="AA21" s="168"/>
-      <c r="AB21" s="168"/>
-      <c r="AC21" s="168"/>
-      <c r="AD21" s="168"/>
-      <c r="AE21" s="169"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="166"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="214"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="216"/>
+      <c r="R21" s="217"/>
+      <c r="S21" s="217"/>
+      <c r="T21" s="217"/>
+      <c r="U21" s="217"/>
+      <c r="V21" s="217"/>
+      <c r="W21" s="217"/>
+      <c r="X21" s="217"/>
+      <c r="Y21" s="217"/>
+      <c r="Z21" s="217"/>
+      <c r="AA21" s="217"/>
+      <c r="AB21" s="217"/>
+      <c r="AC21" s="217"/>
+      <c r="AD21" s="217"/>
+      <c r="AE21" s="218"/>
+      <c r="AF21" s="213"/>
+      <c r="AG21" s="214"/>
+      <c r="AH21" s="214"/>
+      <c r="AI21" s="215"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="167"/>
-      <c r="R22" s="168"/>
-      <c r="S22" s="168"/>
-      <c r="T22" s="168"/>
-      <c r="U22" s="168"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="168"/>
-      <c r="X22" s="168"/>
-      <c r="Y22" s="168"/>
-      <c r="Z22" s="168"/>
-      <c r="AA22" s="168"/>
-      <c r="AB22" s="168"/>
-      <c r="AC22" s="168"/>
-      <c r="AD22" s="168"/>
-      <c r="AE22" s="169"/>
-      <c r="AF22" s="164"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="166"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="214"/>
+      <c r="P22" s="215"/>
+      <c r="Q22" s="216"/>
+      <c r="R22" s="217"/>
+      <c r="S22" s="217"/>
+      <c r="T22" s="217"/>
+      <c r="U22" s="217"/>
+      <c r="V22" s="217"/>
+      <c r="W22" s="217"/>
+      <c r="X22" s="217"/>
+      <c r="Y22" s="217"/>
+      <c r="Z22" s="217"/>
+      <c r="AA22" s="217"/>
+      <c r="AB22" s="217"/>
+      <c r="AC22" s="217"/>
+      <c r="AD22" s="217"/>
+      <c r="AE22" s="218"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="214"/>
+      <c r="AH22" s="214"/>
+      <c r="AI22" s="215"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="167"/>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
-      <c r="T23" s="168"/>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="168"/>
-      <c r="X23" s="168"/>
-      <c r="Y23" s="168"/>
-      <c r="Z23" s="168"/>
-      <c r="AA23" s="168"/>
-      <c r="AB23" s="168"/>
-      <c r="AC23" s="168"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="169"/>
-      <c r="AF23" s="164"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="166"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="214"/>
+      <c r="M23" s="214"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="214"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="216"/>
+      <c r="R23" s="217"/>
+      <c r="S23" s="217"/>
+      <c r="T23" s="217"/>
+      <c r="U23" s="217"/>
+      <c r="V23" s="217"/>
+      <c r="W23" s="217"/>
+      <c r="X23" s="217"/>
+      <c r="Y23" s="217"/>
+      <c r="Z23" s="217"/>
+      <c r="AA23" s="217"/>
+      <c r="AB23" s="217"/>
+      <c r="AC23" s="217"/>
+      <c r="AD23" s="217"/>
+      <c r="AE23" s="218"/>
+      <c r="AF23" s="213"/>
+      <c r="AG23" s="214"/>
+      <c r="AH23" s="214"/>
+      <c r="AI23" s="215"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="167"/>
-      <c r="R24" s="168"/>
-      <c r="S24" s="168"/>
-      <c r="T24" s="168"/>
-      <c r="U24" s="168"/>
-      <c r="V24" s="168"/>
-      <c r="W24" s="168"/>
-      <c r="X24" s="168"/>
-      <c r="Y24" s="168"/>
-      <c r="Z24" s="168"/>
-      <c r="AA24" s="168"/>
-      <c r="AB24" s="168"/>
-      <c r="AC24" s="168"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="169"/>
-      <c r="AF24" s="164"/>
-      <c r="AG24" s="165"/>
-      <c r="AH24" s="165"/>
-      <c r="AI24" s="166"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="214"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="214"/>
+      <c r="P24" s="215"/>
+      <c r="Q24" s="216"/>
+      <c r="R24" s="217"/>
+      <c r="S24" s="217"/>
+      <c r="T24" s="217"/>
+      <c r="U24" s="217"/>
+      <c r="V24" s="217"/>
+      <c r="W24" s="217"/>
+      <c r="X24" s="217"/>
+      <c r="Y24" s="217"/>
+      <c r="Z24" s="217"/>
+      <c r="AA24" s="217"/>
+      <c r="AB24" s="217"/>
+      <c r="AC24" s="217"/>
+      <c r="AD24" s="217"/>
+      <c r="AE24" s="218"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="214"/>
+      <c r="AH24" s="214"/>
+      <c r="AI24" s="215"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="167"/>
-      <c r="R25" s="168"/>
-      <c r="S25" s="168"/>
-      <c r="T25" s="168"/>
-      <c r="U25" s="168"/>
-      <c r="V25" s="168"/>
-      <c r="W25" s="168"/>
-      <c r="X25" s="168"/>
-      <c r="Y25" s="168"/>
-      <c r="Z25" s="168"/>
-      <c r="AA25" s="168"/>
-      <c r="AB25" s="168"/>
-      <c r="AC25" s="168"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="169"/>
-      <c r="AF25" s="164"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="165"/>
-      <c r="AI25" s="166"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="214"/>
+      <c r="P25" s="215"/>
+      <c r="Q25" s="216"/>
+      <c r="R25" s="217"/>
+      <c r="S25" s="217"/>
+      <c r="T25" s="217"/>
+      <c r="U25" s="217"/>
+      <c r="V25" s="217"/>
+      <c r="W25" s="217"/>
+      <c r="X25" s="217"/>
+      <c r="Y25" s="217"/>
+      <c r="Z25" s="217"/>
+      <c r="AA25" s="217"/>
+      <c r="AB25" s="217"/>
+      <c r="AC25" s="217"/>
+      <c r="AD25" s="217"/>
+      <c r="AE25" s="218"/>
+      <c r="AF25" s="213"/>
+      <c r="AG25" s="214"/>
+      <c r="AH25" s="214"/>
+      <c r="AI25" s="215"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="167"/>
-      <c r="R26" s="168"/>
-      <c r="S26" s="168"/>
-      <c r="T26" s="168"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="168"/>
-      <c r="X26" s="168"/>
-      <c r="Y26" s="168"/>
-      <c r="Z26" s="168"/>
-      <c r="AA26" s="168"/>
-      <c r="AB26" s="168"/>
-      <c r="AC26" s="168"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="164"/>
-      <c r="AG26" s="165"/>
-      <c r="AH26" s="165"/>
-      <c r="AI26" s="166"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="214"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="214"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="216"/>
+      <c r="R26" s="217"/>
+      <c r="S26" s="217"/>
+      <c r="T26" s="217"/>
+      <c r="U26" s="217"/>
+      <c r="V26" s="217"/>
+      <c r="W26" s="217"/>
+      <c r="X26" s="217"/>
+      <c r="Y26" s="217"/>
+      <c r="Z26" s="217"/>
+      <c r="AA26" s="217"/>
+      <c r="AB26" s="217"/>
+      <c r="AC26" s="217"/>
+      <c r="AD26" s="217"/>
+      <c r="AE26" s="218"/>
+      <c r="AF26" s="213"/>
+      <c r="AG26" s="214"/>
+      <c r="AH26" s="214"/>
+      <c r="AI26" s="215"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="167"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="168"/>
-      <c r="T27" s="168"/>
-      <c r="U27" s="168"/>
-      <c r="V27" s="168"/>
-      <c r="W27" s="168"/>
-      <c r="X27" s="168"/>
-      <c r="Y27" s="168"/>
-      <c r="Z27" s="168"/>
-      <c r="AA27" s="168"/>
-      <c r="AB27" s="168"/>
-      <c r="AC27" s="168"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="169"/>
-      <c r="AF27" s="164"/>
-      <c r="AG27" s="165"/>
-      <c r="AH27" s="165"/>
-      <c r="AI27" s="166"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="214"/>
+      <c r="P27" s="215"/>
+      <c r="Q27" s="216"/>
+      <c r="R27" s="217"/>
+      <c r="S27" s="217"/>
+      <c r="T27" s="217"/>
+      <c r="U27" s="217"/>
+      <c r="V27" s="217"/>
+      <c r="W27" s="217"/>
+      <c r="X27" s="217"/>
+      <c r="Y27" s="217"/>
+      <c r="Z27" s="217"/>
+      <c r="AA27" s="217"/>
+      <c r="AB27" s="217"/>
+      <c r="AC27" s="217"/>
+      <c r="AD27" s="217"/>
+      <c r="AE27" s="218"/>
+      <c r="AF27" s="213"/>
+      <c r="AG27" s="214"/>
+      <c r="AH27" s="214"/>
+      <c r="AI27" s="215"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="168"/>
-      <c r="S28" s="168"/>
-      <c r="T28" s="168"/>
-      <c r="U28" s="168"/>
-      <c r="V28" s="168"/>
-      <c r="W28" s="168"/>
-      <c r="X28" s="168"/>
-      <c r="Y28" s="168"/>
-      <c r="Z28" s="168"/>
-      <c r="AA28" s="168"/>
-      <c r="AB28" s="168"/>
-      <c r="AC28" s="168"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="169"/>
-      <c r="AF28" s="164"/>
-      <c r="AG28" s="165"/>
-      <c r="AH28" s="165"/>
-      <c r="AI28" s="166"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="215"/>
+      <c r="Q28" s="216"/>
+      <c r="R28" s="217"/>
+      <c r="S28" s="217"/>
+      <c r="T28" s="217"/>
+      <c r="U28" s="217"/>
+      <c r="V28" s="217"/>
+      <c r="W28" s="217"/>
+      <c r="X28" s="217"/>
+      <c r="Y28" s="217"/>
+      <c r="Z28" s="217"/>
+      <c r="AA28" s="217"/>
+      <c r="AB28" s="217"/>
+      <c r="AC28" s="217"/>
+      <c r="AD28" s="217"/>
+      <c r="AE28" s="218"/>
+      <c r="AF28" s="213"/>
+      <c r="AG28" s="214"/>
+      <c r="AH28" s="214"/>
+      <c r="AI28" s="215"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="167"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
-      <c r="U29" s="168"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="168"/>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="168"/>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="168"/>
-      <c r="AC29" s="168"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="169"/>
-      <c r="AF29" s="164"/>
-      <c r="AG29" s="165"/>
-      <c r="AH29" s="165"/>
-      <c r="AI29" s="166"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
+      <c r="P29" s="215"/>
+      <c r="Q29" s="216"/>
+      <c r="R29" s="217"/>
+      <c r="S29" s="217"/>
+      <c r="T29" s="217"/>
+      <c r="U29" s="217"/>
+      <c r="V29" s="217"/>
+      <c r="W29" s="217"/>
+      <c r="X29" s="217"/>
+      <c r="Y29" s="217"/>
+      <c r="Z29" s="217"/>
+      <c r="AA29" s="217"/>
+      <c r="AB29" s="217"/>
+      <c r="AC29" s="217"/>
+      <c r="AD29" s="217"/>
+      <c r="AE29" s="218"/>
+      <c r="AF29" s="213"/>
+      <c r="AG29" s="214"/>
+      <c r="AH29" s="214"/>
+      <c r="AI29" s="215"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="165"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="167"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="168"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="168"/>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AB30" s="168"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="169"/>
-      <c r="AF30" s="164"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="166"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="214"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="214"/>
+      <c r="P30" s="215"/>
+      <c r="Q30" s="216"/>
+      <c r="R30" s="217"/>
+      <c r="S30" s="217"/>
+      <c r="T30" s="217"/>
+      <c r="U30" s="217"/>
+      <c r="V30" s="217"/>
+      <c r="W30" s="217"/>
+      <c r="X30" s="217"/>
+      <c r="Y30" s="217"/>
+      <c r="Z30" s="217"/>
+      <c r="AA30" s="217"/>
+      <c r="AB30" s="217"/>
+      <c r="AC30" s="217"/>
+      <c r="AD30" s="217"/>
+      <c r="AE30" s="218"/>
+      <c r="AF30" s="213"/>
+      <c r="AG30" s="214"/>
+      <c r="AH30" s="214"/>
+      <c r="AI30" s="215"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="165"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="167"/>
-      <c r="R31" s="168"/>
-      <c r="S31" s="168"/>
-      <c r="T31" s="168"/>
-      <c r="U31" s="168"/>
-      <c r="V31" s="168"/>
-      <c r="W31" s="168"/>
-      <c r="X31" s="168"/>
-      <c r="Y31" s="168"/>
-      <c r="Z31" s="168"/>
-      <c r="AA31" s="168"/>
-      <c r="AB31" s="168"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="169"/>
-      <c r="AF31" s="164"/>
-      <c r="AG31" s="165"/>
-      <c r="AH31" s="165"/>
-      <c r="AI31" s="166"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="214"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="214"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="216"/>
+      <c r="R31" s="217"/>
+      <c r="S31" s="217"/>
+      <c r="T31" s="217"/>
+      <c r="U31" s="217"/>
+      <c r="V31" s="217"/>
+      <c r="W31" s="217"/>
+      <c r="X31" s="217"/>
+      <c r="Y31" s="217"/>
+      <c r="Z31" s="217"/>
+      <c r="AA31" s="217"/>
+      <c r="AB31" s="217"/>
+      <c r="AC31" s="217"/>
+      <c r="AD31" s="217"/>
+      <c r="AE31" s="218"/>
+      <c r="AF31" s="213"/>
+      <c r="AG31" s="214"/>
+      <c r="AH31" s="214"/>
+      <c r="AI31" s="215"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="167"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
-      <c r="U32" s="168"/>
-      <c r="V32" s="168"/>
-      <c r="W32" s="168"/>
-      <c r="X32" s="168"/>
-      <c r="Y32" s="168"/>
-      <c r="Z32" s="168"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="168"/>
-      <c r="AC32" s="168"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="169"/>
-      <c r="AF32" s="164"/>
-      <c r="AG32" s="165"/>
-      <c r="AH32" s="165"/>
-      <c r="AI32" s="166"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="219"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="214"/>
+      <c r="P32" s="215"/>
+      <c r="Q32" s="216"/>
+      <c r="R32" s="217"/>
+      <c r="S32" s="217"/>
+      <c r="T32" s="217"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="217"/>
+      <c r="W32" s="217"/>
+      <c r="X32" s="217"/>
+      <c r="Y32" s="217"/>
+      <c r="Z32" s="217"/>
+      <c r="AA32" s="217"/>
+      <c r="AB32" s="217"/>
+      <c r="AC32" s="217"/>
+      <c r="AD32" s="217"/>
+      <c r="AE32" s="218"/>
+      <c r="AF32" s="213"/>
+      <c r="AG32" s="214"/>
+      <c r="AH32" s="214"/>
+      <c r="AI32" s="215"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="167"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="168"/>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="169"/>
-      <c r="AF33" s="164"/>
-      <c r="AG33" s="165"/>
-      <c r="AH33" s="165"/>
-      <c r="AI33" s="166"/>
+      <c r="B33" s="207"/>
+      <c r="C33" s="208"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="214"/>
+      <c r="O33" s="214"/>
+      <c r="P33" s="215"/>
+      <c r="Q33" s="216"/>
+      <c r="R33" s="217"/>
+      <c r="S33" s="217"/>
+      <c r="T33" s="217"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="217"/>
+      <c r="W33" s="217"/>
+      <c r="X33" s="217"/>
+      <c r="Y33" s="217"/>
+      <c r="Z33" s="217"/>
+      <c r="AA33" s="217"/>
+      <c r="AB33" s="217"/>
+      <c r="AC33" s="217"/>
+      <c r="AD33" s="217"/>
+      <c r="AE33" s="218"/>
+      <c r="AF33" s="213"/>
+      <c r="AG33" s="214"/>
+      <c r="AH33" s="214"/>
+      <c r="AI33" s="215"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10824,6 +10663,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -21027,8 +21027,9 @@
     <col min="3" max="3" width="8.58203125" style="26" customWidth="1"/>
     <col min="4" max="5" width="8.58203125" style="25" customWidth="1"/>
     <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="40.75" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="16.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="40.75" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.33203125" style="25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.33203125" style="25" customWidth="1"/>
     <col min="10" max="11" width="25.58203125" style="25" customWidth="1"/>
     <col min="12" max="12" width="19.25" style="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.58203125" style="25" customWidth="1"/>
@@ -32056,7 +32057,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,28 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95CBA69-EE2F-4265-A316-9BD9F6B8F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED37C4-8362-4A29-A2D7-81FB9852020F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
-    <sheet name="【テストターゲット名】_クラス単体" sheetId="23" r:id="rId3"/>
-    <sheet name="【バッチ処理ID】_リクエスト単体" sheetId="24" r:id="rId4"/>
-    <sheet name="取引単体" sheetId="25" r:id="rId5"/>
+    <sheet name="【バッチ処理ID】_クラス単体テスト" sheetId="23" r:id="rId3"/>
+    <sheet name="【バッチ処理ID】_リクエスト単体テスト" sheetId="24" r:id="rId4"/>
+    <sheet name="取引単体テスト" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【バッチ処理ID】_リクエスト単体!$A$10:$R$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【バッチ処理ID】_リクエスト単体!$A$1:$R$319</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体!$A$1:$P$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【バッチ処理ID】_クラス単体テスト!$A$10:$Q$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【バッチ処理ID】_リクエスト単体テスト!$A$10:$R$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">【バッチ処理ID】_クラス単体テスト!$A$1:$Q$295</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【バッチ処理ID】_リクエスト単体テスト!$A$1:$R$319</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体テスト!$A$1:$P$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【バッチ処理ID】_リクエスト単体!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">【バッチ処理ID】_クラス単体テスト!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【バッチ処理ID】_リクエスト単体テスト!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体テスト!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,8 +60,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -88,8 +88,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="495">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -6448,10 +6448,6 @@
       <t>キョドウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>バッチ処理ID：</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">単体テスト仕様書(バッチ)
@@ -9451,7 +9447,7 @@
       <c r="C1" s="163"/>
       <c r="D1" s="159"/>
       <c r="E1" s="164" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F1" s="165"/>
       <c r="G1" s="165"/>
@@ -9469,7 +9465,7 @@
       <c r="Q1" s="174"/>
       <c r="R1" s="175"/>
       <c r="S1" s="182" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T1" s="183"/>
       <c r="U1" s="183"/>
@@ -9509,7 +9505,7 @@
       <c r="C2" s="163"/>
       <c r="D2" s="159"/>
       <c r="E2" s="164" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F2" s="165"/>
       <c r="G2" s="165"/>
@@ -9563,7 +9559,7 @@
       <c r="C3" s="163"/>
       <c r="D3" s="159"/>
       <c r="E3" s="164" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F3" s="165"/>
       <c r="G3" s="165"/>
@@ -10862,7 +10858,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -10872,7 +10868,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -10957,7 +10953,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>5</v>
@@ -11004,7 +11000,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H11" s="110"/>
       <c r="I11" s="110"/>
@@ -11040,7 +11036,7 @@
         <v>62</v>
       </c>
       <c r="G12" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H12" s="110"/>
       <c r="I12" s="110"/>
@@ -11078,7 +11074,7 @@
         <v>65</v>
       </c>
       <c r="G13" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H13" s="110"/>
       <c r="I13" s="110"/>
@@ -11112,7 +11108,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="110"/>
@@ -11146,7 +11142,7 @@
         <v>67</v>
       </c>
       <c r="G15" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H15" s="110"/>
       <c r="I15" s="109"/>
@@ -11180,7 +11176,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H16" s="110"/>
       <c r="I16" s="109"/>
@@ -11214,7 +11210,7 @@
         <v>69</v>
       </c>
       <c r="G17" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="109"/>
@@ -11252,7 +11248,7 @@
         <v>72</v>
       </c>
       <c r="G18" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H18" s="110"/>
       <c r="I18" s="110"/>
@@ -11286,7 +11282,7 @@
         <v>73</v>
       </c>
       <c r="G19" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H19" s="110"/>
       <c r="I19" s="110"/>
@@ -11320,7 +11316,7 @@
         <v>74</v>
       </c>
       <c r="G20" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H20" s="110"/>
       <c r="I20" s="109"/>
@@ -11356,7 +11352,7 @@
         <v>76</v>
       </c>
       <c r="G21" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H21" s="110"/>
       <c r="I21" s="110"/>
@@ -11390,7 +11386,7 @@
         <v>77</v>
       </c>
       <c r="G22" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H22" s="110"/>
       <c r="I22" s="110"/>
@@ -11424,7 +11420,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H23" s="110"/>
       <c r="I23" s="110"/>
@@ -11458,7 +11454,7 @@
         <v>79</v>
       </c>
       <c r="G24" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H24" s="110"/>
       <c r="I24" s="110"/>
@@ -11496,7 +11492,7 @@
         <v>81</v>
       </c>
       <c r="G25" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H25" s="110"/>
       <c r="I25" s="110"/>
@@ -11530,7 +11526,7 @@
         <v>82</v>
       </c>
       <c r="G26" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H26" s="110"/>
       <c r="I26" s="110"/>
@@ -11568,7 +11564,7 @@
         <v>85</v>
       </c>
       <c r="G27" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H27" s="110"/>
       <c r="I27" s="110"/>
@@ -11602,7 +11598,7 @@
         <v>86</v>
       </c>
       <c r="G28" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H28" s="110"/>
       <c r="I28" s="110"/>
@@ -11638,7 +11634,7 @@
         <v>88</v>
       </c>
       <c r="G29" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H29" s="110"/>
       <c r="I29" s="110"/>
@@ -11672,7 +11668,7 @@
         <v>89</v>
       </c>
       <c r="G30" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H30" s="110"/>
       <c r="I30" s="110"/>
@@ -11706,7 +11702,7 @@
         <v>90</v>
       </c>
       <c r="G31" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="110"/>
@@ -11740,7 +11736,7 @@
         <v>91</v>
       </c>
       <c r="G32" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="110"/>
@@ -11776,7 +11772,7 @@
         <v>93</v>
       </c>
       <c r="G33" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H33" s="110"/>
       <c r="I33" s="109"/>
@@ -11810,7 +11806,7 @@
         <v>94</v>
       </c>
       <c r="G34" s="122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H34" s="110"/>
       <c r="I34" s="109"/>
@@ -11846,7 +11842,7 @@
         <v>96</v>
       </c>
       <c r="G35" s="122" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H35" s="109"/>
       <c r="I35" s="109"/>
@@ -12018,7 +12014,7 @@
         <v>104</v>
       </c>
       <c r="G40" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H40" s="109"/>
       <c r="I40" s="109"/>
@@ -12052,7 +12048,7 @@
         <v>105</v>
       </c>
       <c r="G41" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H41" s="109"/>
       <c r="I41" s="109"/>
@@ -12094,7 +12090,7 @@
         <v>110</v>
       </c>
       <c r="G42" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H42" s="109"/>
       <c r="I42" s="109"/>
@@ -12128,7 +12124,7 @@
         <v>111</v>
       </c>
       <c r="G43" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H43" s="109"/>
       <c r="I43" s="109"/>
@@ -12162,7 +12158,7 @@
         <v>112</v>
       </c>
       <c r="G44" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H44" s="109"/>
       <c r="I44" s="109"/>
@@ -12198,7 +12194,7 @@
         <v>114</v>
       </c>
       <c r="G45" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H45" s="109"/>
       <c r="I45" s="109"/>
@@ -12232,7 +12228,7 @@
         <v>115</v>
       </c>
       <c r="G46" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H46" s="109"/>
       <c r="I46" s="109"/>
@@ -12266,7 +12262,7 @@
         <v>112</v>
       </c>
       <c r="G47" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H47" s="109"/>
       <c r="I47" s="109"/>
@@ -12302,7 +12298,7 @@
         <v>117</v>
       </c>
       <c r="G48" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H48" s="109"/>
       <c r="I48" s="109"/>
@@ -12336,7 +12332,7 @@
         <v>118</v>
       </c>
       <c r="G49" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H49" s="109"/>
       <c r="I49" s="109"/>
@@ -12372,7 +12368,7 @@
         <v>120</v>
       </c>
       <c r="G50" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H50" s="109"/>
       <c r="I50" s="109"/>
@@ -12406,7 +12402,7 @@
         <v>121</v>
       </c>
       <c r="G51" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H51" s="109"/>
       <c r="I51" s="109"/>
@@ -12440,7 +12436,7 @@
         <v>122</v>
       </c>
       <c r="G52" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H52" s="109"/>
       <c r="I52" s="109"/>
@@ -12474,7 +12470,7 @@
         <v>123</v>
       </c>
       <c r="G53" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H53" s="109"/>
       <c r="I53" s="109"/>
@@ -12508,7 +12504,7 @@
         <v>124</v>
       </c>
       <c r="G54" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H54" s="109"/>
       <c r="I54" s="109"/>
@@ -12542,7 +12538,7 @@
         <v>125</v>
       </c>
       <c r="G55" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H55" s="109"/>
       <c r="I55" s="109"/>
@@ -12578,7 +12574,7 @@
         <v>127</v>
       </c>
       <c r="G56" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H56" s="109"/>
       <c r="I56" s="109"/>
@@ -12614,7 +12610,7 @@
         <v>129</v>
       </c>
       <c r="G57" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H57" s="109"/>
       <c r="I57" s="109"/>
@@ -12650,7 +12646,7 @@
         <v>131</v>
       </c>
       <c r="G58" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H58" s="109"/>
       <c r="I58" s="109"/>
@@ -12688,7 +12684,7 @@
         <v>133</v>
       </c>
       <c r="G59" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H59" s="109"/>
       <c r="I59" s="109"/>
@@ -12722,7 +12718,7 @@
         <v>134</v>
       </c>
       <c r="G60" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H60" s="109"/>
       <c r="I60" s="109"/>
@@ -12756,7 +12752,7 @@
         <v>135</v>
       </c>
       <c r="G61" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H61" s="109"/>
       <c r="I61" s="109"/>
@@ -12790,7 +12786,7 @@
         <v>136</v>
       </c>
       <c r="G62" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H62" s="109"/>
       <c r="I62" s="109"/>
@@ -12824,7 +12820,7 @@
         <v>137</v>
       </c>
       <c r="G63" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H63" s="109"/>
       <c r="I63" s="109"/>
@@ -12860,7 +12856,7 @@
         <v>139</v>
       </c>
       <c r="G64" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H64" s="109"/>
       <c r="I64" s="109"/>
@@ -12894,7 +12890,7 @@
         <v>140</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H65" s="109"/>
       <c r="I65" s="109"/>
@@ -12928,7 +12924,7 @@
         <v>141</v>
       </c>
       <c r="G66" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H66" s="109"/>
       <c r="I66" s="109"/>
@@ -12962,7 +12958,7 @@
         <v>142</v>
       </c>
       <c r="G67" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H67" s="109"/>
       <c r="I67" s="109"/>
@@ -12996,7 +12992,7 @@
         <v>143</v>
       </c>
       <c r="G68" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H68" s="109"/>
       <c r="I68" s="109"/>
@@ -13030,7 +13026,7 @@
         <v>144</v>
       </c>
       <c r="G69" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H69" s="109"/>
       <c r="I69" s="109"/>
@@ -13064,7 +13060,7 @@
         <v>145</v>
       </c>
       <c r="G70" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H70" s="109"/>
       <c r="I70" s="109"/>
@@ -13098,7 +13094,7 @@
         <v>146</v>
       </c>
       <c r="G71" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H71" s="107"/>
       <c r="I71" s="107"/>
@@ -13134,7 +13130,7 @@
         <v>148</v>
       </c>
       <c r="G72" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H72" s="109"/>
       <c r="I72" s="134"/>
@@ -13170,7 +13166,7 @@
         <v>150</v>
       </c>
       <c r="G73" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H73" s="109"/>
       <c r="I73" s="137"/>
@@ -13204,7 +13200,7 @@
         <v>151</v>
       </c>
       <c r="G74" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H74" s="109"/>
       <c r="I74" s="109"/>
@@ -13238,7 +13234,7 @@
         <v>152</v>
       </c>
       <c r="G75" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H75" s="109"/>
       <c r="I75" s="109"/>
@@ -13272,7 +13268,7 @@
         <v>153</v>
       </c>
       <c r="G76" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H76" s="109"/>
       <c r="I76" s="109"/>
@@ -13306,7 +13302,7 @@
         <v>154</v>
       </c>
       <c r="G77" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H77" s="109"/>
       <c r="I77" s="109"/>
@@ -13346,7 +13342,7 @@
         <v>158</v>
       </c>
       <c r="G78" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H78" s="109"/>
       <c r="I78" s="109"/>
@@ -13380,7 +13376,7 @@
         <v>159</v>
       </c>
       <c r="G79" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H79" s="109"/>
       <c r="I79" s="109"/>
@@ -13416,7 +13412,7 @@
         <v>161</v>
       </c>
       <c r="G80" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H80" s="109"/>
       <c r="I80" s="109"/>
@@ -13452,7 +13448,7 @@
         <v>163</v>
       </c>
       <c r="G81" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H81" s="109"/>
       <c r="I81" s="109"/>
@@ -13486,7 +13482,7 @@
         <v>164</v>
       </c>
       <c r="G82" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H82" s="109"/>
       <c r="I82" s="109"/>
@@ -13522,7 +13518,7 @@
         <v>166</v>
       </c>
       <c r="G83" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H83" s="109"/>
       <c r="I83" s="109"/>
@@ -13558,7 +13554,7 @@
         <v>168</v>
       </c>
       <c r="G84" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H84" s="109"/>
       <c r="I84" s="109"/>
@@ -13598,7 +13594,7 @@
         <v>170</v>
       </c>
       <c r="G85" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H85" s="109"/>
       <c r="I85" s="141"/>
@@ -13634,7 +13630,7 @@
         <v>171</v>
       </c>
       <c r="G86" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H86" s="109"/>
       <c r="I86" s="141"/>
@@ -13670,7 +13666,7 @@
         <v>173</v>
       </c>
       <c r="G87" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H87" s="109"/>
       <c r="I87" s="109"/>
@@ -13710,7 +13706,7 @@
         <v>175</v>
       </c>
       <c r="G88" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H88" s="109"/>
       <c r="I88" s="141"/>
@@ -13744,7 +13740,7 @@
         <v>176</v>
       </c>
       <c r="G89" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H89" s="109"/>
       <c r="I89" s="141"/>
@@ -13780,7 +13776,7 @@
         <v>177</v>
       </c>
       <c r="G90" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H90" s="109"/>
       <c r="I90" s="141"/>
@@ -13816,7 +13812,7 @@
         <v>178</v>
       </c>
       <c r="G91" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H91" s="109"/>
       <c r="I91" s="109"/>
@@ -13850,7 +13846,7 @@
         <v>179</v>
       </c>
       <c r="G92" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H92" s="109"/>
       <c r="I92" s="109"/>
@@ -13886,7 +13882,7 @@
         <v>180</v>
       </c>
       <c r="G93" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H93" s="109"/>
       <c r="I93" s="109"/>
@@ -13926,7 +13922,7 @@
         <v>183</v>
       </c>
       <c r="G94" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H94" s="109"/>
       <c r="I94" s="109"/>
@@ -13960,7 +13956,7 @@
         <v>184</v>
       </c>
       <c r="G95" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H95" s="109"/>
       <c r="I95" s="109"/>
@@ -13994,7 +13990,7 @@
         <v>185</v>
       </c>
       <c r="G96" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H96" s="109"/>
       <c r="I96" s="109"/>
@@ -14028,7 +14024,7 @@
         <v>186</v>
       </c>
       <c r="G97" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H97" s="109"/>
       <c r="I97" s="109"/>
@@ -14062,7 +14058,7 @@
         <v>187</v>
       </c>
       <c r="G98" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H98" s="109"/>
       <c r="I98" s="109"/>
@@ -14098,7 +14094,7 @@
         <v>189</v>
       </c>
       <c r="G99" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H99" s="109"/>
       <c r="I99" s="141"/>
@@ -14132,7 +14128,7 @@
         <v>190</v>
       </c>
       <c r="G100" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H100" s="109"/>
       <c r="I100" s="109"/>
@@ -14166,7 +14162,7 @@
         <v>191</v>
       </c>
       <c r="G101" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H101" s="109"/>
       <c r="I101" s="141"/>
@@ -14200,7 +14196,7 @@
         <v>192</v>
       </c>
       <c r="G102" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H102" s="109"/>
       <c r="I102" s="109"/>
@@ -14234,7 +14230,7 @@
         <v>193</v>
       </c>
       <c r="G103" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H103" s="107"/>
       <c r="I103" s="107"/>
@@ -14270,7 +14266,7 @@
         <v>194</v>
       </c>
       <c r="G104" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H104" s="109"/>
       <c r="I104" s="109"/>
@@ -14312,7 +14308,7 @@
         <v>197</v>
       </c>
       <c r="G105" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H105" s="109"/>
       <c r="I105" s="109"/>
@@ -14352,7 +14348,7 @@
         <v>199</v>
       </c>
       <c r="G106" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H106" s="109"/>
       <c r="I106" s="109"/>
@@ -14386,7 +14382,7 @@
         <v>200</v>
       </c>
       <c r="G107" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H107" s="109"/>
       <c r="I107" s="109"/>
@@ -14426,7 +14422,7 @@
         <v>202</v>
       </c>
       <c r="G108" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H108" s="109"/>
       <c r="I108" s="109"/>
@@ -14466,7 +14462,7 @@
         <v>204</v>
       </c>
       <c r="G109" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H109" s="109"/>
       <c r="I109" s="109"/>
@@ -14500,7 +14496,7 @@
         <v>205</v>
       </c>
       <c r="G110" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H110" s="109"/>
       <c r="I110" s="109"/>
@@ -14542,7 +14538,7 @@
         <v>208</v>
       </c>
       <c r="G111" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H111" s="109"/>
       <c r="I111" s="109"/>
@@ -14578,7 +14574,7 @@
         <v>210</v>
       </c>
       <c r="G112" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H112" s="109"/>
       <c r="I112" s="109"/>
@@ -14612,7 +14608,7 @@
         <v>211</v>
       </c>
       <c r="G113" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H113" s="109"/>
       <c r="I113" s="109"/>
@@ -14646,7 +14642,7 @@
         <v>212</v>
       </c>
       <c r="G114" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H114" s="109"/>
       <c r="I114" s="109"/>
@@ -14682,7 +14678,7 @@
         <v>213</v>
       </c>
       <c r="G115" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H115" s="109"/>
       <c r="I115" s="109"/>
@@ -14716,7 +14712,7 @@
         <v>214</v>
       </c>
       <c r="G116" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H116" s="109"/>
       <c r="I116" s="109"/>
@@ -14750,7 +14746,7 @@
         <v>215</v>
       </c>
       <c r="G117" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H117" s="109"/>
       <c r="I117" s="109"/>
@@ -14784,7 +14780,7 @@
         <v>216</v>
       </c>
       <c r="G118" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H118" s="109"/>
       <c r="I118" s="109"/>
@@ -14818,7 +14814,7 @@
         <v>217</v>
       </c>
       <c r="G119" s="109" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H119" s="109"/>
       <c r="I119" s="109"/>
@@ -14854,7 +14850,7 @@
         <v>219</v>
       </c>
       <c r="G120" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H120" s="109"/>
       <c r="I120" s="109"/>
@@ -14888,7 +14884,7 @@
         <v>220</v>
       </c>
       <c r="G121" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H121" s="109"/>
       <c r="I121" s="109"/>
@@ -14922,7 +14918,7 @@
         <v>221</v>
       </c>
       <c r="G122" s="109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H122" s="109"/>
       <c r="I122" s="109"/>
@@ -14956,7 +14952,7 @@
         <v>222</v>
       </c>
       <c r="G123" s="109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H123" s="109"/>
       <c r="I123" s="109"/>
@@ -14990,7 +14986,7 @@
         <v>223</v>
       </c>
       <c r="G124" s="109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H124" s="109"/>
       <c r="I124" s="109"/>
@@ -15026,7 +15022,7 @@
         <v>225</v>
       </c>
       <c r="G125" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H125" s="109"/>
       <c r="I125" s="109"/>
@@ -15064,7 +15060,7 @@
         <v>226</v>
       </c>
       <c r="G126" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H126" s="109"/>
       <c r="I126" s="109"/>
@@ -15104,7 +15100,7 @@
         <v>229</v>
       </c>
       <c r="G127" s="109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H127" s="109"/>
       <c r="I127" s="109"/>
@@ -15140,7 +15136,7 @@
         <v>231</v>
       </c>
       <c r="G128" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H128" s="109"/>
       <c r="I128" s="109"/>
@@ -15174,7 +15170,7 @@
         <v>232</v>
       </c>
       <c r="G129" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H129" s="109"/>
       <c r="I129" s="109"/>
@@ -15208,7 +15204,7 @@
         <v>233</v>
       </c>
       <c r="G130" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H130" s="109"/>
       <c r="I130" s="109"/>
@@ -15250,7 +15246,7 @@
         <v>235</v>
       </c>
       <c r="G131" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H131" s="109"/>
       <c r="I131" s="109"/>
@@ -15286,7 +15282,7 @@
         <v>237</v>
       </c>
       <c r="G132" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H132" s="109"/>
       <c r="I132" s="109"/>
@@ -15320,7 +15316,7 @@
         <v>238</v>
       </c>
       <c r="G133" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H133" s="109"/>
       <c r="I133" s="109"/>
@@ -15354,7 +15350,7 @@
         <v>239</v>
       </c>
       <c r="G134" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H134" s="109"/>
       <c r="I134" s="109"/>
@@ -15390,7 +15386,7 @@
         <v>241</v>
       </c>
       <c r="G135" s="109" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H135" s="109"/>
       <c r="I135" s="109"/>
@@ -15424,7 +15420,7 @@
         <v>242</v>
       </c>
       <c r="G136" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H136" s="109"/>
       <c r="I136" s="109"/>
@@ -15462,7 +15458,7 @@
         <v>243</v>
       </c>
       <c r="G137" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H137" s="109"/>
       <c r="I137" s="109"/>
@@ -15502,7 +15498,7 @@
         <v>246</v>
       </c>
       <c r="G138" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H138" s="109"/>
       <c r="I138" s="109"/>
@@ -15538,7 +15534,7 @@
         <v>248</v>
       </c>
       <c r="G139" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H139" s="109"/>
       <c r="I139" s="109"/>
@@ -15574,7 +15570,7 @@
         <v>250</v>
       </c>
       <c r="G140" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H140" s="109"/>
       <c r="I140" s="109"/>
@@ -15610,7 +15606,7 @@
         <v>251</v>
       </c>
       <c r="G141" s="109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H141" s="109"/>
       <c r="I141" s="109"/>
@@ -15646,7 +15642,7 @@
         <v>253</v>
       </c>
       <c r="G142" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H142" s="109"/>
       <c r="I142" s="109"/>
@@ -15682,7 +15678,7 @@
         <v>255</v>
       </c>
       <c r="G143" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H143" s="109"/>
       <c r="I143" s="109"/>
@@ -15716,7 +15712,7 @@
         <v>256</v>
       </c>
       <c r="G144" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H144" s="109"/>
       <c r="I144" s="109"/>
@@ -15750,7 +15746,7 @@
         <v>257</v>
       </c>
       <c r="G145" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H145" s="109"/>
       <c r="I145" s="109"/>
@@ -15784,7 +15780,7 @@
         <v>258</v>
       </c>
       <c r="G146" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H146" s="109"/>
       <c r="I146" s="109"/>
@@ -15818,7 +15814,7 @@
         <v>259</v>
       </c>
       <c r="G147" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H147" s="109"/>
       <c r="I147" s="109"/>
@@ -15852,7 +15848,7 @@
         <v>260</v>
       </c>
       <c r="G148" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H148" s="109"/>
       <c r="I148" s="109"/>
@@ -15890,7 +15886,7 @@
         <v>262</v>
       </c>
       <c r="G149" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H149" s="109"/>
       <c r="I149" s="109"/>
@@ -15924,7 +15920,7 @@
         <v>263</v>
       </c>
       <c r="G150" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H150" s="109"/>
       <c r="I150" s="109"/>
@@ -15960,7 +15956,7 @@
         <v>264</v>
       </c>
       <c r="G151" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H151" s="109"/>
       <c r="I151" s="109"/>
@@ -15994,7 +15990,7 @@
         <v>265</v>
       </c>
       <c r="G152" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H152" s="109"/>
       <c r="I152" s="109"/>
@@ -16028,7 +16024,7 @@
         <v>266</v>
       </c>
       <c r="G153" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H153" s="109"/>
       <c r="I153" s="109"/>
@@ -16062,7 +16058,7 @@
         <v>267</v>
       </c>
       <c r="G154" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H154" s="109"/>
       <c r="I154" s="109"/>
@@ -16096,7 +16092,7 @@
         <v>268</v>
       </c>
       <c r="G155" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H155" s="109"/>
       <c r="I155" s="109"/>
@@ -16130,7 +16126,7 @@
         <v>269</v>
       </c>
       <c r="G156" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H156" s="109"/>
       <c r="I156" s="109"/>
@@ -16164,7 +16160,7 @@
         <v>270</v>
       </c>
       <c r="G157" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H157" s="109"/>
       <c r="I157" s="109"/>
@@ -16198,7 +16194,7 @@
         <v>271</v>
       </c>
       <c r="G158" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H158" s="109"/>
       <c r="I158" s="109"/>
@@ -16232,7 +16228,7 @@
         <v>272</v>
       </c>
       <c r="G159" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H159" s="109"/>
       <c r="I159" s="109"/>
@@ -16266,7 +16262,7 @@
         <v>273</v>
       </c>
       <c r="G160" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H160" s="109"/>
       <c r="I160" s="109"/>
@@ -16300,7 +16296,7 @@
         <v>274</v>
       </c>
       <c r="G161" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H161" s="109"/>
       <c r="I161" s="109"/>
@@ -16336,7 +16332,7 @@
         <v>275</v>
       </c>
       <c r="G162" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H162" s="109"/>
       <c r="I162" s="109"/>
@@ -16370,7 +16366,7 @@
         <v>276</v>
       </c>
       <c r="G163" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H163" s="109"/>
       <c r="I163" s="109"/>
@@ -16404,7 +16400,7 @@
         <v>277</v>
       </c>
       <c r="G164" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H164" s="109"/>
       <c r="I164" s="109"/>
@@ -16438,7 +16434,7 @@
         <v>278</v>
       </c>
       <c r="G165" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H165" s="109"/>
       <c r="I165" s="109"/>
@@ -16472,7 +16468,7 @@
         <v>279</v>
       </c>
       <c r="G166" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H166" s="109"/>
       <c r="I166" s="109"/>
@@ -16506,7 +16502,7 @@
         <v>280</v>
       </c>
       <c r="G167" s="109" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H167" s="109"/>
       <c r="I167" s="109"/>
@@ -16540,7 +16536,7 @@
         <v>281</v>
       </c>
       <c r="G168" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H168" s="109"/>
       <c r="I168" s="109"/>
@@ -16576,7 +16572,7 @@
         <v>282</v>
       </c>
       <c r="G169" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H169" s="109"/>
       <c r="I169" s="109"/>
@@ -16610,7 +16606,7 @@
         <v>283</v>
       </c>
       <c r="G170" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H170" s="109"/>
       <c r="I170" s="109"/>
@@ -16644,7 +16640,7 @@
         <v>284</v>
       </c>
       <c r="G171" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H171" s="109"/>
       <c r="I171" s="109"/>
@@ -16678,7 +16674,7 @@
         <v>285</v>
       </c>
       <c r="G172" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H172" s="109"/>
       <c r="I172" s="109"/>
@@ -16712,7 +16708,7 @@
         <v>286</v>
       </c>
       <c r="G173" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H173" s="109"/>
       <c r="I173" s="109"/>
@@ -16746,7 +16742,7 @@
         <v>287</v>
       </c>
       <c r="G174" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H174" s="109"/>
       <c r="I174" s="109"/>
@@ -16780,7 +16776,7 @@
         <v>288</v>
       </c>
       <c r="G175" s="109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H175" s="109"/>
       <c r="I175" s="109"/>
@@ -16814,7 +16810,7 @@
         <v>289</v>
       </c>
       <c r="G176" s="109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H176" s="109"/>
       <c r="I176" s="109"/>
@@ -16848,7 +16844,7 @@
         <v>290</v>
       </c>
       <c r="G177" s="109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H177" s="109"/>
       <c r="I177" s="109"/>
@@ -16884,7 +16880,7 @@
         <v>291</v>
       </c>
       <c r="G178" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H178" s="109"/>
       <c r="I178" s="109"/>
@@ -16920,7 +16916,7 @@
         <v>293</v>
       </c>
       <c r="G179" s="109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H179" s="109"/>
       <c r="I179" s="109"/>
@@ -16962,7 +16958,7 @@
         <v>296</v>
       </c>
       <c r="G180" s="149" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H180" s="109"/>
       <c r="I180" s="109"/>
@@ -17000,7 +16996,7 @@
         <v>298</v>
       </c>
       <c r="G181" s="149" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H181" s="109"/>
       <c r="I181" s="109"/>
@@ -17038,7 +17034,7 @@
         <v>300</v>
       </c>
       <c r="G182" s="149" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H182" s="109"/>
       <c r="I182" s="109"/>
@@ -17080,7 +17076,7 @@
         <v>303</v>
       </c>
       <c r="G183" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H183" s="109"/>
       <c r="I183" s="109"/>
@@ -17116,7 +17112,7 @@
         <v>304</v>
       </c>
       <c r="G184" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H184" s="109"/>
       <c r="I184" s="109"/>
@@ -17150,7 +17146,7 @@
         <v>305</v>
       </c>
       <c r="G185" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H185" s="109"/>
       <c r="I185" s="109"/>
@@ -17186,7 +17182,7 @@
         <v>307</v>
       </c>
       <c r="G186" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H186" s="109"/>
       <c r="I186" s="109"/>
@@ -17220,7 +17216,7 @@
         <v>308</v>
       </c>
       <c r="G187" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H187" s="109"/>
       <c r="I187" s="109"/>
@@ -17258,7 +17254,7 @@
         <v>309</v>
       </c>
       <c r="G188" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H188" s="109"/>
       <c r="I188" s="109"/>
@@ -17298,7 +17294,7 @@
         <v>313</v>
       </c>
       <c r="G189" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H189" s="109"/>
       <c r="I189" s="109"/>
@@ -17332,7 +17328,7 @@
         <v>314</v>
       </c>
       <c r="G190" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H190" s="109"/>
       <c r="I190" s="109"/>
@@ -17366,7 +17362,7 @@
         <v>315</v>
       </c>
       <c r="G191" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H191" s="109"/>
       <c r="I191" s="109"/>
@@ -17400,7 +17396,7 @@
         <v>316</v>
       </c>
       <c r="G192" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H192" s="109"/>
       <c r="I192" s="109"/>
@@ -17434,7 +17430,7 @@
         <v>317</v>
       </c>
       <c r="G193" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H193" s="109"/>
       <c r="I193" s="109"/>
@@ -17468,7 +17464,7 @@
         <v>318</v>
       </c>
       <c r="G194" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H194" s="109"/>
       <c r="I194" s="109"/>
@@ -17502,7 +17498,7 @@
         <v>319</v>
       </c>
       <c r="G195" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H195" s="109"/>
       <c r="I195" s="109"/>
@@ -17538,7 +17534,7 @@
         <v>321</v>
       </c>
       <c r="G196" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H196" s="109"/>
       <c r="I196" s="109"/>
@@ -17576,7 +17572,7 @@
         <v>323</v>
       </c>
       <c r="G197" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H197" s="109"/>
       <c r="I197" s="109"/>
@@ -17610,7 +17606,7 @@
         <v>324</v>
       </c>
       <c r="G198" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H198" s="109"/>
       <c r="I198" s="109"/>
@@ -17644,7 +17640,7 @@
         <v>325</v>
       </c>
       <c r="G199" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H199" s="109"/>
       <c r="I199" s="109"/>
@@ -17678,7 +17674,7 @@
         <v>326</v>
       </c>
       <c r="G200" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H200" s="109"/>
       <c r="I200" s="109"/>
@@ -17712,7 +17708,7 @@
         <v>327</v>
       </c>
       <c r="G201" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H201" s="109"/>
       <c r="I201" s="109"/>
@@ -17746,7 +17742,7 @@
         <v>328</v>
       </c>
       <c r="G202" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H202" s="109"/>
       <c r="I202" s="109"/>
@@ -17780,7 +17776,7 @@
         <v>329</v>
       </c>
       <c r="G203" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H203" s="109"/>
       <c r="I203" s="109"/>
@@ -17814,7 +17810,7 @@
         <v>330</v>
       </c>
       <c r="G204" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H204" s="109"/>
       <c r="I204" s="109"/>
@@ -17848,7 +17844,7 @@
         <v>331</v>
       </c>
       <c r="G205" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H205" s="109"/>
       <c r="I205" s="109"/>
@@ -17882,7 +17878,7 @@
         <v>332</v>
       </c>
       <c r="G206" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H206" s="109"/>
       <c r="I206" s="109"/>
@@ -17916,7 +17912,7 @@
         <v>333</v>
       </c>
       <c r="G207" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H207" s="109"/>
       <c r="I207" s="109"/>
@@ -17950,7 +17946,7 @@
         <v>334</v>
       </c>
       <c r="G208" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H208" s="109"/>
       <c r="I208" s="109"/>
@@ -17984,7 +17980,7 @@
         <v>335</v>
       </c>
       <c r="G209" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H209" s="109"/>
       <c r="I209" s="109"/>
@@ -18022,7 +18018,7 @@
         <v>337</v>
       </c>
       <c r="G210" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H210" s="109"/>
       <c r="I210" s="109"/>
@@ -18056,7 +18052,7 @@
         <v>338</v>
       </c>
       <c r="G211" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H211" s="109"/>
       <c r="I211" s="109"/>
@@ -18090,7 +18086,7 @@
         <v>339</v>
       </c>
       <c r="G212" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H212" s="109"/>
       <c r="I212" s="109"/>
@@ -18124,7 +18120,7 @@
         <v>325</v>
       </c>
       <c r="G213" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H213" s="109"/>
       <c r="I213" s="109"/>
@@ -18158,7 +18154,7 @@
         <v>326</v>
       </c>
       <c r="G214" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H214" s="109"/>
       <c r="I214" s="109"/>
@@ -18192,7 +18188,7 @@
         <v>340</v>
       </c>
       <c r="G215" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H215" s="109"/>
       <c r="I215" s="109"/>
@@ -18226,7 +18222,7 @@
         <v>341</v>
       </c>
       <c r="G216" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H216" s="109"/>
       <c r="I216" s="109"/>
@@ -18260,7 +18256,7 @@
         <v>342</v>
       </c>
       <c r="G217" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H217" s="109"/>
       <c r="I217" s="109"/>
@@ -18294,7 +18290,7 @@
         <v>343</v>
       </c>
       <c r="G218" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H218" s="109"/>
       <c r="I218" s="109"/>
@@ -18328,7 +18324,7 @@
         <v>344</v>
       </c>
       <c r="G219" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H219" s="109"/>
       <c r="I219" s="109"/>
@@ -18362,7 +18358,7 @@
         <v>345</v>
       </c>
       <c r="G220" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H220" s="109"/>
       <c r="I220" s="109"/>
@@ -18396,7 +18392,7 @@
         <v>346</v>
       </c>
       <c r="G221" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H221" s="109"/>
       <c r="I221" s="109"/>
@@ -18430,7 +18426,7 @@
         <v>347</v>
       </c>
       <c r="G222" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H222" s="109"/>
       <c r="I222" s="109"/>
@@ -18464,7 +18460,7 @@
         <v>348</v>
       </c>
       <c r="G223" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H223" s="109"/>
       <c r="I223" s="109"/>
@@ -18498,7 +18494,7 @@
         <v>335</v>
       </c>
       <c r="G224" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H224" s="109"/>
       <c r="I224" s="109"/>
@@ -18534,7 +18530,7 @@
         <v>350</v>
       </c>
       <c r="G225" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H225" s="109"/>
       <c r="I225" s="109"/>
@@ -18568,7 +18564,7 @@
         <v>351</v>
       </c>
       <c r="G226" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H226" s="109"/>
       <c r="I226" s="109"/>
@@ -18602,7 +18598,7 @@
         <v>352</v>
       </c>
       <c r="G227" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H227" s="109"/>
       <c r="I227" s="109"/>
@@ -18638,7 +18634,7 @@
         <v>353</v>
       </c>
       <c r="G228" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H228" s="109"/>
       <c r="I228" s="109"/>
@@ -18674,7 +18670,7 @@
         <v>355</v>
       </c>
       <c r="G229" s="149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H229" s="109"/>
       <c r="I229" s="109"/>
@@ -18716,7 +18712,7 @@
         <v>357</v>
       </c>
       <c r="G230" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H230" s="109"/>
       <c r="I230" s="109"/>
@@ -18752,7 +18748,7 @@
         <v>358</v>
       </c>
       <c r="G231" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H231" s="109"/>
       <c r="I231" s="109"/>
@@ -18786,7 +18782,7 @@
         <v>359</v>
       </c>
       <c r="G232" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H232" s="109"/>
       <c r="I232" s="109"/>
@@ -18820,7 +18816,7 @@
         <v>360</v>
       </c>
       <c r="G233" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H233" s="109"/>
       <c r="I233" s="109"/>
@@ -18854,7 +18850,7 @@
         <v>361</v>
       </c>
       <c r="G234" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H234" s="109"/>
       <c r="I234" s="109"/>
@@ -18888,7 +18884,7 @@
         <v>362</v>
       </c>
       <c r="G235" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H235" s="109"/>
       <c r="I235" s="109"/>
@@ -18924,7 +18920,7 @@
         <v>363</v>
       </c>
       <c r="G236" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H236" s="109"/>
       <c r="I236" s="109"/>
@@ -18958,7 +18954,7 @@
         <v>364</v>
       </c>
       <c r="G237" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H237" s="109"/>
       <c r="I237" s="109"/>
@@ -18992,7 +18988,7 @@
         <v>365</v>
       </c>
       <c r="G238" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H238" s="109"/>
       <c r="I238" s="109"/>
@@ -19026,7 +19022,7 @@
         <v>366</v>
       </c>
       <c r="G239" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H239" s="109"/>
       <c r="I239" s="109"/>
@@ -19060,7 +19056,7 @@
         <v>367</v>
       </c>
       <c r="G240" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H240" s="109"/>
       <c r="I240" s="109"/>
@@ -19096,7 +19092,7 @@
         <v>368</v>
       </c>
       <c r="G241" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H241" s="109"/>
       <c r="I241" s="109"/>
@@ -19136,7 +19132,7 @@
         <v>369</v>
       </c>
       <c r="G242" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H242" s="109"/>
       <c r="I242" s="109"/>
@@ -19178,7 +19174,7 @@
         <v>372</v>
       </c>
       <c r="G243" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H243" s="109"/>
       <c r="I243" s="109"/>
@@ -19212,7 +19208,7 @@
         <v>373</v>
       </c>
       <c r="G244" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H244" s="109"/>
       <c r="I244" s="109"/>
@@ -19250,7 +19246,7 @@
         <v>374</v>
       </c>
       <c r="G245" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H245" s="109"/>
       <c r="I245" s="109"/>
@@ -19284,7 +19280,7 @@
         <v>375</v>
       </c>
       <c r="G246" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H246" s="109"/>
       <c r="I246" s="109"/>
@@ -19324,7 +19320,7 @@
         <v>377</v>
       </c>
       <c r="G247" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H247" s="109"/>
       <c r="I247" s="109"/>
@@ -19360,7 +19356,7 @@
         <v>378</v>
       </c>
       <c r="G248" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H248" s="109"/>
       <c r="I248" s="109"/>
@@ -19396,7 +19392,7 @@
         <v>379</v>
       </c>
       <c r="G249" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H249" s="109"/>
       <c r="I249" s="109"/>
@@ -19432,7 +19428,7 @@
         <v>380</v>
       </c>
       <c r="G250" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H250" s="109"/>
       <c r="I250" s="109"/>
@@ -19470,7 +19466,7 @@
         <v>381</v>
       </c>
       <c r="G251" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H251" s="109"/>
       <c r="I251" s="109"/>
@@ -19504,7 +19500,7 @@
         <v>382</v>
       </c>
       <c r="G252" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H252" s="109"/>
       <c r="I252" s="109"/>
@@ -19540,7 +19536,7 @@
         <v>383</v>
       </c>
       <c r="G253" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H253" s="109"/>
       <c r="I253" s="109"/>
@@ -19574,7 +19570,7 @@
         <v>384</v>
       </c>
       <c r="G254" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H254" s="109"/>
       <c r="I254" s="109"/>
@@ -19608,7 +19604,7 @@
         <v>385</v>
       </c>
       <c r="G255" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H255" s="109"/>
       <c r="I255" s="109"/>
@@ -19642,7 +19638,7 @@
         <v>386</v>
       </c>
       <c r="G256" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H256" s="109"/>
       <c r="I256" s="109"/>
@@ -19676,7 +19672,7 @@
         <v>387</v>
       </c>
       <c r="G257" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H257" s="109"/>
       <c r="I257" s="109"/>
@@ -19710,7 +19706,7 @@
         <v>388</v>
       </c>
       <c r="G258" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H258" s="109"/>
       <c r="I258" s="109"/>
@@ -19744,7 +19740,7 @@
         <v>389</v>
       </c>
       <c r="G259" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H259" s="109"/>
       <c r="I259" s="109"/>
@@ -19778,7 +19774,7 @@
         <v>390</v>
       </c>
       <c r="G260" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H260" s="109"/>
       <c r="I260" s="109"/>
@@ -19812,7 +19808,7 @@
         <v>391</v>
       </c>
       <c r="G261" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H261" s="109"/>
       <c r="I261" s="109"/>
@@ -19846,7 +19842,7 @@
         <v>392</v>
       </c>
       <c r="G262" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H262" s="109"/>
       <c r="I262" s="109"/>
@@ -19880,7 +19876,7 @@
         <v>393</v>
       </c>
       <c r="G263" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H263" s="109"/>
       <c r="I263" s="109"/>
@@ -19916,7 +19912,7 @@
         <v>394</v>
       </c>
       <c r="G264" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H264" s="109"/>
       <c r="I264" s="109"/>
@@ -19950,7 +19946,7 @@
         <v>395</v>
       </c>
       <c r="G265" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H265" s="109"/>
       <c r="I265" s="109"/>
@@ -19984,7 +19980,7 @@
         <v>396</v>
       </c>
       <c r="G266" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H266" s="109"/>
       <c r="I266" s="109"/>
@@ -20018,7 +20014,7 @@
         <v>397</v>
       </c>
       <c r="G267" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H267" s="109"/>
       <c r="I267" s="109"/>
@@ -20052,7 +20048,7 @@
         <v>398</v>
       </c>
       <c r="G268" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H268" s="109"/>
       <c r="I268" s="109"/>
@@ -20086,7 +20082,7 @@
         <v>399</v>
       </c>
       <c r="G269" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H269" s="109"/>
       <c r="I269" s="109"/>
@@ -20122,7 +20118,7 @@
         <v>400</v>
       </c>
       <c r="G270" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H270" s="109"/>
       <c r="I270" s="109"/>
@@ -20156,7 +20152,7 @@
         <v>401</v>
       </c>
       <c r="G271" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H271" s="109"/>
       <c r="I271" s="109"/>
@@ -20190,7 +20186,7 @@
         <v>402</v>
       </c>
       <c r="G272" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H272" s="109"/>
       <c r="I272" s="109"/>
@@ -20224,7 +20220,7 @@
         <v>403</v>
       </c>
       <c r="G273" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H273" s="109"/>
       <c r="I273" s="109"/>
@@ -20258,7 +20254,7 @@
         <v>404</v>
       </c>
       <c r="G274" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H274" s="109"/>
       <c r="I274" s="109"/>
@@ -20292,7 +20288,7 @@
         <v>405</v>
       </c>
       <c r="G275" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H275" s="109"/>
       <c r="I275" s="109"/>
@@ -20326,7 +20322,7 @@
         <v>406</v>
       </c>
       <c r="G276" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H276" s="109"/>
       <c r="I276" s="109"/>
@@ -20360,7 +20356,7 @@
         <v>407</v>
       </c>
       <c r="G277" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H277" s="109"/>
       <c r="I277" s="109"/>
@@ -20396,7 +20392,7 @@
         <v>408</v>
       </c>
       <c r="G278" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H278" s="109"/>
       <c r="I278" s="109"/>
@@ -21039,7 +21035,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -21049,7 +21045,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -21080,9 +21076,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.5" thickBot="1">
-      <c r="A8" s="27" t="s">
-        <v>465</v>
-      </c>
+      <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="27"/>
@@ -21187,7 +21181,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H11" s="110"/>
       <c r="I11" s="110"/>
@@ -21224,7 +21218,7 @@
         <v>62</v>
       </c>
       <c r="G12" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H12" s="110"/>
       <c r="I12" s="110"/>
@@ -21263,7 +21257,7 @@
         <v>65</v>
       </c>
       <c r="G13" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H13" s="110"/>
       <c r="I13" s="110"/>
@@ -21298,7 +21292,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="110"/>
@@ -21333,7 +21327,7 @@
         <v>67</v>
       </c>
       <c r="G15" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H15" s="110"/>
       <c r="I15" s="109"/>
@@ -21368,7 +21362,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H16" s="110"/>
       <c r="I16" s="109"/>
@@ -21403,7 +21397,7 @@
         <v>69</v>
       </c>
       <c r="G17" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="109"/>
@@ -21442,7 +21436,7 @@
         <v>72</v>
       </c>
       <c r="G18" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H18" s="110"/>
       <c r="I18" s="110"/>
@@ -21477,7 +21471,7 @@
         <v>73</v>
       </c>
       <c r="G19" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H19" s="110"/>
       <c r="I19" s="110"/>
@@ -21512,7 +21506,7 @@
         <v>74</v>
       </c>
       <c r="G20" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H20" s="110"/>
       <c r="I20" s="109"/>
@@ -21549,7 +21543,7 @@
         <v>76</v>
       </c>
       <c r="G21" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H21" s="110"/>
       <c r="I21" s="110"/>
@@ -21584,7 +21578,7 @@
         <v>77</v>
       </c>
       <c r="G22" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H22" s="110"/>
       <c r="I22" s="110"/>
@@ -21619,7 +21613,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H23" s="110"/>
       <c r="I23" s="110"/>
@@ -21654,7 +21648,7 @@
         <v>79</v>
       </c>
       <c r="G24" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H24" s="110"/>
       <c r="I24" s="110"/>
@@ -21693,7 +21687,7 @@
         <v>81</v>
       </c>
       <c r="G25" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H25" s="110"/>
       <c r="I25" s="110"/>
@@ -21728,7 +21722,7 @@
         <v>82</v>
       </c>
       <c r="G26" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H26" s="110"/>
       <c r="I26" s="110"/>
@@ -21767,7 +21761,7 @@
         <v>85</v>
       </c>
       <c r="G27" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H27" s="110"/>
       <c r="I27" s="110"/>
@@ -21802,7 +21796,7 @@
         <v>86</v>
       </c>
       <c r="G28" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H28" s="110"/>
       <c r="I28" s="110"/>
@@ -21839,7 +21833,7 @@
         <v>88</v>
       </c>
       <c r="G29" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H29" s="110"/>
       <c r="I29" s="110"/>
@@ -21874,7 +21868,7 @@
         <v>89</v>
       </c>
       <c r="G30" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H30" s="110"/>
       <c r="I30" s="110"/>
@@ -21909,7 +21903,7 @@
         <v>90</v>
       </c>
       <c r="G31" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="110"/>
@@ -21944,7 +21938,7 @@
         <v>91</v>
       </c>
       <c r="G32" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="110"/>
@@ -21981,7 +21975,7 @@
         <v>93</v>
       </c>
       <c r="G33" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H33" s="110"/>
       <c r="I33" s="109"/>
@@ -22016,7 +22010,7 @@
         <v>94</v>
       </c>
       <c r="G34" s="111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H34" s="110"/>
       <c r="I34" s="109"/>
@@ -22053,7 +22047,7 @@
         <v>96</v>
       </c>
       <c r="G35" s="111" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H35" s="109"/>
       <c r="I35" s="109"/>
@@ -23481,7 +23475,7 @@
         <v>154</v>
       </c>
       <c r="G77" s="111" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H77" s="109"/>
       <c r="I77" s="109"/>
@@ -24953,7 +24947,7 @@
         <v>217</v>
       </c>
       <c r="G119" s="111" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H119" s="109"/>
       <c r="I119" s="109"/>
@@ -25056,7 +25050,7 @@
         <v>221</v>
       </c>
       <c r="G122" s="109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H122" s="109"/>
       <c r="I122" s="109"/>
@@ -25091,7 +25085,7 @@
         <v>222</v>
       </c>
       <c r="G123" s="109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H123" s="109"/>
       <c r="I123" s="109"/>
@@ -25126,7 +25120,7 @@
         <v>223</v>
       </c>
       <c r="G124" s="109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H124" s="109"/>
       <c r="I124" s="109"/>
@@ -25239,7 +25233,7 @@
         <v>229</v>
       </c>
       <c r="G127" s="109" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H127" s="109"/>
       <c r="I127" s="109"/>
@@ -25733,7 +25727,7 @@
         <v>251</v>
       </c>
       <c r="G141" s="109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H141" s="109"/>
       <c r="I141" s="109"/>
@@ -25805,7 +25799,7 @@
         <v>255</v>
       </c>
       <c r="G143" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H143" s="109"/>
       <c r="I143" s="109"/>
@@ -25840,7 +25834,7 @@
         <v>256</v>
       </c>
       <c r="G144" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H144" s="109"/>
       <c r="I144" s="109"/>
@@ -25875,7 +25869,7 @@
         <v>257</v>
       </c>
       <c r="G145" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H145" s="109"/>
       <c r="I145" s="109"/>
@@ -25910,7 +25904,7 @@
         <v>258</v>
       </c>
       <c r="G146" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H146" s="109"/>
       <c r="I146" s="109"/>
@@ -25945,7 +25939,7 @@
         <v>259</v>
       </c>
       <c r="G147" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H147" s="109"/>
       <c r="I147" s="109"/>
@@ -25980,7 +25974,7 @@
         <v>260</v>
       </c>
       <c r="G148" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H148" s="109"/>
       <c r="I148" s="109"/>
@@ -26617,7 +26611,7 @@
         <v>280</v>
       </c>
       <c r="G167" s="111" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H167" s="109"/>
       <c r="I167" s="109"/>
@@ -26652,7 +26646,7 @@
         <v>281</v>
       </c>
       <c r="G168" s="109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H168" s="109"/>
       <c r="I168" s="109"/>
@@ -26887,7 +26881,7 @@
         <v>288</v>
       </c>
       <c r="G175" s="109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H175" s="109"/>
       <c r="I175" s="109"/>
@@ -26922,7 +26916,7 @@
         <v>289</v>
       </c>
       <c r="G176" s="109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H176" s="109"/>
       <c r="I176" s="109"/>
@@ -26957,7 +26951,7 @@
         <v>290</v>
       </c>
       <c r="G177" s="109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H177" s="109"/>
       <c r="I177" s="109"/>
@@ -27029,7 +27023,7 @@
         <v>293</v>
       </c>
       <c r="G179" s="109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H179" s="109"/>
       <c r="I179" s="109"/>
@@ -27072,7 +27066,7 @@
         <v>296</v>
       </c>
       <c r="G180" s="109" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H180" s="109"/>
       <c r="I180" s="109"/>
@@ -27111,7 +27105,7 @@
         <v>298</v>
       </c>
       <c r="G181" s="109" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H181" s="109"/>
       <c r="I181" s="109"/>
@@ -27150,7 +27144,7 @@
         <v>300</v>
       </c>
       <c r="G182" s="109" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H182" s="109"/>
       <c r="I182" s="109"/>
@@ -27193,7 +27187,7 @@
         <v>303</v>
       </c>
       <c r="G183" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H183" s="109"/>
       <c r="I183" s="109"/>
@@ -27230,7 +27224,7 @@
         <v>304</v>
       </c>
       <c r="G184" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H184" s="109"/>
       <c r="I184" s="109"/>
@@ -27265,7 +27259,7 @@
         <v>305</v>
       </c>
       <c r="G185" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H185" s="109"/>
       <c r="I185" s="109"/>
@@ -27302,7 +27296,7 @@
         <v>307</v>
       </c>
       <c r="G186" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H186" s="109"/>
       <c r="I186" s="109"/>
@@ -27337,7 +27331,7 @@
         <v>308</v>
       </c>
       <c r="G187" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H187" s="109"/>
       <c r="I187" s="109"/>
@@ -27376,7 +27370,7 @@
         <v>309</v>
       </c>
       <c r="G188" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H188" s="109"/>
       <c r="I188" s="109"/>
@@ -27417,7 +27411,7 @@
         <v>313</v>
       </c>
       <c r="G189" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H189" s="109"/>
       <c r="I189" s="109"/>
@@ -27452,7 +27446,7 @@
         <v>314</v>
       </c>
       <c r="G190" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H190" s="109"/>
       <c r="I190" s="109"/>
@@ -27487,7 +27481,7 @@
         <v>315</v>
       </c>
       <c r="G191" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H191" s="109"/>
       <c r="I191" s="109"/>
@@ -27522,7 +27516,7 @@
         <v>316</v>
       </c>
       <c r="G192" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H192" s="109"/>
       <c r="I192" s="109"/>
@@ -27557,7 +27551,7 @@
         <v>317</v>
       </c>
       <c r="G193" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H193" s="109"/>
       <c r="I193" s="109"/>
@@ -27592,7 +27586,7 @@
         <v>318</v>
       </c>
       <c r="G194" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H194" s="109"/>
       <c r="I194" s="109"/>
@@ -27627,7 +27621,7 @@
         <v>319</v>
       </c>
       <c r="G195" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H195" s="109"/>
       <c r="I195" s="109"/>
@@ -27664,7 +27658,7 @@
         <v>321</v>
       </c>
       <c r="G196" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H196" s="109"/>
       <c r="I196" s="109"/>
@@ -27703,7 +27697,7 @@
         <v>323</v>
       </c>
       <c r="G197" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H197" s="109"/>
       <c r="I197" s="109"/>
@@ -27738,7 +27732,7 @@
         <v>324</v>
       </c>
       <c r="G198" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H198" s="109"/>
       <c r="I198" s="109"/>
@@ -27773,7 +27767,7 @@
         <v>325</v>
       </c>
       <c r="G199" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H199" s="109"/>
       <c r="I199" s="109"/>
@@ -27808,7 +27802,7 @@
         <v>326</v>
       </c>
       <c r="G200" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H200" s="109"/>
       <c r="I200" s="109"/>
@@ -27843,7 +27837,7 @@
         <v>327</v>
       </c>
       <c r="G201" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H201" s="109"/>
       <c r="I201" s="109"/>
@@ -27878,7 +27872,7 @@
         <v>328</v>
       </c>
       <c r="G202" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H202" s="109"/>
       <c r="I202" s="109"/>
@@ -27913,7 +27907,7 @@
         <v>329</v>
       </c>
       <c r="G203" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H203" s="109"/>
       <c r="I203" s="109"/>
@@ -27948,7 +27942,7 @@
         <v>330</v>
       </c>
       <c r="G204" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H204" s="109"/>
       <c r="I204" s="109"/>
@@ -27983,7 +27977,7 @@
         <v>331</v>
       </c>
       <c r="G205" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H205" s="109"/>
       <c r="I205" s="109"/>
@@ -28018,7 +28012,7 @@
         <v>332</v>
       </c>
       <c r="G206" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H206" s="109"/>
       <c r="I206" s="109"/>
@@ -28053,7 +28047,7 @@
         <v>333</v>
       </c>
       <c r="G207" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H207" s="109"/>
       <c r="I207" s="109"/>
@@ -28088,7 +28082,7 @@
         <v>334</v>
       </c>
       <c r="G208" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H208" s="109"/>
       <c r="I208" s="109"/>
@@ -28123,7 +28117,7 @@
         <v>335</v>
       </c>
       <c r="G209" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H209" s="109"/>
       <c r="I209" s="109"/>
@@ -28162,7 +28156,7 @@
         <v>337</v>
       </c>
       <c r="G210" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H210" s="109"/>
       <c r="I210" s="109"/>
@@ -28197,7 +28191,7 @@
         <v>338</v>
       </c>
       <c r="G211" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H211" s="109"/>
       <c r="I211" s="109"/>
@@ -28232,7 +28226,7 @@
         <v>339</v>
       </c>
       <c r="G212" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H212" s="109"/>
       <c r="I212" s="109"/>
@@ -28267,7 +28261,7 @@
         <v>325</v>
       </c>
       <c r="G213" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H213" s="109"/>
       <c r="I213" s="109"/>
@@ -28302,7 +28296,7 @@
         <v>326</v>
       </c>
       <c r="G214" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H214" s="109"/>
       <c r="I214" s="109"/>
@@ -28337,7 +28331,7 @@
         <v>340</v>
       </c>
       <c r="G215" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H215" s="109"/>
       <c r="I215" s="109"/>
@@ -28372,7 +28366,7 @@
         <v>341</v>
       </c>
       <c r="G216" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H216" s="109"/>
       <c r="I216" s="109"/>
@@ -28407,7 +28401,7 @@
         <v>342</v>
       </c>
       <c r="G217" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H217" s="109"/>
       <c r="I217" s="109"/>
@@ -28442,7 +28436,7 @@
         <v>343</v>
       </c>
       <c r="G218" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H218" s="109"/>
       <c r="I218" s="109"/>
@@ -28477,7 +28471,7 @@
         <v>344</v>
       </c>
       <c r="G219" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H219" s="109"/>
       <c r="I219" s="109"/>
@@ -28512,7 +28506,7 @@
         <v>345</v>
       </c>
       <c r="G220" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H220" s="109"/>
       <c r="I220" s="109"/>
@@ -28547,7 +28541,7 @@
         <v>346</v>
       </c>
       <c r="G221" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H221" s="109"/>
       <c r="I221" s="109"/>
@@ -28582,7 +28576,7 @@
         <v>347</v>
       </c>
       <c r="G222" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H222" s="109"/>
       <c r="I222" s="109"/>
@@ -28617,7 +28611,7 @@
         <v>348</v>
       </c>
       <c r="G223" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H223" s="109"/>
       <c r="I223" s="109"/>
@@ -28652,7 +28646,7 @@
         <v>335</v>
       </c>
       <c r="G224" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H224" s="109"/>
       <c r="I224" s="109"/>
@@ -28689,7 +28683,7 @@
         <v>350</v>
       </c>
       <c r="G225" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H225" s="109"/>
       <c r="I225" s="109"/>
@@ -28724,7 +28718,7 @@
         <v>351</v>
       </c>
       <c r="G226" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H226" s="109"/>
       <c r="I226" s="109"/>
@@ -28759,7 +28753,7 @@
         <v>352</v>
       </c>
       <c r="G227" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H227" s="109"/>
       <c r="I227" s="109"/>
@@ -28796,7 +28790,7 @@
         <v>353</v>
       </c>
       <c r="G228" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H228" s="109"/>
       <c r="I228" s="109"/>
@@ -28833,7 +28827,7 @@
         <v>355</v>
       </c>
       <c r="G229" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H229" s="109"/>
       <c r="I229" s="109"/>
@@ -28876,7 +28870,7 @@
         <v>357</v>
       </c>
       <c r="G230" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H230" s="109"/>
       <c r="I230" s="109"/>
@@ -28913,7 +28907,7 @@
         <v>358</v>
       </c>
       <c r="G231" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H231" s="109"/>
       <c r="I231" s="109"/>
@@ -28948,7 +28942,7 @@
         <v>359</v>
       </c>
       <c r="G232" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H232" s="109"/>
       <c r="I232" s="109"/>
@@ -28983,7 +28977,7 @@
         <v>360</v>
       </c>
       <c r="G233" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H233" s="109"/>
       <c r="I233" s="109"/>
@@ -29018,7 +29012,7 @@
         <v>361</v>
       </c>
       <c r="G234" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H234" s="109"/>
       <c r="I234" s="109"/>
@@ -29053,7 +29047,7 @@
         <v>362</v>
       </c>
       <c r="G235" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H235" s="109"/>
       <c r="I235" s="109"/>
@@ -29090,7 +29084,7 @@
         <v>363</v>
       </c>
       <c r="G236" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H236" s="109"/>
       <c r="I236" s="109"/>
@@ -29125,7 +29119,7 @@
         <v>364</v>
       </c>
       <c r="G237" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H237" s="109"/>
       <c r="I237" s="109"/>
@@ -29160,7 +29154,7 @@
         <v>365</v>
       </c>
       <c r="G238" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H238" s="109"/>
       <c r="I238" s="109"/>
@@ -29195,7 +29189,7 @@
         <v>366</v>
       </c>
       <c r="G239" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H239" s="109"/>
       <c r="I239" s="109"/>
@@ -29230,7 +29224,7 @@
         <v>367</v>
       </c>
       <c r="G240" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H240" s="109"/>
       <c r="I240" s="109"/>
@@ -29267,7 +29261,7 @@
         <v>368</v>
       </c>
       <c r="G241" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H241" s="109"/>
       <c r="I241" s="109"/>
@@ -29308,7 +29302,7 @@
         <v>369</v>
       </c>
       <c r="G242" s="111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H242" s="109"/>
       <c r="I242" s="109"/>
@@ -29351,7 +29345,7 @@
         <v>372</v>
       </c>
       <c r="G243" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H243" s="109"/>
       <c r="I243" s="109"/>
@@ -29386,7 +29380,7 @@
         <v>373</v>
       </c>
       <c r="G244" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H244" s="109"/>
       <c r="I244" s="109"/>
@@ -29425,7 +29419,7 @@
         <v>374</v>
       </c>
       <c r="G245" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H245" s="109"/>
       <c r="I245" s="109"/>
@@ -29460,7 +29454,7 @@
         <v>375</v>
       </c>
       <c r="G246" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H246" s="109"/>
       <c r="I246" s="109"/>
@@ -29501,7 +29495,7 @@
         <v>377</v>
       </c>
       <c r="G247" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H247" s="109"/>
       <c r="I247" s="109"/>
@@ -29538,7 +29532,7 @@
         <v>378</v>
       </c>
       <c r="G248" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H248" s="109"/>
       <c r="I248" s="109"/>
@@ -29575,7 +29569,7 @@
         <v>379</v>
       </c>
       <c r="G249" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H249" s="109"/>
       <c r="I249" s="109"/>
@@ -29612,7 +29606,7 @@
         <v>380</v>
       </c>
       <c r="G250" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H250" s="109"/>
       <c r="I250" s="109"/>
@@ -29651,7 +29645,7 @@
         <v>381</v>
       </c>
       <c r="G251" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H251" s="109"/>
       <c r="I251" s="109"/>
@@ -29686,7 +29680,7 @@
         <v>382</v>
       </c>
       <c r="G252" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H252" s="109"/>
       <c r="I252" s="109"/>
@@ -29723,7 +29717,7 @@
         <v>383</v>
       </c>
       <c r="G253" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H253" s="109"/>
       <c r="I253" s="109"/>
@@ -29758,7 +29752,7 @@
         <v>384</v>
       </c>
       <c r="G254" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H254" s="109"/>
       <c r="I254" s="109"/>
@@ -29793,7 +29787,7 @@
         <v>385</v>
       </c>
       <c r="G255" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H255" s="109"/>
       <c r="I255" s="109"/>
@@ -29828,7 +29822,7 @@
         <v>386</v>
       </c>
       <c r="G256" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H256" s="109"/>
       <c r="I256" s="109"/>
@@ -29863,7 +29857,7 @@
         <v>387</v>
       </c>
       <c r="G257" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H257" s="109"/>
       <c r="I257" s="109"/>
@@ -29898,7 +29892,7 @@
         <v>388</v>
       </c>
       <c r="G258" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H258" s="109"/>
       <c r="I258" s="109"/>
@@ -29933,7 +29927,7 @@
         <v>389</v>
       </c>
       <c r="G259" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H259" s="109"/>
       <c r="I259" s="109"/>
@@ -29968,7 +29962,7 @@
         <v>390</v>
       </c>
       <c r="G260" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H260" s="109"/>
       <c r="I260" s="109"/>
@@ -30003,7 +29997,7 @@
         <v>391</v>
       </c>
       <c r="G261" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H261" s="109"/>
       <c r="I261" s="109"/>
@@ -30038,7 +30032,7 @@
         <v>392</v>
       </c>
       <c r="G262" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H262" s="109"/>
       <c r="I262" s="109"/>
@@ -30073,7 +30067,7 @@
         <v>393</v>
       </c>
       <c r="G263" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H263" s="109"/>
       <c r="I263" s="109"/>
@@ -30110,7 +30104,7 @@
         <v>394</v>
       </c>
       <c r="G264" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H264" s="109"/>
       <c r="I264" s="109"/>
@@ -30145,7 +30139,7 @@
         <v>395</v>
       </c>
       <c r="G265" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H265" s="109"/>
       <c r="I265" s="109"/>
@@ -30180,7 +30174,7 @@
         <v>396</v>
       </c>
       <c r="G266" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H266" s="109"/>
       <c r="I266" s="109"/>
@@ -30215,7 +30209,7 @@
         <v>397</v>
       </c>
       <c r="G267" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H267" s="109"/>
       <c r="I267" s="109"/>
@@ -30250,7 +30244,7 @@
         <v>398</v>
       </c>
       <c r="G268" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H268" s="109"/>
       <c r="I268" s="109"/>
@@ -30285,7 +30279,7 @@
         <v>399</v>
       </c>
       <c r="G269" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H269" s="109"/>
       <c r="I269" s="109"/>
@@ -30322,7 +30316,7 @@
         <v>400</v>
       </c>
       <c r="G270" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H270" s="109"/>
       <c r="I270" s="109"/>
@@ -30357,7 +30351,7 @@
         <v>401</v>
       </c>
       <c r="G271" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H271" s="109"/>
       <c r="I271" s="109"/>
@@ -30392,7 +30386,7 @@
         <v>402</v>
       </c>
       <c r="G272" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H272" s="109"/>
       <c r="I272" s="109"/>
@@ -30427,7 +30421,7 @@
         <v>403</v>
       </c>
       <c r="G273" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H273" s="109"/>
       <c r="I273" s="109"/>
@@ -30462,7 +30456,7 @@
         <v>404</v>
       </c>
       <c r="G274" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H274" s="109"/>
       <c r="I274" s="109"/>
@@ -30497,7 +30491,7 @@
         <v>405</v>
       </c>
       <c r="G275" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H275" s="109"/>
       <c r="I275" s="109"/>
@@ -30532,7 +30526,7 @@
         <v>406</v>
       </c>
       <c r="G276" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H276" s="109"/>
       <c r="I276" s="109"/>
@@ -30567,7 +30561,7 @@
         <v>407</v>
       </c>
       <c r="G277" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H277" s="109"/>
       <c r="I277" s="109"/>
@@ -30604,7 +30598,7 @@
         <v>408</v>
       </c>
       <c r="G278" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H278" s="109"/>
       <c r="I278" s="109"/>
@@ -31436,7 +31430,7 @@
         <v>441</v>
       </c>
       <c r="G302" s="111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H302" s="114"/>
       <c r="I302" s="114"/>
@@ -31473,7 +31467,7 @@
         <v>443</v>
       </c>
       <c r="G303" s="111" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H303" s="114"/>
       <c r="I303" s="114"/>
@@ -32105,7 +32099,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -32115,7 +32109,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -32239,7 +32233,7 @@
     </row>
     <row r="12" spans="1:16" s="29" customFormat="1">
       <c r="A12" s="94" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
@@ -32265,10 +32259,10 @@
       </c>
       <c r="B13" s="152"/>
       <c r="C13" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="153" t="s">
         <v>489</v>
-      </c>
-      <c r="D13" s="153" t="s">
-        <v>490</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
@@ -32284,12 +32278,12 @@
     </row>
     <row r="14" spans="1:16" s="29" customFormat="1">
       <c r="A14" s="151" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B14" s="155"/>
       <c r="C14" s="156"/>
       <c r="D14" s="153" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,28 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED37C4-8362-4A29-A2D7-81FB9852020F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F02946-02BD-4775-A94C-AFA0F06777BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
-    <sheet name="【バッチ処理ID】_クラス単体テスト" sheetId="23" r:id="rId3"/>
-    <sheet name="【バッチ処理ID】_リクエスト単体テスト" sheetId="24" r:id="rId4"/>
-    <sheet name="取引単体テスト" sheetId="25" r:id="rId5"/>
+    <sheet name="【テストターゲット名】_クラス単体" sheetId="23" r:id="rId3"/>
+    <sheet name="【バッチ処理ID】_リクエスト単体" sheetId="24" r:id="rId4"/>
+    <sheet name="取引単体" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【バッチ処理ID】_クラス単体テスト!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【バッチ処理ID】_リクエスト単体テスト!$A$10:$R$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">【バッチ処理ID】_クラス単体テスト!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【バッチ処理ID】_リクエスト単体テスト!$A$1:$R$319</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体テスト!$A$1:$P$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【バッチ処理ID】_リクエスト単体!$A$10:$R$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【バッチ処理ID】_リクエスト単体!$A$1:$R$319</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体!$A$1:$P$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">【バッチ処理ID】_クラス単体テスト!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【バッチ処理ID】_リクエスト単体テスト!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体テスト!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【バッチ処理ID】_リクエスト単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="496">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -6757,6 +6757,13 @@
   </si>
   <si>
     <t>テストコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ処理ID：</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7800,6 +7807,93 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7898,93 +7992,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9440,57 +9447,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="164" t="s">
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="193" t="s">
         <v>466</v>
       </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="173" t="s">
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="182" t="s">
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="211" t="s">
         <v>465</v>
       </c>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="212"/>
+      <c r="Z1" s="213"/>
+      <c r="AA1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="160" t="str">
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="189" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="167" t="str">
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="196" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="169"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9498,53 +9505,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="164" t="s">
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="193" t="s">
         <v>467</v>
       </c>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="199" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="167" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="196" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="169"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9552,45 +9559,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="164" t="s">
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="193" t="s">
         <v>468</v>
       </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="169"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="217"/>
+      <c r="T3" s="218"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="218"/>
+      <c r="X3" s="218"/>
+      <c r="Y3" s="218"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="189"/>
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="190"/>
+      <c r="AF3" s="191"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9627,1020 +9634,1181 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="191" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="193"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="191" t="s">
+      <c r="E7" s="173"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="191" t="s">
+      <c r="H7" s="173"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="191" t="s">
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="193"/>
-      <c r="S7" s="193"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="193"/>
-      <c r="V7" s="193"/>
-      <c r="W7" s="193"/>
-      <c r="X7" s="193"/>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="193"/>
-      <c r="AA7" s="193"/>
-      <c r="AB7" s="193"/>
-      <c r="AC7" s="193"/>
-      <c r="AD7" s="193"/>
-      <c r="AE7" s="192"/>
-      <c r="AF7" s="191" t="s">
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173"/>
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173"/>
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173"/>
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="172"/>
+      <c r="AF7" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="AG7" s="193"/>
-      <c r="AH7" s="193"/>
-      <c r="AI7" s="192"/>
+      <c r="AG7" s="173"/>
+      <c r="AH7" s="173"/>
+      <c r="AI7" s="172"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="203"/>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="205"/>
-      <c r="S8" s="205"/>
-      <c r="T8" s="205"/>
-      <c r="U8" s="205"/>
-      <c r="V8" s="205"/>
-      <c r="W8" s="205"/>
-      <c r="X8" s="205"/>
-      <c r="Y8" s="205"/>
-      <c r="Z8" s="205"/>
-      <c r="AA8" s="205"/>
-      <c r="AB8" s="205"/>
-      <c r="AC8" s="205"/>
-      <c r="AD8" s="205"/>
-      <c r="AE8" s="206"/>
-      <c r="AF8" s="201"/>
-      <c r="AG8" s="202"/>
-      <c r="AH8" s="202"/>
-      <c r="AI8" s="203"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="185"/>
+      <c r="T8" s="185"/>
+      <c r="U8" s="185"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="185"/>
+      <c r="X8" s="185"/>
+      <c r="Y8" s="185"/>
+      <c r="Z8" s="185"/>
+      <c r="AA8" s="185"/>
+      <c r="AB8" s="185"/>
+      <c r="AC8" s="185"/>
+      <c r="AD8" s="185"/>
+      <c r="AE8" s="186"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="182"/>
+      <c r="AH8" s="182"/>
+      <c r="AI8" s="183"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="216"/>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="218"/>
-      <c r="AF9" s="213"/>
-      <c r="AG9" s="214"/>
-      <c r="AH9" s="214"/>
-      <c r="AI9" s="215"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="168"/>
+      <c r="AD9" s="168"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="164"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="166"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="207"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="217"/>
-      <c r="S10" s="217"/>
-      <c r="T10" s="217"/>
-      <c r="U10" s="217"/>
-      <c r="V10" s="217"/>
-      <c r="W10" s="217"/>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="217"/>
-      <c r="AA10" s="217"/>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="217"/>
-      <c r="AD10" s="217"/>
-      <c r="AE10" s="218"/>
-      <c r="AF10" s="213"/>
-      <c r="AG10" s="214"/>
-      <c r="AH10" s="214"/>
-      <c r="AI10" s="215"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="168"/>
+      <c r="AC10" s="168"/>
+      <c r="AD10" s="168"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="165"/>
+      <c r="AH10" s="165"/>
+      <c r="AI10" s="166"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="207"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="214"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="216"/>
-      <c r="R11" s="217"/>
-      <c r="S11" s="217"/>
-      <c r="T11" s="217"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="217"/>
-      <c r="X11" s="217"/>
-      <c r="Y11" s="217"/>
-      <c r="Z11" s="217"/>
-      <c r="AA11" s="217"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="217"/>
-      <c r="AD11" s="217"/>
-      <c r="AE11" s="218"/>
-      <c r="AF11" s="213"/>
-      <c r="AG11" s="214"/>
-      <c r="AH11" s="214"/>
-      <c r="AI11" s="215"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
+      <c r="AC11" s="168"/>
+      <c r="AD11" s="168"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="164"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="166"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="207"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="214"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="214"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="216"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="217"/>
-      <c r="U12" s="217"/>
-      <c r="V12" s="217"/>
-      <c r="W12" s="217"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="217"/>
-      <c r="AA12" s="217"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="217"/>
-      <c r="AD12" s="217"/>
-      <c r="AE12" s="218"/>
-      <c r="AF12" s="213"/>
-      <c r="AG12" s="214"/>
-      <c r="AH12" s="214"/>
-      <c r="AI12" s="215"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="166"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="215"/>
-      <c r="Q13" s="216"/>
-      <c r="R13" s="217"/>
-      <c r="S13" s="217"/>
-      <c r="T13" s="217"/>
-      <c r="U13" s="217"/>
-      <c r="V13" s="217"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
-      <c r="AA13" s="217"/>
-      <c r="AB13" s="217"/>
-      <c r="AC13" s="217"/>
-      <c r="AD13" s="217"/>
-      <c r="AE13" s="218"/>
-      <c r="AF13" s="213"/>
-      <c r="AG13" s="214"/>
-      <c r="AH13" s="214"/>
-      <c r="AI13" s="215"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="164"/>
+      <c r="AG13" s="165"/>
+      <c r="AH13" s="165"/>
+      <c r="AI13" s="166"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="207"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="214"/>
-      <c r="P14" s="215"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="217"/>
-      <c r="T14" s="217"/>
-      <c r="U14" s="217"/>
-      <c r="V14" s="217"/>
-      <c r="W14" s="217"/>
-      <c r="X14" s="217"/>
-      <c r="Y14" s="217"/>
-      <c r="Z14" s="217"/>
-      <c r="AA14" s="217"/>
-      <c r="AB14" s="217"/>
-      <c r="AC14" s="217"/>
-      <c r="AD14" s="217"/>
-      <c r="AE14" s="218"/>
-      <c r="AF14" s="213"/>
-      <c r="AG14" s="214"/>
-      <c r="AH14" s="214"/>
-      <c r="AI14" s="215"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="168"/>
+      <c r="AE14" s="169"/>
+      <c r="AF14" s="164"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="166"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="207"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="214"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="214"/>
-      <c r="N15" s="214"/>
-      <c r="O15" s="214"/>
-      <c r="P15" s="215"/>
-      <c r="Q15" s="216"/>
-      <c r="R15" s="217"/>
-      <c r="S15" s="217"/>
-      <c r="T15" s="217"/>
-      <c r="U15" s="217"/>
-      <c r="V15" s="217"/>
-      <c r="W15" s="217"/>
-      <c r="X15" s="217"/>
-      <c r="Y15" s="217"/>
-      <c r="Z15" s="217"/>
-      <c r="AA15" s="217"/>
-      <c r="AB15" s="217"/>
-      <c r="AC15" s="217"/>
-      <c r="AD15" s="217"/>
-      <c r="AE15" s="218"/>
-      <c r="AF15" s="213"/>
-      <c r="AG15" s="214"/>
-      <c r="AH15" s="214"/>
-      <c r="AI15" s="215"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="168"/>
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="164"/>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="165"/>
+      <c r="AI15" s="166"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="207"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="214"/>
-      <c r="M16" s="214"/>
-      <c r="N16" s="214"/>
-      <c r="O16" s="214"/>
-      <c r="P16" s="215"/>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="217"/>
-      <c r="T16" s="217"/>
-      <c r="U16" s="217"/>
-      <c r="V16" s="217"/>
-      <c r="W16" s="217"/>
-      <c r="X16" s="217"/>
-      <c r="Y16" s="217"/>
-      <c r="Z16" s="217"/>
-      <c r="AA16" s="217"/>
-      <c r="AB16" s="217"/>
-      <c r="AC16" s="217"/>
-      <c r="AD16" s="217"/>
-      <c r="AE16" s="218"/>
-      <c r="AF16" s="213"/>
-      <c r="AG16" s="214"/>
-      <c r="AH16" s="214"/>
-      <c r="AI16" s="215"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="168"/>
+      <c r="U16" s="168"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="168"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="168"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="164"/>
+      <c r="AG16" s="165"/>
+      <c r="AH16" s="165"/>
+      <c r="AI16" s="166"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="214"/>
-      <c r="M17" s="214"/>
-      <c r="N17" s="214"/>
-      <c r="O17" s="214"/>
-      <c r="P17" s="215"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="217"/>
-      <c r="S17" s="217"/>
-      <c r="T17" s="217"/>
-      <c r="U17" s="217"/>
-      <c r="V17" s="217"/>
-      <c r="W17" s="217"/>
-      <c r="X17" s="217"/>
-      <c r="Y17" s="217"/>
-      <c r="Z17" s="217"/>
-      <c r="AA17" s="217"/>
-      <c r="AB17" s="217"/>
-      <c r="AC17" s="217"/>
-      <c r="AD17" s="217"/>
-      <c r="AE17" s="218"/>
-      <c r="AF17" s="213"/>
-      <c r="AG17" s="214"/>
-      <c r="AH17" s="214"/>
-      <c r="AI17" s="215"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="168"/>
+      <c r="T17" s="168"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="164"/>
+      <c r="AG17" s="165"/>
+      <c r="AH17" s="165"/>
+      <c r="AI17" s="166"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="207"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="214"/>
-      <c r="O18" s="214"/>
-      <c r="P18" s="215"/>
-      <c r="Q18" s="216"/>
-      <c r="R18" s="217"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="217"/>
-      <c r="U18" s="217"/>
-      <c r="V18" s="217"/>
-      <c r="W18" s="217"/>
-      <c r="X18" s="217"/>
-      <c r="Y18" s="217"/>
-      <c r="Z18" s="217"/>
-      <c r="AA18" s="217"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="217"/>
-      <c r="AD18" s="217"/>
-      <c r="AE18" s="218"/>
-      <c r="AF18" s="213"/>
-      <c r="AG18" s="214"/>
-      <c r="AH18" s="214"/>
-      <c r="AI18" s="215"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="168"/>
+      <c r="U18" s="168"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="168"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="164"/>
+      <c r="AG18" s="165"/>
+      <c r="AH18" s="165"/>
+      <c r="AI18" s="166"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="207"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="214"/>
-      <c r="N19" s="214"/>
-      <c r="O19" s="214"/>
-      <c r="P19" s="215"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="217"/>
-      <c r="S19" s="217"/>
-      <c r="T19" s="217"/>
-      <c r="U19" s="217"/>
-      <c r="V19" s="217"/>
-      <c r="W19" s="217"/>
-      <c r="X19" s="217"/>
-      <c r="Y19" s="217"/>
-      <c r="Z19" s="217"/>
-      <c r="AA19" s="217"/>
-      <c r="AB19" s="217"/>
-      <c r="AC19" s="217"/>
-      <c r="AD19" s="217"/>
-      <c r="AE19" s="218"/>
-      <c r="AF19" s="213"/>
-      <c r="AG19" s="214"/>
-      <c r="AH19" s="214"/>
-      <c r="AI19" s="215"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="168"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="168"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="164"/>
+      <c r="AG19" s="165"/>
+      <c r="AH19" s="165"/>
+      <c r="AI19" s="166"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="207"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="214"/>
-      <c r="N20" s="214"/>
-      <c r="O20" s="214"/>
-      <c r="P20" s="215"/>
-      <c r="Q20" s="216"/>
-      <c r="R20" s="217"/>
-      <c r="S20" s="217"/>
-      <c r="T20" s="217"/>
-      <c r="U20" s="217"/>
-      <c r="V20" s="217"/>
-      <c r="W20" s="217"/>
-      <c r="X20" s="217"/>
-      <c r="Y20" s="217"/>
-      <c r="Z20" s="217"/>
-      <c r="AA20" s="217"/>
-      <c r="AB20" s="217"/>
-      <c r="AC20" s="217"/>
-      <c r="AD20" s="217"/>
-      <c r="AE20" s="218"/>
-      <c r="AF20" s="213"/>
-      <c r="AG20" s="214"/>
-      <c r="AH20" s="214"/>
-      <c r="AI20" s="215"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="168"/>
+      <c r="U20" s="168"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="168"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="168"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="168"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="164"/>
+      <c r="AG20" s="165"/>
+      <c r="AH20" s="165"/>
+      <c r="AI20" s="166"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="207"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="214"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="215"/>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="217"/>
-      <c r="S21" s="217"/>
-      <c r="T21" s="217"/>
-      <c r="U21" s="217"/>
-      <c r="V21" s="217"/>
-      <c r="W21" s="217"/>
-      <c r="X21" s="217"/>
-      <c r="Y21" s="217"/>
-      <c r="Z21" s="217"/>
-      <c r="AA21" s="217"/>
-      <c r="AB21" s="217"/>
-      <c r="AC21" s="217"/>
-      <c r="AD21" s="217"/>
-      <c r="AE21" s="218"/>
-      <c r="AF21" s="213"/>
-      <c r="AG21" s="214"/>
-      <c r="AH21" s="214"/>
-      <c r="AI21" s="215"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="168"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="168"/>
+      <c r="X21" s="168"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="168"/>
+      <c r="AA21" s="168"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="169"/>
+      <c r="AF21" s="164"/>
+      <c r="AG21" s="165"/>
+      <c r="AH21" s="165"/>
+      <c r="AI21" s="166"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="207"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="214"/>
-      <c r="L22" s="214"/>
-      <c r="M22" s="214"/>
-      <c r="N22" s="214"/>
-      <c r="O22" s="214"/>
-      <c r="P22" s="215"/>
-      <c r="Q22" s="216"/>
-      <c r="R22" s="217"/>
-      <c r="S22" s="217"/>
-      <c r="T22" s="217"/>
-      <c r="U22" s="217"/>
-      <c r="V22" s="217"/>
-      <c r="W22" s="217"/>
-      <c r="X22" s="217"/>
-      <c r="Y22" s="217"/>
-      <c r="Z22" s="217"/>
-      <c r="AA22" s="217"/>
-      <c r="AB22" s="217"/>
-      <c r="AC22" s="217"/>
-      <c r="AD22" s="217"/>
-      <c r="AE22" s="218"/>
-      <c r="AF22" s="213"/>
-      <c r="AG22" s="214"/>
-      <c r="AH22" s="214"/>
-      <c r="AI22" s="215"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="167"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="168"/>
+      <c r="X22" s="168"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="168"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="168"/>
+      <c r="AD22" s="168"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="164"/>
+      <c r="AG22" s="165"/>
+      <c r="AH22" s="165"/>
+      <c r="AI22" s="166"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="207"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="214"/>
-      <c r="M23" s="214"/>
-      <c r="N23" s="214"/>
-      <c r="O23" s="214"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="216"/>
-      <c r="R23" s="217"/>
-      <c r="S23" s="217"/>
-      <c r="T23" s="217"/>
-      <c r="U23" s="217"/>
-      <c r="V23" s="217"/>
-      <c r="W23" s="217"/>
-      <c r="X23" s="217"/>
-      <c r="Y23" s="217"/>
-      <c r="Z23" s="217"/>
-      <c r="AA23" s="217"/>
-      <c r="AB23" s="217"/>
-      <c r="AC23" s="217"/>
-      <c r="AD23" s="217"/>
-      <c r="AE23" s="218"/>
-      <c r="AF23" s="213"/>
-      <c r="AG23" s="214"/>
-      <c r="AH23" s="214"/>
-      <c r="AI23" s="215"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="168"/>
+      <c r="AC23" s="168"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="164"/>
+      <c r="AG23" s="165"/>
+      <c r="AH23" s="165"/>
+      <c r="AI23" s="166"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="214"/>
-      <c r="M24" s="214"/>
-      <c r="N24" s="214"/>
-      <c r="O24" s="214"/>
-      <c r="P24" s="215"/>
-      <c r="Q24" s="216"/>
-      <c r="R24" s="217"/>
-      <c r="S24" s="217"/>
-      <c r="T24" s="217"/>
-      <c r="U24" s="217"/>
-      <c r="V24" s="217"/>
-      <c r="W24" s="217"/>
-      <c r="X24" s="217"/>
-      <c r="Y24" s="217"/>
-      <c r="Z24" s="217"/>
-      <c r="AA24" s="217"/>
-      <c r="AB24" s="217"/>
-      <c r="AC24" s="217"/>
-      <c r="AD24" s="217"/>
-      <c r="AE24" s="218"/>
-      <c r="AF24" s="213"/>
-      <c r="AG24" s="214"/>
-      <c r="AH24" s="214"/>
-      <c r="AI24" s="215"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="168"/>
+      <c r="V24" s="168"/>
+      <c r="W24" s="168"/>
+      <c r="X24" s="168"/>
+      <c r="Y24" s="168"/>
+      <c r="Z24" s="168"/>
+      <c r="AA24" s="168"/>
+      <c r="AB24" s="168"/>
+      <c r="AC24" s="168"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="169"/>
+      <c r="AF24" s="164"/>
+      <c r="AG24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="166"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="207"/>
-      <c r="C25" s="208"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="214"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="214"/>
-      <c r="N25" s="214"/>
-      <c r="O25" s="214"/>
-      <c r="P25" s="215"/>
-      <c r="Q25" s="216"/>
-      <c r="R25" s="217"/>
-      <c r="S25" s="217"/>
-      <c r="T25" s="217"/>
-      <c r="U25" s="217"/>
-      <c r="V25" s="217"/>
-      <c r="W25" s="217"/>
-      <c r="X25" s="217"/>
-      <c r="Y25" s="217"/>
-      <c r="Z25" s="217"/>
-      <c r="AA25" s="217"/>
-      <c r="AB25" s="217"/>
-      <c r="AC25" s="217"/>
-      <c r="AD25" s="217"/>
-      <c r="AE25" s="218"/>
-      <c r="AF25" s="213"/>
-      <c r="AG25" s="214"/>
-      <c r="AH25" s="214"/>
-      <c r="AI25" s="215"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="168"/>
+      <c r="T25" s="168"/>
+      <c r="U25" s="168"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="168"/>
+      <c r="X25" s="168"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="168"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="168"/>
+      <c r="AC25" s="168"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="169"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="165"/>
+      <c r="AH25" s="165"/>
+      <c r="AI25" s="166"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="207"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="214"/>
-      <c r="L26" s="214"/>
-      <c r="M26" s="214"/>
-      <c r="N26" s="214"/>
-      <c r="O26" s="214"/>
-      <c r="P26" s="215"/>
-      <c r="Q26" s="216"/>
-      <c r="R26" s="217"/>
-      <c r="S26" s="217"/>
-      <c r="T26" s="217"/>
-      <c r="U26" s="217"/>
-      <c r="V26" s="217"/>
-      <c r="W26" s="217"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="217"/>
-      <c r="Z26" s="217"/>
-      <c r="AA26" s="217"/>
-      <c r="AB26" s="217"/>
-      <c r="AC26" s="217"/>
-      <c r="AD26" s="217"/>
-      <c r="AE26" s="218"/>
-      <c r="AF26" s="213"/>
-      <c r="AG26" s="214"/>
-      <c r="AH26" s="214"/>
-      <c r="AI26" s="215"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="168"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="168"/>
+      <c r="Z26" s="168"/>
+      <c r="AA26" s="168"/>
+      <c r="AB26" s="168"/>
+      <c r="AC26" s="168"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="164"/>
+      <c r="AG26" s="165"/>
+      <c r="AH26" s="165"/>
+      <c r="AI26" s="166"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="207"/>
-      <c r="C27" s="208"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="214"/>
-      <c r="L27" s="214"/>
-      <c r="M27" s="214"/>
-      <c r="N27" s="214"/>
-      <c r="O27" s="214"/>
-      <c r="P27" s="215"/>
-      <c r="Q27" s="216"/>
-      <c r="R27" s="217"/>
-      <c r="S27" s="217"/>
-      <c r="T27" s="217"/>
-      <c r="U27" s="217"/>
-      <c r="V27" s="217"/>
-      <c r="W27" s="217"/>
-      <c r="X27" s="217"/>
-      <c r="Y27" s="217"/>
-      <c r="Z27" s="217"/>
-      <c r="AA27" s="217"/>
-      <c r="AB27" s="217"/>
-      <c r="AC27" s="217"/>
-      <c r="AD27" s="217"/>
-      <c r="AE27" s="218"/>
-      <c r="AF27" s="213"/>
-      <c r="AG27" s="214"/>
-      <c r="AH27" s="214"/>
-      <c r="AI27" s="215"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="167"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="168"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="168"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="168"/>
+      <c r="AA27" s="168"/>
+      <c r="AB27" s="168"/>
+      <c r="AC27" s="168"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="164"/>
+      <c r="AG27" s="165"/>
+      <c r="AH27" s="165"/>
+      <c r="AI27" s="166"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="207"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="214"/>
-      <c r="L28" s="214"/>
-      <c r="M28" s="214"/>
-      <c r="N28" s="214"/>
-      <c r="O28" s="214"/>
-      <c r="P28" s="215"/>
-      <c r="Q28" s="216"/>
-      <c r="R28" s="217"/>
-      <c r="S28" s="217"/>
-      <c r="T28" s="217"/>
-      <c r="U28" s="217"/>
-      <c r="V28" s="217"/>
-      <c r="W28" s="217"/>
-      <c r="X28" s="217"/>
-      <c r="Y28" s="217"/>
-      <c r="Z28" s="217"/>
-      <c r="AA28" s="217"/>
-      <c r="AB28" s="217"/>
-      <c r="AC28" s="217"/>
-      <c r="AD28" s="217"/>
-      <c r="AE28" s="218"/>
-      <c r="AF28" s="213"/>
-      <c r="AG28" s="214"/>
-      <c r="AH28" s="214"/>
-      <c r="AI28" s="215"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="168"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="168"/>
+      <c r="X28" s="168"/>
+      <c r="Y28" s="168"/>
+      <c r="Z28" s="168"/>
+      <c r="AA28" s="168"/>
+      <c r="AB28" s="168"/>
+      <c r="AC28" s="168"/>
+      <c r="AD28" s="168"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="164"/>
+      <c r="AG28" s="165"/>
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="166"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="207"/>
-      <c r="C29" s="208"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="214"/>
-      <c r="L29" s="214"/>
-      <c r="M29" s="214"/>
-      <c r="N29" s="214"/>
-      <c r="O29" s="214"/>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="216"/>
-      <c r="R29" s="217"/>
-      <c r="S29" s="217"/>
-      <c r="T29" s="217"/>
-      <c r="U29" s="217"/>
-      <c r="V29" s="217"/>
-      <c r="W29" s="217"/>
-      <c r="X29" s="217"/>
-      <c r="Y29" s="217"/>
-      <c r="Z29" s="217"/>
-      <c r="AA29" s="217"/>
-      <c r="AB29" s="217"/>
-      <c r="AC29" s="217"/>
-      <c r="AD29" s="217"/>
-      <c r="AE29" s="218"/>
-      <c r="AF29" s="213"/>
-      <c r="AG29" s="214"/>
-      <c r="AH29" s="214"/>
-      <c r="AI29" s="215"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="168"/>
+      <c r="V29" s="168"/>
+      <c r="W29" s="168"/>
+      <c r="X29" s="168"/>
+      <c r="Y29" s="168"/>
+      <c r="Z29" s="168"/>
+      <c r="AA29" s="168"/>
+      <c r="AB29" s="168"/>
+      <c r="AC29" s="168"/>
+      <c r="AD29" s="168"/>
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="164"/>
+      <c r="AG29" s="165"/>
+      <c r="AH29" s="165"/>
+      <c r="AI29" s="166"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="214"/>
-      <c r="L30" s="214"/>
-      <c r="M30" s="214"/>
-      <c r="N30" s="214"/>
-      <c r="O30" s="214"/>
-      <c r="P30" s="215"/>
-      <c r="Q30" s="216"/>
-      <c r="R30" s="217"/>
-      <c r="S30" s="217"/>
-      <c r="T30" s="217"/>
-      <c r="U30" s="217"/>
-      <c r="V30" s="217"/>
-      <c r="W30" s="217"/>
-      <c r="X30" s="217"/>
-      <c r="Y30" s="217"/>
-      <c r="Z30" s="217"/>
-      <c r="AA30" s="217"/>
-      <c r="AB30" s="217"/>
-      <c r="AC30" s="217"/>
-      <c r="AD30" s="217"/>
-      <c r="AE30" s="218"/>
-      <c r="AF30" s="213"/>
-      <c r="AG30" s="214"/>
-      <c r="AH30" s="214"/>
-      <c r="AI30" s="215"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="168"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="168"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="168"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="168"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="164"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="166"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="207"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="214"/>
-      <c r="L31" s="214"/>
-      <c r="M31" s="214"/>
-      <c r="N31" s="214"/>
-      <c r="O31" s="214"/>
-      <c r="P31" s="215"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="217"/>
-      <c r="S31" s="217"/>
-      <c r="T31" s="217"/>
-      <c r="U31" s="217"/>
-      <c r="V31" s="217"/>
-      <c r="W31" s="217"/>
-      <c r="X31" s="217"/>
-      <c r="Y31" s="217"/>
-      <c r="Z31" s="217"/>
-      <c r="AA31" s="217"/>
-      <c r="AB31" s="217"/>
-      <c r="AC31" s="217"/>
-      <c r="AD31" s="217"/>
-      <c r="AE31" s="218"/>
-      <c r="AF31" s="213"/>
-      <c r="AG31" s="214"/>
-      <c r="AH31" s="214"/>
-      <c r="AI31" s="215"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="167"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="168"/>
+      <c r="V31" s="168"/>
+      <c r="W31" s="168"/>
+      <c r="X31" s="168"/>
+      <c r="Y31" s="168"/>
+      <c r="Z31" s="168"/>
+      <c r="AA31" s="168"/>
+      <c r="AB31" s="168"/>
+      <c r="AC31" s="168"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="164"/>
+      <c r="AG31" s="165"/>
+      <c r="AH31" s="165"/>
+      <c r="AI31" s="166"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="207"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="214"/>
-      <c r="N32" s="214"/>
-      <c r="O32" s="214"/>
-      <c r="P32" s="215"/>
-      <c r="Q32" s="216"/>
-      <c r="R32" s="217"/>
-      <c r="S32" s="217"/>
-      <c r="T32" s="217"/>
-      <c r="U32" s="217"/>
-      <c r="V32" s="217"/>
-      <c r="W32" s="217"/>
-      <c r="X32" s="217"/>
-      <c r="Y32" s="217"/>
-      <c r="Z32" s="217"/>
-      <c r="AA32" s="217"/>
-      <c r="AB32" s="217"/>
-      <c r="AC32" s="217"/>
-      <c r="AD32" s="217"/>
-      <c r="AE32" s="218"/>
-      <c r="AF32" s="213"/>
-      <c r="AG32" s="214"/>
-      <c r="AH32" s="214"/>
-      <c r="AI32" s="215"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="167"/>
+      <c r="R32" s="168"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="168"/>
+      <c r="V32" s="168"/>
+      <c r="W32" s="168"/>
+      <c r="X32" s="168"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="168"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="168"/>
+      <c r="AC32" s="168"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="164"/>
+      <c r="AG32" s="165"/>
+      <c r="AH32" s="165"/>
+      <c r="AI32" s="166"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="207"/>
-      <c r="C33" s="208"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="214"/>
-      <c r="L33" s="214"/>
-      <c r="M33" s="214"/>
-      <c r="N33" s="214"/>
-      <c r="O33" s="214"/>
-      <c r="P33" s="215"/>
-      <c r="Q33" s="216"/>
-      <c r="R33" s="217"/>
-      <c r="S33" s="217"/>
-      <c r="T33" s="217"/>
-      <c r="U33" s="217"/>
-      <c r="V33" s="217"/>
-      <c r="W33" s="217"/>
-      <c r="X33" s="217"/>
-      <c r="Y33" s="217"/>
-      <c r="Z33" s="217"/>
-      <c r="AA33" s="217"/>
-      <c r="AB33" s="217"/>
-      <c r="AC33" s="217"/>
-      <c r="AD33" s="217"/>
-      <c r="AE33" s="218"/>
-      <c r="AF33" s="213"/>
-      <c r="AG33" s="214"/>
-      <c r="AH33" s="214"/>
-      <c r="AI33" s="215"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="168"/>
+      <c r="U33" s="168"/>
+      <c r="V33" s="168"/>
+      <c r="W33" s="168"/>
+      <c r="X33" s="168"/>
+      <c r="Y33" s="168"/>
+      <c r="Z33" s="168"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="164"/>
+      <c r="AG33" s="165"/>
+      <c r="AH33" s="165"/>
+      <c r="AI33" s="166"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10659,167 +10827,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -21066,7 +21073,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>20</v>
+        <v>495</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>22</v>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDDDB67-4FF3-4852-A40D-75AD351A6049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0BD6C3-4FED-474C-ABF9-4F9580322A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,19 +11,19 @@
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
     <sheet name="【テストターゲット名】_クラス単体" sheetId="23" r:id="rId3"/>
-    <sheet name="【バッチ処理ID】_リクエスト単体" sheetId="24" r:id="rId4"/>
+    <sheet name="【テストターゲット名】_リクエスト単体" sheetId="24" r:id="rId4"/>
     <sheet name="取引単体" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【バッチ処理ID】_リクエスト単体!$A$10:$R$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【テストターゲット名】_リクエスト単体!$A$10:$R$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【バッチ処理ID】_リクエスト単体!$A$1:$R$319</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【テストターゲット名】_リクエスト単体!$A$1:$R$319</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体!$A$1:$P$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【バッチ処理ID】_リクエスト単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【テストターゲット名】_リクエスト単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="491">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -6741,13 +6741,6 @@
   </si>
   <si>
     <t>テストコード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッチ処理ID：</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7767,6 +7760,93 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7865,93 +7945,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9407,57 +9400,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="161" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="190" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="170" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="179" t="s">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="208" t="s">
         <v>463</v>
       </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="155" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="157" t="str">
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="186" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="164" t="str">
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="193" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="166"/>
+      <c r="AH1" s="194"/>
+      <c r="AI1" s="195"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9465,53 +9458,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="161" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="190" t="s">
         <v>465</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="155" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="167" t="str">
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="164" t="str">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="193" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="195"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9519,45 +9512,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="161" t="s">
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="190" t="s">
         <v>466</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="166"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="194"/>
+      <c r="AI3" s="195"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9594,1020 +9587,1181 @@
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="169"/>
+      <c r="D7" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="188" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="190"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="188" t="s">
+      <c r="H7" s="170"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="188" t="s">
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="190"/>
-      <c r="S7" s="190"/>
-      <c r="T7" s="190"/>
-      <c r="U7" s="190"/>
-      <c r="V7" s="190"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="190"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="190"/>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="188" t="s">
+      <c r="R7" s="170"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="169"/>
+      <c r="AF7" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" s="190"/>
-      <c r="AH7" s="190"/>
-      <c r="AI7" s="189"/>
+      <c r="AG7" s="170"/>
+      <c r="AH7" s="170"/>
+      <c r="AI7" s="169"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="201"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="202"/>
-      <c r="W8" s="202"/>
-      <c r="X8" s="202"/>
-      <c r="Y8" s="202"/>
-      <c r="Z8" s="202"/>
-      <c r="AA8" s="202"/>
-      <c r="AB8" s="202"/>
-      <c r="AC8" s="202"/>
-      <c r="AD8" s="202"/>
-      <c r="AE8" s="203"/>
-      <c r="AF8" s="198"/>
-      <c r="AG8" s="199"/>
-      <c r="AH8" s="199"/>
-      <c r="AI8" s="200"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="182"/>
+      <c r="Y8" s="182"/>
+      <c r="Z8" s="182"/>
+      <c r="AA8" s="182"/>
+      <c r="AB8" s="182"/>
+      <c r="AC8" s="182"/>
+      <c r="AD8" s="182"/>
+      <c r="AE8" s="183"/>
+      <c r="AF8" s="178"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="180"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="213"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
-      <c r="T9" s="214"/>
-      <c r="U9" s="214"/>
-      <c r="V9" s="214"/>
-      <c r="W9" s="214"/>
-      <c r="X9" s="214"/>
-      <c r="Y9" s="214"/>
-      <c r="Z9" s="214"/>
-      <c r="AA9" s="214"/>
-      <c r="AB9" s="214"/>
-      <c r="AC9" s="214"/>
-      <c r="AD9" s="214"/>
-      <c r="AE9" s="215"/>
-      <c r="AF9" s="210"/>
-      <c r="AG9" s="211"/>
-      <c r="AH9" s="211"/>
-      <c r="AI9" s="212"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="165"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="165"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="161"/>
+      <c r="AG9" s="162"/>
+      <c r="AH9" s="162"/>
+      <c r="AI9" s="163"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="211"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="213"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
-      <c r="T10" s="214"/>
-      <c r="U10" s="214"/>
-      <c r="V10" s="214"/>
-      <c r="W10" s="214"/>
-      <c r="X10" s="214"/>
-      <c r="Y10" s="214"/>
-      <c r="Z10" s="214"/>
-      <c r="AA10" s="214"/>
-      <c r="AB10" s="214"/>
-      <c r="AC10" s="214"/>
-      <c r="AD10" s="214"/>
-      <c r="AE10" s="215"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="211"/>
-      <c r="AH10" s="211"/>
-      <c r="AI10" s="212"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="165"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="165"/>
+      <c r="AC10" s="165"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="166"/>
+      <c r="AF10" s="161"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="163"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="208"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="211"/>
-      <c r="N11" s="211"/>
-      <c r="O11" s="211"/>
-      <c r="P11" s="212"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
-      <c r="T11" s="214"/>
-      <c r="U11" s="214"/>
-      <c r="V11" s="214"/>
-      <c r="W11" s="214"/>
-      <c r="X11" s="214"/>
-      <c r="Y11" s="214"/>
-      <c r="Z11" s="214"/>
-      <c r="AA11" s="214"/>
-      <c r="AB11" s="214"/>
-      <c r="AC11" s="214"/>
-      <c r="AD11" s="214"/>
-      <c r="AE11" s="215"/>
-      <c r="AF11" s="210"/>
-      <c r="AG11" s="211"/>
-      <c r="AH11" s="211"/>
-      <c r="AI11" s="212"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
+      <c r="U11" s="165"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="165"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="165"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="166"/>
+      <c r="AF11" s="161"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="162"/>
+      <c r="AI11" s="163"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="204"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
-      <c r="N12" s="211"/>
-      <c r="O12" s="211"/>
-      <c r="P12" s="212"/>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
-      <c r="T12" s="214"/>
-      <c r="U12" s="214"/>
-      <c r="V12" s="214"/>
-      <c r="W12" s="214"/>
-      <c r="X12" s="214"/>
-      <c r="Y12" s="214"/>
-      <c r="Z12" s="214"/>
-      <c r="AA12" s="214"/>
-      <c r="AB12" s="214"/>
-      <c r="AC12" s="214"/>
-      <c r="AD12" s="214"/>
-      <c r="AE12" s="215"/>
-      <c r="AF12" s="210"/>
-      <c r="AG12" s="211"/>
-      <c r="AH12" s="211"/>
-      <c r="AI12" s="212"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="165"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="165"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="165"/>
+      <c r="W12" s="165"/>
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="166"/>
+      <c r="AF12" s="161"/>
+      <c r="AG12" s="162"/>
+      <c r="AH12" s="162"/>
+      <c r="AI12" s="163"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="210"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="214"/>
-      <c r="U13" s="214"/>
-      <c r="V13" s="214"/>
-      <c r="W13" s="214"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="214"/>
-      <c r="AA13" s="214"/>
-      <c r="AB13" s="214"/>
-      <c r="AC13" s="214"/>
-      <c r="AD13" s="214"/>
-      <c r="AE13" s="215"/>
-      <c r="AF13" s="210"/>
-      <c r="AG13" s="211"/>
-      <c r="AH13" s="211"/>
-      <c r="AI13" s="212"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="165"/>
+      <c r="S13" s="165"/>
+      <c r="T13" s="165"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="165"/>
+      <c r="W13" s="165"/>
+      <c r="X13" s="165"/>
+      <c r="Y13" s="165"/>
+      <c r="Z13" s="165"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
+      <c r="AD13" s="165"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="161"/>
+      <c r="AG13" s="162"/>
+      <c r="AH13" s="162"/>
+      <c r="AI13" s="163"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="204"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="211"/>
-      <c r="N14" s="211"/>
-      <c r="O14" s="211"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="214"/>
-      <c r="S14" s="214"/>
-      <c r="T14" s="214"/>
-      <c r="U14" s="214"/>
-      <c r="V14" s="214"/>
-      <c r="W14" s="214"/>
-      <c r="X14" s="214"/>
-      <c r="Y14" s="214"/>
-      <c r="Z14" s="214"/>
-      <c r="AA14" s="214"/>
-      <c r="AB14" s="214"/>
-      <c r="AC14" s="214"/>
-      <c r="AD14" s="214"/>
-      <c r="AE14" s="215"/>
-      <c r="AF14" s="210"/>
-      <c r="AG14" s="211"/>
-      <c r="AH14" s="211"/>
-      <c r="AI14" s="212"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="165"/>
+      <c r="T14" s="165"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
+      <c r="W14" s="165"/>
+      <c r="X14" s="165"/>
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="165"/>
+      <c r="AA14" s="165"/>
+      <c r="AB14" s="165"/>
+      <c r="AC14" s="165"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="166"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="162"/>
+      <c r="AH14" s="162"/>
+      <c r="AI14" s="163"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="211"/>
-      <c r="N15" s="211"/>
-      <c r="O15" s="211"/>
-      <c r="P15" s="212"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="214"/>
-      <c r="S15" s="214"/>
-      <c r="T15" s="214"/>
-      <c r="U15" s="214"/>
-      <c r="V15" s="214"/>
-      <c r="W15" s="214"/>
-      <c r="X15" s="214"/>
-      <c r="Y15" s="214"/>
-      <c r="Z15" s="214"/>
-      <c r="AA15" s="214"/>
-      <c r="AB15" s="214"/>
-      <c r="AC15" s="214"/>
-      <c r="AD15" s="214"/>
-      <c r="AE15" s="215"/>
-      <c r="AF15" s="210"/>
-      <c r="AG15" s="211"/>
-      <c r="AH15" s="211"/>
-      <c r="AI15" s="212"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="165"/>
+      <c r="S15" s="165"/>
+      <c r="T15" s="165"/>
+      <c r="U15" s="165"/>
+      <c r="V15" s="165"/>
+      <c r="W15" s="165"/>
+      <c r="X15" s="165"/>
+      <c r="Y15" s="165"/>
+      <c r="Z15" s="165"/>
+      <c r="AA15" s="165"/>
+      <c r="AB15" s="165"/>
+      <c r="AC15" s="165"/>
+      <c r="AD15" s="165"/>
+      <c r="AE15" s="166"/>
+      <c r="AF15" s="161"/>
+      <c r="AG15" s="162"/>
+      <c r="AH15" s="162"/>
+      <c r="AI15" s="163"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="204"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="210"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="211"/>
-      <c r="N16" s="211"/>
-      <c r="O16" s="211"/>
-      <c r="P16" s="212"/>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="214"/>
-      <c r="S16" s="214"/>
-      <c r="T16" s="214"/>
-      <c r="U16" s="214"/>
-      <c r="V16" s="214"/>
-      <c r="W16" s="214"/>
-      <c r="X16" s="214"/>
-      <c r="Y16" s="214"/>
-      <c r="Z16" s="214"/>
-      <c r="AA16" s="214"/>
-      <c r="AB16" s="214"/>
-      <c r="AC16" s="214"/>
-      <c r="AD16" s="214"/>
-      <c r="AE16" s="215"/>
-      <c r="AF16" s="210"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="212"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="165"/>
+      <c r="T16" s="165"/>
+      <c r="U16" s="165"/>
+      <c r="V16" s="165"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="165"/>
+      <c r="Y16" s="165"/>
+      <c r="Z16" s="165"/>
+      <c r="AA16" s="165"/>
+      <c r="AB16" s="165"/>
+      <c r="AC16" s="165"/>
+      <c r="AD16" s="165"/>
+      <c r="AE16" s="166"/>
+      <c r="AF16" s="161"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="162"/>
+      <c r="AI16" s="163"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="211"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="212"/>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="214"/>
-      <c r="S17" s="214"/>
-      <c r="T17" s="214"/>
-      <c r="U17" s="214"/>
-      <c r="V17" s="214"/>
-      <c r="W17" s="214"/>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="214"/>
-      <c r="Z17" s="214"/>
-      <c r="AA17" s="214"/>
-      <c r="AB17" s="214"/>
-      <c r="AC17" s="214"/>
-      <c r="AD17" s="214"/>
-      <c r="AE17" s="215"/>
-      <c r="AF17" s="210"/>
-      <c r="AG17" s="211"/>
-      <c r="AH17" s="211"/>
-      <c r="AI17" s="212"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="165"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="165"/>
+      <c r="W17" s="165"/>
+      <c r="X17" s="165"/>
+      <c r="Y17" s="165"/>
+      <c r="Z17" s="165"/>
+      <c r="AA17" s="165"/>
+      <c r="AB17" s="165"/>
+      <c r="AC17" s="165"/>
+      <c r="AD17" s="165"/>
+      <c r="AE17" s="166"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="162"/>
+      <c r="AH17" s="162"/>
+      <c r="AI17" s="163"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="212"/>
-      <c r="Q18" s="213"/>
-      <c r="R18" s="214"/>
-      <c r="S18" s="214"/>
-      <c r="T18" s="214"/>
-      <c r="U18" s="214"/>
-      <c r="V18" s="214"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214"/>
-      <c r="AA18" s="214"/>
-      <c r="AB18" s="214"/>
-      <c r="AC18" s="214"/>
-      <c r="AD18" s="214"/>
-      <c r="AE18" s="215"/>
-      <c r="AF18" s="210"/>
-      <c r="AG18" s="211"/>
-      <c r="AH18" s="211"/>
-      <c r="AI18" s="212"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="165"/>
+      <c r="S18" s="165"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="165"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="165"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="165"/>
+      <c r="AD18" s="165"/>
+      <c r="AE18" s="166"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="162"/>
+      <c r="AH18" s="162"/>
+      <c r="AI18" s="163"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="210"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="211"/>
-      <c r="N19" s="211"/>
-      <c r="O19" s="211"/>
-      <c r="P19" s="212"/>
-      <c r="Q19" s="213"/>
-      <c r="R19" s="214"/>
-      <c r="S19" s="214"/>
-      <c r="T19" s="214"/>
-      <c r="U19" s="214"/>
-      <c r="V19" s="214"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="214"/>
-      <c r="Z19" s="214"/>
-      <c r="AA19" s="214"/>
-      <c r="AB19" s="214"/>
-      <c r="AC19" s="214"/>
-      <c r="AD19" s="214"/>
-      <c r="AE19" s="215"/>
-      <c r="AF19" s="210"/>
-      <c r="AG19" s="211"/>
-      <c r="AH19" s="211"/>
-      <c r="AI19" s="212"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="165"/>
+      <c r="S19" s="165"/>
+      <c r="T19" s="165"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="165"/>
+      <c r="W19" s="165"/>
+      <c r="X19" s="165"/>
+      <c r="Y19" s="165"/>
+      <c r="Z19" s="165"/>
+      <c r="AA19" s="165"/>
+      <c r="AB19" s="165"/>
+      <c r="AC19" s="165"/>
+      <c r="AD19" s="165"/>
+      <c r="AE19" s="166"/>
+      <c r="AF19" s="161"/>
+      <c r="AG19" s="162"/>
+      <c r="AH19" s="162"/>
+      <c r="AI19" s="163"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="211"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="211"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212"/>
-      <c r="Q20" s="213"/>
-      <c r="R20" s="214"/>
-      <c r="S20" s="214"/>
-      <c r="T20" s="214"/>
-      <c r="U20" s="214"/>
-      <c r="V20" s="214"/>
-      <c r="W20" s="214"/>
-      <c r="X20" s="214"/>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="214"/>
-      <c r="AA20" s="214"/>
-      <c r="AB20" s="214"/>
-      <c r="AC20" s="214"/>
-      <c r="AD20" s="214"/>
-      <c r="AE20" s="215"/>
-      <c r="AF20" s="210"/>
-      <c r="AG20" s="211"/>
-      <c r="AH20" s="211"/>
-      <c r="AI20" s="212"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="165"/>
+      <c r="S20" s="165"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="165"/>
+      <c r="Y20" s="165"/>
+      <c r="Z20" s="165"/>
+      <c r="AA20" s="165"/>
+      <c r="AB20" s="165"/>
+      <c r="AC20" s="165"/>
+      <c r="AD20" s="165"/>
+      <c r="AE20" s="166"/>
+      <c r="AF20" s="161"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="162"/>
+      <c r="AI20" s="163"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="210"/>
-      <c r="K21" s="211"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="211"/>
-      <c r="O21" s="211"/>
-      <c r="P21" s="212"/>
-      <c r="Q21" s="213"/>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
-      <c r="T21" s="214"/>
-      <c r="U21" s="214"/>
-      <c r="V21" s="214"/>
-      <c r="W21" s="214"/>
-      <c r="X21" s="214"/>
-      <c r="Y21" s="214"/>
-      <c r="Z21" s="214"/>
-      <c r="AA21" s="214"/>
-      <c r="AB21" s="214"/>
-      <c r="AC21" s="214"/>
-      <c r="AD21" s="214"/>
-      <c r="AE21" s="215"/>
-      <c r="AF21" s="210"/>
-      <c r="AG21" s="211"/>
-      <c r="AH21" s="211"/>
-      <c r="AI21" s="212"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="165"/>
+      <c r="S21" s="165"/>
+      <c r="T21" s="165"/>
+      <c r="U21" s="165"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="165"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
+      <c r="AD21" s="165"/>
+      <c r="AE21" s="166"/>
+      <c r="AF21" s="161"/>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="163"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="204"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="210"/>
-      <c r="K22" s="211"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="211"/>
-      <c r="N22" s="211"/>
-      <c r="O22" s="211"/>
-      <c r="P22" s="212"/>
-      <c r="Q22" s="213"/>
-      <c r="R22" s="214"/>
-      <c r="S22" s="214"/>
-      <c r="T22" s="214"/>
-      <c r="U22" s="214"/>
-      <c r="V22" s="214"/>
-      <c r="W22" s="214"/>
-      <c r="X22" s="214"/>
-      <c r="Y22" s="214"/>
-      <c r="Z22" s="214"/>
-      <c r="AA22" s="214"/>
-      <c r="AB22" s="214"/>
-      <c r="AC22" s="214"/>
-      <c r="AD22" s="214"/>
-      <c r="AE22" s="215"/>
-      <c r="AF22" s="210"/>
-      <c r="AG22" s="211"/>
-      <c r="AH22" s="211"/>
-      <c r="AI22" s="212"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="165"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
+      <c r="Y22" s="165"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
+      <c r="AD22" s="165"/>
+      <c r="AE22" s="166"/>
+      <c r="AF22" s="161"/>
+      <c r="AG22" s="162"/>
+      <c r="AH22" s="162"/>
+      <c r="AI22" s="163"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="211"/>
-      <c r="M23" s="211"/>
-      <c r="N23" s="211"/>
-      <c r="O23" s="211"/>
-      <c r="P23" s="212"/>
-      <c r="Q23" s="213"/>
-      <c r="R23" s="214"/>
-      <c r="S23" s="214"/>
-      <c r="T23" s="214"/>
-      <c r="U23" s="214"/>
-      <c r="V23" s="214"/>
-      <c r="W23" s="214"/>
-      <c r="X23" s="214"/>
-      <c r="Y23" s="214"/>
-      <c r="Z23" s="214"/>
-      <c r="AA23" s="214"/>
-      <c r="AB23" s="214"/>
-      <c r="AC23" s="214"/>
-      <c r="AD23" s="214"/>
-      <c r="AE23" s="215"/>
-      <c r="AF23" s="210"/>
-      <c r="AG23" s="211"/>
-      <c r="AH23" s="211"/>
-      <c r="AI23" s="212"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="165"/>
+      <c r="Z23" s="165"/>
+      <c r="AA23" s="165"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="165"/>
+      <c r="AD23" s="165"/>
+      <c r="AE23" s="166"/>
+      <c r="AF23" s="161"/>
+      <c r="AG23" s="162"/>
+      <c r="AH23" s="162"/>
+      <c r="AI23" s="163"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="210"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="211"/>
-      <c r="M24" s="211"/>
-      <c r="N24" s="211"/>
-      <c r="O24" s="211"/>
-      <c r="P24" s="212"/>
-      <c r="Q24" s="213"/>
-      <c r="R24" s="214"/>
-      <c r="S24" s="214"/>
-      <c r="T24" s="214"/>
-      <c r="U24" s="214"/>
-      <c r="V24" s="214"/>
-      <c r="W24" s="214"/>
-      <c r="X24" s="214"/>
-      <c r="Y24" s="214"/>
-      <c r="Z24" s="214"/>
-      <c r="AA24" s="214"/>
-      <c r="AB24" s="214"/>
-      <c r="AC24" s="214"/>
-      <c r="AD24" s="214"/>
-      <c r="AE24" s="215"/>
-      <c r="AF24" s="210"/>
-      <c r="AG24" s="211"/>
-      <c r="AH24" s="211"/>
-      <c r="AI24" s="212"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="165"/>
+      <c r="U24" s="165"/>
+      <c r="V24" s="165"/>
+      <c r="W24" s="165"/>
+      <c r="X24" s="165"/>
+      <c r="Y24" s="165"/>
+      <c r="Z24" s="165"/>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="165"/>
+      <c r="AD24" s="165"/>
+      <c r="AE24" s="166"/>
+      <c r="AF24" s="161"/>
+      <c r="AG24" s="162"/>
+      <c r="AH24" s="162"/>
+      <c r="AI24" s="163"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="211"/>
-      <c r="N25" s="211"/>
-      <c r="O25" s="211"/>
-      <c r="P25" s="212"/>
-      <c r="Q25" s="213"/>
-      <c r="R25" s="214"/>
-      <c r="S25" s="214"/>
-      <c r="T25" s="214"/>
-      <c r="U25" s="214"/>
-      <c r="V25" s="214"/>
-      <c r="W25" s="214"/>
-      <c r="X25" s="214"/>
-      <c r="Y25" s="214"/>
-      <c r="Z25" s="214"/>
-      <c r="AA25" s="214"/>
-      <c r="AB25" s="214"/>
-      <c r="AC25" s="214"/>
-      <c r="AD25" s="214"/>
-      <c r="AE25" s="215"/>
-      <c r="AF25" s="210"/>
-      <c r="AG25" s="211"/>
-      <c r="AH25" s="211"/>
-      <c r="AI25" s="212"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="165"/>
+      <c r="U25" s="165"/>
+      <c r="V25" s="165"/>
+      <c r="W25" s="165"/>
+      <c r="X25" s="165"/>
+      <c r="Y25" s="165"/>
+      <c r="Z25" s="165"/>
+      <c r="AA25" s="165"/>
+      <c r="AB25" s="165"/>
+      <c r="AC25" s="165"/>
+      <c r="AD25" s="165"/>
+      <c r="AE25" s="166"/>
+      <c r="AF25" s="161"/>
+      <c r="AG25" s="162"/>
+      <c r="AH25" s="162"/>
+      <c r="AI25" s="163"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="204"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="211"/>
-      <c r="M26" s="211"/>
-      <c r="N26" s="211"/>
-      <c r="O26" s="211"/>
-      <c r="P26" s="212"/>
-      <c r="Q26" s="213"/>
-      <c r="R26" s="214"/>
-      <c r="S26" s="214"/>
-      <c r="T26" s="214"/>
-      <c r="U26" s="214"/>
-      <c r="V26" s="214"/>
-      <c r="W26" s="214"/>
-      <c r="X26" s="214"/>
-      <c r="Y26" s="214"/>
-      <c r="Z26" s="214"/>
-      <c r="AA26" s="214"/>
-      <c r="AB26" s="214"/>
-      <c r="AC26" s="214"/>
-      <c r="AD26" s="214"/>
-      <c r="AE26" s="215"/>
-      <c r="AF26" s="210"/>
-      <c r="AG26" s="211"/>
-      <c r="AH26" s="211"/>
-      <c r="AI26" s="212"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="165"/>
+      <c r="W26" s="165"/>
+      <c r="X26" s="165"/>
+      <c r="Y26" s="165"/>
+      <c r="Z26" s="165"/>
+      <c r="AA26" s="165"/>
+      <c r="AB26" s="165"/>
+      <c r="AC26" s="165"/>
+      <c r="AD26" s="165"/>
+      <c r="AE26" s="166"/>
+      <c r="AF26" s="161"/>
+      <c r="AG26" s="162"/>
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="163"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="212"/>
-      <c r="Q27" s="213"/>
-      <c r="R27" s="214"/>
-      <c r="S27" s="214"/>
-      <c r="T27" s="214"/>
-      <c r="U27" s="214"/>
-      <c r="V27" s="214"/>
-      <c r="W27" s="214"/>
-      <c r="X27" s="214"/>
-      <c r="Y27" s="214"/>
-      <c r="Z27" s="214"/>
-      <c r="AA27" s="214"/>
-      <c r="AB27" s="214"/>
-      <c r="AC27" s="214"/>
-      <c r="AD27" s="214"/>
-      <c r="AE27" s="215"/>
-      <c r="AF27" s="210"/>
-      <c r="AG27" s="211"/>
-      <c r="AH27" s="211"/>
-      <c r="AI27" s="212"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="165"/>
+      <c r="W27" s="165"/>
+      <c r="X27" s="165"/>
+      <c r="Y27" s="165"/>
+      <c r="Z27" s="165"/>
+      <c r="AA27" s="165"/>
+      <c r="AB27" s="165"/>
+      <c r="AC27" s="165"/>
+      <c r="AD27" s="165"/>
+      <c r="AE27" s="166"/>
+      <c r="AF27" s="161"/>
+      <c r="AG27" s="162"/>
+      <c r="AH27" s="162"/>
+      <c r="AI27" s="163"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="204"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="213"/>
-      <c r="R28" s="214"/>
-      <c r="S28" s="214"/>
-      <c r="T28" s="214"/>
-      <c r="U28" s="214"/>
-      <c r="V28" s="214"/>
-      <c r="W28" s="214"/>
-      <c r="X28" s="214"/>
-      <c r="Y28" s="214"/>
-      <c r="Z28" s="214"/>
-      <c r="AA28" s="214"/>
-      <c r="AB28" s="214"/>
-      <c r="AC28" s="214"/>
-      <c r="AD28" s="214"/>
-      <c r="AE28" s="215"/>
-      <c r="AF28" s="210"/>
-      <c r="AG28" s="211"/>
-      <c r="AH28" s="211"/>
-      <c r="AI28" s="212"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="165"/>
+      <c r="W28" s="165"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="165"/>
+      <c r="Z28" s="165"/>
+      <c r="AA28" s="165"/>
+      <c r="AB28" s="165"/>
+      <c r="AC28" s="165"/>
+      <c r="AD28" s="165"/>
+      <c r="AE28" s="166"/>
+      <c r="AF28" s="161"/>
+      <c r="AG28" s="162"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="163"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="212"/>
-      <c r="Q29" s="213"/>
-      <c r="R29" s="214"/>
-      <c r="S29" s="214"/>
-      <c r="T29" s="214"/>
-      <c r="U29" s="214"/>
-      <c r="V29" s="214"/>
-      <c r="W29" s="214"/>
-      <c r="X29" s="214"/>
-      <c r="Y29" s="214"/>
-      <c r="Z29" s="214"/>
-      <c r="AA29" s="214"/>
-      <c r="AB29" s="214"/>
-      <c r="AC29" s="214"/>
-      <c r="AD29" s="214"/>
-      <c r="AE29" s="215"/>
-      <c r="AF29" s="210"/>
-      <c r="AG29" s="211"/>
-      <c r="AH29" s="211"/>
-      <c r="AI29" s="212"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+      <c r="P29" s="163"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="165"/>
+      <c r="T29" s="165"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="165"/>
+      <c r="W29" s="165"/>
+      <c r="X29" s="165"/>
+      <c r="Y29" s="165"/>
+      <c r="Z29" s="165"/>
+      <c r="AA29" s="165"/>
+      <c r="AB29" s="165"/>
+      <c r="AC29" s="165"/>
+      <c r="AD29" s="165"/>
+      <c r="AE29" s="166"/>
+      <c r="AF29" s="161"/>
+      <c r="AG29" s="162"/>
+      <c r="AH29" s="162"/>
+      <c r="AI29" s="163"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="212"/>
-      <c r="Q30" s="213"/>
-      <c r="R30" s="214"/>
-      <c r="S30" s="214"/>
-      <c r="T30" s="214"/>
-      <c r="U30" s="214"/>
-      <c r="V30" s="214"/>
-      <c r="W30" s="214"/>
-      <c r="X30" s="214"/>
-      <c r="Y30" s="214"/>
-      <c r="Z30" s="214"/>
-      <c r="AA30" s="214"/>
-      <c r="AB30" s="214"/>
-      <c r="AC30" s="214"/>
-      <c r="AD30" s="214"/>
-      <c r="AE30" s="215"/>
-      <c r="AF30" s="210"/>
-      <c r="AG30" s="211"/>
-      <c r="AH30" s="211"/>
-      <c r="AI30" s="212"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
+      <c r="U30" s="165"/>
+      <c r="V30" s="165"/>
+      <c r="W30" s="165"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="165"/>
+      <c r="AB30" s="165"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="166"/>
+      <c r="AF30" s="161"/>
+      <c r="AG30" s="162"/>
+      <c r="AH30" s="162"/>
+      <c r="AI30" s="163"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="212"/>
-      <c r="Q31" s="213"/>
-      <c r="R31" s="214"/>
-      <c r="S31" s="214"/>
-      <c r="T31" s="214"/>
-      <c r="U31" s="214"/>
-      <c r="V31" s="214"/>
-      <c r="W31" s="214"/>
-      <c r="X31" s="214"/>
-      <c r="Y31" s="214"/>
-      <c r="Z31" s="214"/>
-      <c r="AA31" s="214"/>
-      <c r="AB31" s="214"/>
-      <c r="AC31" s="214"/>
-      <c r="AD31" s="214"/>
-      <c r="AE31" s="215"/>
-      <c r="AF31" s="210"/>
-      <c r="AG31" s="211"/>
-      <c r="AH31" s="211"/>
-      <c r="AI31" s="212"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
+      <c r="U31" s="165"/>
+      <c r="V31" s="165"/>
+      <c r="W31" s="165"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="165"/>
+      <c r="Z31" s="165"/>
+      <c r="AA31" s="165"/>
+      <c r="AB31" s="165"/>
+      <c r="AC31" s="165"/>
+      <c r="AD31" s="165"/>
+      <c r="AE31" s="166"/>
+      <c r="AF31" s="161"/>
+      <c r="AG31" s="162"/>
+      <c r="AH31" s="162"/>
+      <c r="AI31" s="163"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="204"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="210"/>
-      <c r="K32" s="216"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="211"/>
-      <c r="O32" s="211"/>
-      <c r="P32" s="212"/>
-      <c r="Q32" s="213"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="214"/>
-      <c r="T32" s="214"/>
-      <c r="U32" s="214"/>
-      <c r="V32" s="214"/>
-      <c r="W32" s="214"/>
-      <c r="X32" s="214"/>
-      <c r="Y32" s="214"/>
-      <c r="Z32" s="214"/>
-      <c r="AA32" s="214"/>
-      <c r="AB32" s="214"/>
-      <c r="AC32" s="214"/>
-      <c r="AD32" s="214"/>
-      <c r="AE32" s="215"/>
-      <c r="AF32" s="210"/>
-      <c r="AG32" s="211"/>
-      <c r="AH32" s="211"/>
-      <c r="AI32" s="212"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165"/>
+      <c r="U32" s="165"/>
+      <c r="V32" s="165"/>
+      <c r="W32" s="165"/>
+      <c r="X32" s="165"/>
+      <c r="Y32" s="165"/>
+      <c r="Z32" s="165"/>
+      <c r="AA32" s="165"/>
+      <c r="AB32" s="165"/>
+      <c r="AC32" s="165"/>
+      <c r="AD32" s="165"/>
+      <c r="AE32" s="166"/>
+      <c r="AF32" s="161"/>
+      <c r="AG32" s="162"/>
+      <c r="AH32" s="162"/>
+      <c r="AI32" s="163"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="211"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="211"/>
-      <c r="P33" s="212"/>
-      <c r="Q33" s="213"/>
-      <c r="R33" s="214"/>
-      <c r="S33" s="214"/>
-      <c r="T33" s="214"/>
-      <c r="U33" s="214"/>
-      <c r="V33" s="214"/>
-      <c r="W33" s="214"/>
-      <c r="X33" s="214"/>
-      <c r="Y33" s="214"/>
-      <c r="Z33" s="214"/>
-      <c r="AA33" s="214"/>
-      <c r="AB33" s="214"/>
-      <c r="AC33" s="214"/>
-      <c r="AD33" s="214"/>
-      <c r="AE33" s="215"/>
-      <c r="AF33" s="210"/>
-      <c r="AG33" s="211"/>
-      <c r="AH33" s="211"/>
-      <c r="AI33" s="212"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="165"/>
+      <c r="U33" s="165"/>
+      <c r="V33" s="165"/>
+      <c r="W33" s="165"/>
+      <c r="X33" s="165"/>
+      <c r="Y33" s="165"/>
+      <c r="Z33" s="165"/>
+      <c r="AA33" s="165"/>
+      <c r="AB33" s="165"/>
+      <c r="AC33" s="165"/>
+      <c r="AD33" s="165"/>
+      <c r="AE33" s="166"/>
+      <c r="AF33" s="161"/>
+      <c r="AG33" s="162"/>
+      <c r="AH33" s="162"/>
+      <c r="AI33" s="163"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10626,167 +10780,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -21033,7 +21026,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>491</v>
+        <v>20</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>22</v>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0BD6C3-4FED-474C-ABF9-4F9580322A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33137CD8-69F0-4A83-9487-EE1EFFE738F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7760,93 +7760,6 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7945,6 +7858,93 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9400,57 +9400,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="190" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="161" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="208" t="s">
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="179" t="s">
         <v>463</v>
       </c>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="186" t="str">
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="157" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="187"/>
-      <c r="AE1" s="187"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="193" t="str">
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="164" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="194"/>
-      <c r="AI1" s="195"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9458,53 +9458,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="190" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="161" t="s">
         <v>465</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="196" t="str">
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="167" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="193" t="str">
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="164" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="194"/>
-      <c r="AI2" s="195"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9512,45 +9512,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="190" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="161" t="s">
         <v>466</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="186"/>
-      <c r="AD3" s="187"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="188"/>
-      <c r="AG3" s="193"/>
-      <c r="AH3" s="194"/>
-      <c r="AI3" s="195"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9587,1181 +9587,1020 @@
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="168" t="s">
+      <c r="C7" s="189"/>
+      <c r="D7" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="168" t="s">
+      <c r="E7" s="190"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="168" t="s">
+      <c r="H7" s="190"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="168" t="s">
+      <c r="K7" s="190"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="190"/>
+      <c r="N7" s="190"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="170"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170"/>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170"/>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="169"/>
-      <c r="AF7" s="168" t="s">
+      <c r="R7" s="190"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="190"/>
+      <c r="U7" s="190"/>
+      <c r="V7" s="190"/>
+      <c r="W7" s="190"/>
+      <c r="X7" s="190"/>
+      <c r="Y7" s="190"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="190"/>
+      <c r="AD7" s="190"/>
+      <c r="AE7" s="189"/>
+      <c r="AF7" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" s="170"/>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="169"/>
+      <c r="AG7" s="190"/>
+      <c r="AH7" s="190"/>
+      <c r="AI7" s="189"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="182"/>
-      <c r="S8" s="182"/>
-      <c r="T8" s="182"/>
-      <c r="U8" s="182"/>
-      <c r="V8" s="182"/>
-      <c r="W8" s="182"/>
-      <c r="X8" s="182"/>
-      <c r="Y8" s="182"/>
-      <c r="Z8" s="182"/>
-      <c r="AA8" s="182"/>
-      <c r="AB8" s="182"/>
-      <c r="AC8" s="182"/>
-      <c r="AD8" s="182"/>
-      <c r="AE8" s="183"/>
-      <c r="AF8" s="178"/>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="180"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="202"/>
+      <c r="U8" s="202"/>
+      <c r="V8" s="202"/>
+      <c r="W8" s="202"/>
+      <c r="X8" s="202"/>
+      <c r="Y8" s="202"/>
+      <c r="Z8" s="202"/>
+      <c r="AA8" s="202"/>
+      <c r="AB8" s="202"/>
+      <c r="AC8" s="202"/>
+      <c r="AD8" s="202"/>
+      <c r="AE8" s="203"/>
+      <c r="AF8" s="198"/>
+      <c r="AG8" s="199"/>
+      <c r="AH8" s="199"/>
+      <c r="AI8" s="200"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="165"/>
-      <c r="Z9" s="165"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="165"/>
-      <c r="AC9" s="165"/>
-      <c r="AD9" s="165"/>
-      <c r="AE9" s="166"/>
-      <c r="AF9" s="161"/>
-      <c r="AG9" s="162"/>
-      <c r="AH9" s="162"/>
-      <c r="AI9" s="163"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="212"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="214"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="214"/>
+      <c r="V9" s="214"/>
+      <c r="W9" s="214"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="214"/>
+      <c r="Z9" s="214"/>
+      <c r="AA9" s="214"/>
+      <c r="AB9" s="214"/>
+      <c r="AC9" s="214"/>
+      <c r="AD9" s="214"/>
+      <c r="AE9" s="215"/>
+      <c r="AF9" s="210"/>
+      <c r="AG9" s="211"/>
+      <c r="AH9" s="211"/>
+      <c r="AI9" s="212"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="165"/>
-      <c r="T10" s="165"/>
-      <c r="U10" s="165"/>
-      <c r="V10" s="165"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="165"/>
-      <c r="Z10" s="165"/>
-      <c r="AA10" s="165"/>
-      <c r="AB10" s="165"/>
-      <c r="AC10" s="165"/>
-      <c r="AD10" s="165"/>
-      <c r="AE10" s="166"/>
-      <c r="AF10" s="161"/>
-      <c r="AG10" s="162"/>
-      <c r="AH10" s="162"/>
-      <c r="AI10" s="163"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="213"/>
+      <c r="R10" s="214"/>
+      <c r="S10" s="214"/>
+      <c r="T10" s="214"/>
+      <c r="U10" s="214"/>
+      <c r="V10" s="214"/>
+      <c r="W10" s="214"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="214"/>
+      <c r="Z10" s="214"/>
+      <c r="AA10" s="214"/>
+      <c r="AB10" s="214"/>
+      <c r="AC10" s="214"/>
+      <c r="AD10" s="214"/>
+      <c r="AE10" s="215"/>
+      <c r="AF10" s="210"/>
+      <c r="AG10" s="211"/>
+      <c r="AH10" s="211"/>
+      <c r="AI10" s="212"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="165"/>
-      <c r="S11" s="165"/>
-      <c r="T11" s="165"/>
-      <c r="U11" s="165"/>
-      <c r="V11" s="165"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="166"/>
-      <c r="AF11" s="161"/>
-      <c r="AG11" s="162"/>
-      <c r="AH11" s="162"/>
-      <c r="AI11" s="163"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="212"/>
+      <c r="Q11" s="213"/>
+      <c r="R11" s="214"/>
+      <c r="S11" s="214"/>
+      <c r="T11" s="214"/>
+      <c r="U11" s="214"/>
+      <c r="V11" s="214"/>
+      <c r="W11" s="214"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="214"/>
+      <c r="Z11" s="214"/>
+      <c r="AA11" s="214"/>
+      <c r="AB11" s="214"/>
+      <c r="AC11" s="214"/>
+      <c r="AD11" s="214"/>
+      <c r="AE11" s="215"/>
+      <c r="AF11" s="210"/>
+      <c r="AG11" s="211"/>
+      <c r="AH11" s="211"/>
+      <c r="AI11" s="212"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="165"/>
-      <c r="S12" s="165"/>
-      <c r="T12" s="165"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="165"/>
-      <c r="W12" s="165"/>
-      <c r="X12" s="165"/>
-      <c r="Y12" s="165"/>
-      <c r="Z12" s="165"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="165"/>
-      <c r="AC12" s="165"/>
-      <c r="AD12" s="165"/>
-      <c r="AE12" s="166"/>
-      <c r="AF12" s="161"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="163"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211"/>
+      <c r="O12" s="211"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="213"/>
+      <c r="R12" s="214"/>
+      <c r="S12" s="214"/>
+      <c r="T12" s="214"/>
+      <c r="U12" s="214"/>
+      <c r="V12" s="214"/>
+      <c r="W12" s="214"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="214"/>
+      <c r="AD12" s="214"/>
+      <c r="AE12" s="215"/>
+      <c r="AF12" s="210"/>
+      <c r="AG12" s="211"/>
+      <c r="AH12" s="211"/>
+      <c r="AI12" s="212"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="165"/>
-      <c r="S13" s="165"/>
-      <c r="T13" s="165"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="165"/>
-      <c r="W13" s="165"/>
-      <c r="X13" s="165"/>
-      <c r="Y13" s="165"/>
-      <c r="Z13" s="165"/>
-      <c r="AA13" s="165"/>
-      <c r="AB13" s="165"/>
-      <c r="AC13" s="165"/>
-      <c r="AD13" s="165"/>
-      <c r="AE13" s="166"/>
-      <c r="AF13" s="161"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="163"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="211"/>
+      <c r="O13" s="211"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="213"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="214"/>
+      <c r="W13" s="214"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="214"/>
+      <c r="AD13" s="214"/>
+      <c r="AE13" s="215"/>
+      <c r="AF13" s="210"/>
+      <c r="AG13" s="211"/>
+      <c r="AH13" s="211"/>
+      <c r="AI13" s="212"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="165"/>
-      <c r="S14" s="165"/>
-      <c r="T14" s="165"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="165"/>
-      <c r="W14" s="165"/>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="165"/>
-      <c r="Z14" s="165"/>
-      <c r="AA14" s="165"/>
-      <c r="AB14" s="165"/>
-      <c r="AC14" s="165"/>
-      <c r="AD14" s="165"/>
-      <c r="AE14" s="166"/>
-      <c r="AF14" s="161"/>
-      <c r="AG14" s="162"/>
-      <c r="AH14" s="162"/>
-      <c r="AI14" s="163"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="211"/>
+      <c r="N14" s="211"/>
+      <c r="O14" s="211"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="213"/>
+      <c r="R14" s="214"/>
+      <c r="S14" s="214"/>
+      <c r="T14" s="214"/>
+      <c r="U14" s="214"/>
+      <c r="V14" s="214"/>
+      <c r="W14" s="214"/>
+      <c r="X14" s="214"/>
+      <c r="Y14" s="214"/>
+      <c r="Z14" s="214"/>
+      <c r="AA14" s="214"/>
+      <c r="AB14" s="214"/>
+      <c r="AC14" s="214"/>
+      <c r="AD14" s="214"/>
+      <c r="AE14" s="215"/>
+      <c r="AF14" s="210"/>
+      <c r="AG14" s="211"/>
+      <c r="AH14" s="211"/>
+      <c r="AI14" s="212"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="165"/>
-      <c r="S15" s="165"/>
-      <c r="T15" s="165"/>
-      <c r="U15" s="165"/>
-      <c r="V15" s="165"/>
-      <c r="W15" s="165"/>
-      <c r="X15" s="165"/>
-      <c r="Y15" s="165"/>
-      <c r="Z15" s="165"/>
-      <c r="AA15" s="165"/>
-      <c r="AB15" s="165"/>
-      <c r="AC15" s="165"/>
-      <c r="AD15" s="165"/>
-      <c r="AE15" s="166"/>
-      <c r="AF15" s="161"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="163"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="211"/>
+      <c r="M15" s="211"/>
+      <c r="N15" s="211"/>
+      <c r="O15" s="211"/>
+      <c r="P15" s="212"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="214"/>
+      <c r="S15" s="214"/>
+      <c r="T15" s="214"/>
+      <c r="U15" s="214"/>
+      <c r="V15" s="214"/>
+      <c r="W15" s="214"/>
+      <c r="X15" s="214"/>
+      <c r="Y15" s="214"/>
+      <c r="Z15" s="214"/>
+      <c r="AA15" s="214"/>
+      <c r="AB15" s="214"/>
+      <c r="AC15" s="214"/>
+      <c r="AD15" s="214"/>
+      <c r="AE15" s="215"/>
+      <c r="AF15" s="210"/>
+      <c r="AG15" s="211"/>
+      <c r="AH15" s="211"/>
+      <c r="AI15" s="212"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="165"/>
-      <c r="T16" s="165"/>
-      <c r="U16" s="165"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="165"/>
-      <c r="Z16" s="165"/>
-      <c r="AA16" s="165"/>
-      <c r="AB16" s="165"/>
-      <c r="AC16" s="165"/>
-      <c r="AD16" s="165"/>
-      <c r="AE16" s="166"/>
-      <c r="AF16" s="161"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="163"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="210"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="211"/>
+      <c r="N16" s="211"/>
+      <c r="O16" s="211"/>
+      <c r="P16" s="212"/>
+      <c r="Q16" s="213"/>
+      <c r="R16" s="214"/>
+      <c r="S16" s="214"/>
+      <c r="T16" s="214"/>
+      <c r="U16" s="214"/>
+      <c r="V16" s="214"/>
+      <c r="W16" s="214"/>
+      <c r="X16" s="214"/>
+      <c r="Y16" s="214"/>
+      <c r="Z16" s="214"/>
+      <c r="AA16" s="214"/>
+      <c r="AB16" s="214"/>
+      <c r="AC16" s="214"/>
+      <c r="AD16" s="214"/>
+      <c r="AE16" s="215"/>
+      <c r="AF16" s="210"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="212"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="165"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
-      <c r="Y17" s="165"/>
-      <c r="Z17" s="165"/>
-      <c r="AA17" s="165"/>
-      <c r="AB17" s="165"/>
-      <c r="AC17" s="165"/>
-      <c r="AD17" s="165"/>
-      <c r="AE17" s="166"/>
-      <c r="AF17" s="161"/>
-      <c r="AG17" s="162"/>
-      <c r="AH17" s="162"/>
-      <c r="AI17" s="163"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="211"/>
+      <c r="L17" s="211"/>
+      <c r="M17" s="211"/>
+      <c r="N17" s="211"/>
+      <c r="O17" s="211"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="213"/>
+      <c r="R17" s="214"/>
+      <c r="S17" s="214"/>
+      <c r="T17" s="214"/>
+      <c r="U17" s="214"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="214"/>
+      <c r="Z17" s="214"/>
+      <c r="AA17" s="214"/>
+      <c r="AB17" s="214"/>
+      <c r="AC17" s="214"/>
+      <c r="AD17" s="214"/>
+      <c r="AE17" s="215"/>
+      <c r="AF17" s="210"/>
+      <c r="AG17" s="211"/>
+      <c r="AH17" s="211"/>
+      <c r="AI17" s="212"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="165"/>
-      <c r="S18" s="165"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="165"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="165"/>
-      <c r="AD18" s="165"/>
-      <c r="AE18" s="166"/>
-      <c r="AF18" s="161"/>
-      <c r="AG18" s="162"/>
-      <c r="AH18" s="162"/>
-      <c r="AI18" s="163"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="211"/>
+      <c r="L18" s="211"/>
+      <c r="M18" s="211"/>
+      <c r="N18" s="211"/>
+      <c r="O18" s="211"/>
+      <c r="P18" s="212"/>
+      <c r="Q18" s="213"/>
+      <c r="R18" s="214"/>
+      <c r="S18" s="214"/>
+      <c r="T18" s="214"/>
+      <c r="U18" s="214"/>
+      <c r="V18" s="214"/>
+      <c r="W18" s="214"/>
+      <c r="X18" s="214"/>
+      <c r="Y18" s="214"/>
+      <c r="Z18" s="214"/>
+      <c r="AA18" s="214"/>
+      <c r="AB18" s="214"/>
+      <c r="AC18" s="214"/>
+      <c r="AD18" s="214"/>
+      <c r="AE18" s="215"/>
+      <c r="AF18" s="210"/>
+      <c r="AG18" s="211"/>
+      <c r="AH18" s="211"/>
+      <c r="AI18" s="212"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="165"/>
-      <c r="S19" s="165"/>
-      <c r="T19" s="165"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="165"/>
-      <c r="X19" s="165"/>
-      <c r="Y19" s="165"/>
-      <c r="Z19" s="165"/>
-      <c r="AA19" s="165"/>
-      <c r="AB19" s="165"/>
-      <c r="AC19" s="165"/>
-      <c r="AD19" s="165"/>
-      <c r="AE19" s="166"/>
-      <c r="AF19" s="161"/>
-      <c r="AG19" s="162"/>
-      <c r="AH19" s="162"/>
-      <c r="AI19" s="163"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="211"/>
+      <c r="M19" s="211"/>
+      <c r="N19" s="211"/>
+      <c r="O19" s="211"/>
+      <c r="P19" s="212"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="214"/>
+      <c r="S19" s="214"/>
+      <c r="T19" s="214"/>
+      <c r="U19" s="214"/>
+      <c r="V19" s="214"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="214"/>
+      <c r="Z19" s="214"/>
+      <c r="AA19" s="214"/>
+      <c r="AB19" s="214"/>
+      <c r="AC19" s="214"/>
+      <c r="AD19" s="214"/>
+      <c r="AE19" s="215"/>
+      <c r="AF19" s="210"/>
+      <c r="AG19" s="211"/>
+      <c r="AH19" s="211"/>
+      <c r="AI19" s="212"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="165"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="165"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="165"/>
-      <c r="Z20" s="165"/>
-      <c r="AA20" s="165"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="165"/>
-      <c r="AE20" s="166"/>
-      <c r="AF20" s="161"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="163"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="211"/>
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="214"/>
+      <c r="S20" s="214"/>
+      <c r="T20" s="214"/>
+      <c r="U20" s="214"/>
+      <c r="V20" s="214"/>
+      <c r="W20" s="214"/>
+      <c r="X20" s="214"/>
+      <c r="Y20" s="214"/>
+      <c r="Z20" s="214"/>
+      <c r="AA20" s="214"/>
+      <c r="AB20" s="214"/>
+      <c r="AC20" s="214"/>
+      <c r="AD20" s="214"/>
+      <c r="AE20" s="215"/>
+      <c r="AF20" s="210"/>
+      <c r="AG20" s="211"/>
+      <c r="AH20" s="211"/>
+      <c r="AI20" s="212"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="165"/>
-      <c r="Z21" s="165"/>
-      <c r="AA21" s="165"/>
-      <c r="AB21" s="165"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="165"/>
-      <c r="AE21" s="166"/>
-      <c r="AF21" s="161"/>
-      <c r="AG21" s="162"/>
-      <c r="AH21" s="162"/>
-      <c r="AI21" s="163"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="211"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="211"/>
+      <c r="O21" s="211"/>
+      <c r="P21" s="212"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="214"/>
+      <c r="S21" s="214"/>
+      <c r="T21" s="214"/>
+      <c r="U21" s="214"/>
+      <c r="V21" s="214"/>
+      <c r="W21" s="214"/>
+      <c r="X21" s="214"/>
+      <c r="Y21" s="214"/>
+      <c r="Z21" s="214"/>
+      <c r="AA21" s="214"/>
+      <c r="AB21" s="214"/>
+      <c r="AC21" s="214"/>
+      <c r="AD21" s="214"/>
+      <c r="AE21" s="215"/>
+      <c r="AF21" s="210"/>
+      <c r="AG21" s="211"/>
+      <c r="AH21" s="211"/>
+      <c r="AI21" s="212"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="165"/>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="165"/>
-      <c r="AB22" s="165"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="166"/>
-      <c r="AF22" s="161"/>
-      <c r="AG22" s="162"/>
-      <c r="AH22" s="162"/>
-      <c r="AI22" s="163"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="211"/>
+      <c r="L22" s="211"/>
+      <c r="M22" s="211"/>
+      <c r="N22" s="211"/>
+      <c r="O22" s="211"/>
+      <c r="P22" s="212"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="214"/>
+      <c r="S22" s="214"/>
+      <c r="T22" s="214"/>
+      <c r="U22" s="214"/>
+      <c r="V22" s="214"/>
+      <c r="W22" s="214"/>
+      <c r="X22" s="214"/>
+      <c r="Y22" s="214"/>
+      <c r="Z22" s="214"/>
+      <c r="AA22" s="214"/>
+      <c r="AB22" s="214"/>
+      <c r="AC22" s="214"/>
+      <c r="AD22" s="214"/>
+      <c r="AE22" s="215"/>
+      <c r="AF22" s="210"/>
+      <c r="AG22" s="211"/>
+      <c r="AH22" s="211"/>
+      <c r="AI22" s="212"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="166"/>
-      <c r="AF23" s="161"/>
-      <c r="AG23" s="162"/>
-      <c r="AH23" s="162"/>
-      <c r="AI23" s="163"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="211"/>
+      <c r="L23" s="211"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="211"/>
+      <c r="O23" s="211"/>
+      <c r="P23" s="212"/>
+      <c r="Q23" s="213"/>
+      <c r="R23" s="214"/>
+      <c r="S23" s="214"/>
+      <c r="T23" s="214"/>
+      <c r="U23" s="214"/>
+      <c r="V23" s="214"/>
+      <c r="W23" s="214"/>
+      <c r="X23" s="214"/>
+      <c r="Y23" s="214"/>
+      <c r="Z23" s="214"/>
+      <c r="AA23" s="214"/>
+      <c r="AB23" s="214"/>
+      <c r="AC23" s="214"/>
+      <c r="AD23" s="214"/>
+      <c r="AE23" s="215"/>
+      <c r="AF23" s="210"/>
+      <c r="AG23" s="211"/>
+      <c r="AH23" s="211"/>
+      <c r="AI23" s="212"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="165"/>
-      <c r="U24" s="165"/>
-      <c r="V24" s="165"/>
-      <c r="W24" s="165"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="165"/>
-      <c r="Z24" s="165"/>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="165"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="165"/>
-      <c r="AE24" s="166"/>
-      <c r="AF24" s="161"/>
-      <c r="AG24" s="162"/>
-      <c r="AH24" s="162"/>
-      <c r="AI24" s="163"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="211"/>
+      <c r="M24" s="211"/>
+      <c r="N24" s="211"/>
+      <c r="O24" s="211"/>
+      <c r="P24" s="212"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="214"/>
+      <c r="S24" s="214"/>
+      <c r="T24" s="214"/>
+      <c r="U24" s="214"/>
+      <c r="V24" s="214"/>
+      <c r="W24" s="214"/>
+      <c r="X24" s="214"/>
+      <c r="Y24" s="214"/>
+      <c r="Z24" s="214"/>
+      <c r="AA24" s="214"/>
+      <c r="AB24" s="214"/>
+      <c r="AC24" s="214"/>
+      <c r="AD24" s="214"/>
+      <c r="AE24" s="215"/>
+      <c r="AF24" s="210"/>
+      <c r="AG24" s="211"/>
+      <c r="AH24" s="211"/>
+      <c r="AI24" s="212"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="165"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="165"/>
-      <c r="X25" s="165"/>
-      <c r="Y25" s="165"/>
-      <c r="Z25" s="165"/>
-      <c r="AA25" s="165"/>
-      <c r="AB25" s="165"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="165"/>
-      <c r="AE25" s="166"/>
-      <c r="AF25" s="161"/>
-      <c r="AG25" s="162"/>
-      <c r="AH25" s="162"/>
-      <c r="AI25" s="163"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="210"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="211"/>
+      <c r="N25" s="211"/>
+      <c r="O25" s="211"/>
+      <c r="P25" s="212"/>
+      <c r="Q25" s="213"/>
+      <c r="R25" s="214"/>
+      <c r="S25" s="214"/>
+      <c r="T25" s="214"/>
+      <c r="U25" s="214"/>
+      <c r="V25" s="214"/>
+      <c r="W25" s="214"/>
+      <c r="X25" s="214"/>
+      <c r="Y25" s="214"/>
+      <c r="Z25" s="214"/>
+      <c r="AA25" s="214"/>
+      <c r="AB25" s="214"/>
+      <c r="AC25" s="214"/>
+      <c r="AD25" s="214"/>
+      <c r="AE25" s="215"/>
+      <c r="AF25" s="210"/>
+      <c r="AG25" s="211"/>
+      <c r="AH25" s="211"/>
+      <c r="AI25" s="212"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="165"/>
-      <c r="Z26" s="165"/>
-      <c r="AA26" s="165"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="165"/>
-      <c r="AE26" s="166"/>
-      <c r="AF26" s="161"/>
-      <c r="AG26" s="162"/>
-      <c r="AH26" s="162"/>
-      <c r="AI26" s="163"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="211"/>
+      <c r="M26" s="211"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="211"/>
+      <c r="P26" s="212"/>
+      <c r="Q26" s="213"/>
+      <c r="R26" s="214"/>
+      <c r="S26" s="214"/>
+      <c r="T26" s="214"/>
+      <c r="U26" s="214"/>
+      <c r="V26" s="214"/>
+      <c r="W26" s="214"/>
+      <c r="X26" s="214"/>
+      <c r="Y26" s="214"/>
+      <c r="Z26" s="214"/>
+      <c r="AA26" s="214"/>
+      <c r="AB26" s="214"/>
+      <c r="AC26" s="214"/>
+      <c r="AD26" s="214"/>
+      <c r="AE26" s="215"/>
+      <c r="AF26" s="210"/>
+      <c r="AG26" s="211"/>
+      <c r="AH26" s="211"/>
+      <c r="AI26" s="212"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="164"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="165"/>
-      <c r="V27" s="165"/>
-      <c r="W27" s="165"/>
-      <c r="X27" s="165"/>
-      <c r="Y27" s="165"/>
-      <c r="Z27" s="165"/>
-      <c r="AA27" s="165"/>
-      <c r="AB27" s="165"/>
-      <c r="AC27" s="165"/>
-      <c r="AD27" s="165"/>
-      <c r="AE27" s="166"/>
-      <c r="AF27" s="161"/>
-      <c r="AG27" s="162"/>
-      <c r="AH27" s="162"/>
-      <c r="AI27" s="163"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="211"/>
+      <c r="L27" s="211"/>
+      <c r="M27" s="211"/>
+      <c r="N27" s="211"/>
+      <c r="O27" s="211"/>
+      <c r="P27" s="212"/>
+      <c r="Q27" s="213"/>
+      <c r="R27" s="214"/>
+      <c r="S27" s="214"/>
+      <c r="T27" s="214"/>
+      <c r="U27" s="214"/>
+      <c r="V27" s="214"/>
+      <c r="W27" s="214"/>
+      <c r="X27" s="214"/>
+      <c r="Y27" s="214"/>
+      <c r="Z27" s="214"/>
+      <c r="AA27" s="214"/>
+      <c r="AB27" s="214"/>
+      <c r="AC27" s="214"/>
+      <c r="AD27" s="214"/>
+      <c r="AE27" s="215"/>
+      <c r="AF27" s="210"/>
+      <c r="AG27" s="211"/>
+      <c r="AH27" s="211"/>
+      <c r="AI27" s="212"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="164"/>
-      <c r="R28" s="165"/>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
-      <c r="U28" s="165"/>
-      <c r="V28" s="165"/>
-      <c r="W28" s="165"/>
-      <c r="X28" s="165"/>
-      <c r="Y28" s="165"/>
-      <c r="Z28" s="165"/>
-      <c r="AA28" s="165"/>
-      <c r="AB28" s="165"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="165"/>
-      <c r="AE28" s="166"/>
-      <c r="AF28" s="161"/>
-      <c r="AG28" s="162"/>
-      <c r="AH28" s="162"/>
-      <c r="AI28" s="163"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="210"/>
+      <c r="K28" s="211"/>
+      <c r="L28" s="211"/>
+      <c r="M28" s="211"/>
+      <c r="N28" s="211"/>
+      <c r="O28" s="211"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="213"/>
+      <c r="R28" s="214"/>
+      <c r="S28" s="214"/>
+      <c r="T28" s="214"/>
+      <c r="U28" s="214"/>
+      <c r="V28" s="214"/>
+      <c r="W28" s="214"/>
+      <c r="X28" s="214"/>
+      <c r="Y28" s="214"/>
+      <c r="Z28" s="214"/>
+      <c r="AA28" s="214"/>
+      <c r="AB28" s="214"/>
+      <c r="AC28" s="214"/>
+      <c r="AD28" s="214"/>
+      <c r="AE28" s="215"/>
+      <c r="AF28" s="210"/>
+      <c r="AG28" s="211"/>
+      <c r="AH28" s="211"/>
+      <c r="AI28" s="212"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="164"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="165"/>
-      <c r="V29" s="165"/>
-      <c r="W29" s="165"/>
-      <c r="X29" s="165"/>
-      <c r="Y29" s="165"/>
-      <c r="Z29" s="165"/>
-      <c r="AA29" s="165"/>
-      <c r="AB29" s="165"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="165"/>
-      <c r="AE29" s="166"/>
-      <c r="AF29" s="161"/>
-      <c r="AG29" s="162"/>
-      <c r="AH29" s="162"/>
-      <c r="AI29" s="163"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="208"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="210"/>
+      <c r="K29" s="211"/>
+      <c r="L29" s="211"/>
+      <c r="M29" s="211"/>
+      <c r="N29" s="211"/>
+      <c r="O29" s="211"/>
+      <c r="P29" s="212"/>
+      <c r="Q29" s="213"/>
+      <c r="R29" s="214"/>
+      <c r="S29" s="214"/>
+      <c r="T29" s="214"/>
+      <c r="U29" s="214"/>
+      <c r="V29" s="214"/>
+      <c r="W29" s="214"/>
+      <c r="X29" s="214"/>
+      <c r="Y29" s="214"/>
+      <c r="Z29" s="214"/>
+      <c r="AA29" s="214"/>
+      <c r="AB29" s="214"/>
+      <c r="AC29" s="214"/>
+      <c r="AD29" s="214"/>
+      <c r="AE29" s="215"/>
+      <c r="AF29" s="210"/>
+      <c r="AG29" s="211"/>
+      <c r="AH29" s="211"/>
+      <c r="AI29" s="212"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="162"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="162"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="164"/>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165"/>
-      <c r="U30" s="165"/>
-      <c r="V30" s="165"/>
-      <c r="W30" s="165"/>
-      <c r="X30" s="165"/>
-      <c r="Y30" s="165"/>
-      <c r="Z30" s="165"/>
-      <c r="AA30" s="165"/>
-      <c r="AB30" s="165"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="166"/>
-      <c r="AF30" s="161"/>
-      <c r="AG30" s="162"/>
-      <c r="AH30" s="162"/>
-      <c r="AI30" s="163"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="205"/>
+      <c r="J30" s="210"/>
+      <c r="K30" s="211"/>
+      <c r="L30" s="211"/>
+      <c r="M30" s="211"/>
+      <c r="N30" s="211"/>
+      <c r="O30" s="211"/>
+      <c r="P30" s="212"/>
+      <c r="Q30" s="213"/>
+      <c r="R30" s="214"/>
+      <c r="S30" s="214"/>
+      <c r="T30" s="214"/>
+      <c r="U30" s="214"/>
+      <c r="V30" s="214"/>
+      <c r="W30" s="214"/>
+      <c r="X30" s="214"/>
+      <c r="Y30" s="214"/>
+      <c r="Z30" s="214"/>
+      <c r="AA30" s="214"/>
+      <c r="AB30" s="214"/>
+      <c r="AC30" s="214"/>
+      <c r="AD30" s="214"/>
+      <c r="AE30" s="215"/>
+      <c r="AF30" s="210"/>
+      <c r="AG30" s="211"/>
+      <c r="AH30" s="211"/>
+      <c r="AI30" s="212"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="164"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="165"/>
-      <c r="U31" s="165"/>
-      <c r="V31" s="165"/>
-      <c r="W31" s="165"/>
-      <c r="X31" s="165"/>
-      <c r="Y31" s="165"/>
-      <c r="Z31" s="165"/>
-      <c r="AA31" s="165"/>
-      <c r="AB31" s="165"/>
-      <c r="AC31" s="165"/>
-      <c r="AD31" s="165"/>
-      <c r="AE31" s="166"/>
-      <c r="AF31" s="161"/>
-      <c r="AG31" s="162"/>
-      <c r="AH31" s="162"/>
-      <c r="AI31" s="163"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="210"/>
+      <c r="K31" s="211"/>
+      <c r="L31" s="211"/>
+      <c r="M31" s="211"/>
+      <c r="N31" s="211"/>
+      <c r="O31" s="211"/>
+      <c r="P31" s="212"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="214"/>
+      <c r="S31" s="214"/>
+      <c r="T31" s="214"/>
+      <c r="U31" s="214"/>
+      <c r="V31" s="214"/>
+      <c r="W31" s="214"/>
+      <c r="X31" s="214"/>
+      <c r="Y31" s="214"/>
+      <c r="Z31" s="214"/>
+      <c r="AA31" s="214"/>
+      <c r="AB31" s="214"/>
+      <c r="AC31" s="214"/>
+      <c r="AD31" s="214"/>
+      <c r="AE31" s="215"/>
+      <c r="AF31" s="210"/>
+      <c r="AG31" s="211"/>
+      <c r="AH31" s="211"/>
+      <c r="AI31" s="212"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="164"/>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165"/>
-      <c r="U32" s="165"/>
-      <c r="V32" s="165"/>
-      <c r="W32" s="165"/>
-      <c r="X32" s="165"/>
-      <c r="Y32" s="165"/>
-      <c r="Z32" s="165"/>
-      <c r="AA32" s="165"/>
-      <c r="AB32" s="165"/>
-      <c r="AC32" s="165"/>
-      <c r="AD32" s="165"/>
-      <c r="AE32" s="166"/>
-      <c r="AF32" s="161"/>
-      <c r="AG32" s="162"/>
-      <c r="AH32" s="162"/>
-      <c r="AI32" s="163"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="210"/>
+      <c r="K32" s="216"/>
+      <c r="L32" s="211"/>
+      <c r="M32" s="211"/>
+      <c r="N32" s="211"/>
+      <c r="O32" s="211"/>
+      <c r="P32" s="212"/>
+      <c r="Q32" s="213"/>
+      <c r="R32" s="214"/>
+      <c r="S32" s="214"/>
+      <c r="T32" s="214"/>
+      <c r="U32" s="214"/>
+      <c r="V32" s="214"/>
+      <c r="W32" s="214"/>
+      <c r="X32" s="214"/>
+      <c r="Y32" s="214"/>
+      <c r="Z32" s="214"/>
+      <c r="AA32" s="214"/>
+      <c r="AB32" s="214"/>
+      <c r="AC32" s="214"/>
+      <c r="AD32" s="214"/>
+      <c r="AE32" s="215"/>
+      <c r="AF32" s="210"/>
+      <c r="AG32" s="211"/>
+      <c r="AH32" s="211"/>
+      <c r="AI32" s="212"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="162"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="164"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="165"/>
-      <c r="U33" s="165"/>
-      <c r="V33" s="165"/>
-      <c r="W33" s="165"/>
-      <c r="X33" s="165"/>
-      <c r="Y33" s="165"/>
-      <c r="Z33" s="165"/>
-      <c r="AA33" s="165"/>
-      <c r="AB33" s="165"/>
-      <c r="AC33" s="165"/>
-      <c r="AD33" s="165"/>
-      <c r="AE33" s="166"/>
-      <c r="AF33" s="161"/>
-      <c r="AG33" s="162"/>
-      <c r="AH33" s="162"/>
-      <c r="AI33" s="163"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="210"/>
+      <c r="K33" s="211"/>
+      <c r="L33" s="211"/>
+      <c r="M33" s="211"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="211"/>
+      <c r="P33" s="212"/>
+      <c r="Q33" s="213"/>
+      <c r="R33" s="214"/>
+      <c r="S33" s="214"/>
+      <c r="T33" s="214"/>
+      <c r="U33" s="214"/>
+      <c r="V33" s="214"/>
+      <c r="W33" s="214"/>
+      <c r="X33" s="214"/>
+      <c r="Y33" s="214"/>
+      <c r="Z33" s="214"/>
+      <c r="AA33" s="214"/>
+      <c r="AB33" s="214"/>
+      <c r="AC33" s="214"/>
+      <c r="AD33" s="214"/>
+      <c r="AE33" s="215"/>
+      <c r="AF33" s="210"/>
+      <c r="AG33" s="211"/>
+      <c r="AH33" s="211"/>
+      <c r="AI33" s="212"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10780,6 +10619,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -32172,7 +32172,7 @@
 _xlpm.直近で確認観点1が空でないセルの行番号, MAX(INDEX((LEN($C$11:C11)&gt;0)*ROW($C$11:C11),0)),
 _xlpm.確認観点2数, COUNTA(INDIRECT("D"&amp;_xlpm.直近で確認観点1が空でないセルの行番号):D11),
 _xlpm.確認観点2数（確認観点2が空の場合は1）,IF(_xlpm.確認観点2数=0,1,_xlpm.確認観点2数),
-_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D11)&gt;0)*ROW($D$11:D11),0)),
+_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D11)&gt;0)*ROW($D$11:D11),0),_xlpm.直近で確認観点1が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("H"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):H11),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点1が空でないセルの行番号&gt;_xlpm.直近で確認観点2が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点1数&amp;"-"&amp;_xlpm.確認観点2数（確認観点2が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -32208,7 +32208,7 @@
 _xlpm.直近で確認観点1が空でないセルの行番号, MAX(INDEX((LEN($C$11:C12)&gt;0)*ROW($C$11:C12),0)),
 _xlpm.確認観点2数, COUNTA(INDIRECT("D"&amp;_xlpm.直近で確認観点1が空でないセルの行番号):D12),
 _xlpm.確認観点2数（確認観点2が空の場合は1）,IF(_xlpm.確認観点2数=0,1,_xlpm.確認観点2数),
-_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D12)&gt;0)*ROW($D$11:D12),0)),
+_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D12)&gt;0)*ROW($D$11:D12),0),_xlpm.直近で確認観点1が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("H"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):H12),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点1が空でないセルの行番号&gt;_xlpm.直近で確認観点2が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点1数&amp;"-"&amp;_xlpm.確認観点2数（確認観点2が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -32240,7 +32240,7 @@
 _xlpm.直近で確認観点1が空でないセルの行番号, MAX(INDEX((LEN($C$11:C13)&gt;0)*ROW($C$11:C13),0)),
 _xlpm.確認観点2数, COUNTA(INDIRECT("D"&amp;_xlpm.直近で確認観点1が空でないセルの行番号):D13),
 _xlpm.確認観点2数（確認観点2が空の場合は1）,IF(_xlpm.確認観点2数=0,1,_xlpm.確認観点2数),
-_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D13)&gt;0)*ROW($D$11:D13),0)),
+_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D13)&gt;0)*ROW($D$11:D13),0),_xlpm.直近で確認観点1が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("H"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):H13),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点1が空でないセルの行番号&gt;_xlpm.直近で確認観点2が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点1数&amp;"-"&amp;_xlpm.確認観点2数（確認観点2が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -32273,7 +32273,7 @@
 _xlpm.直近で確認観点1が空でないセルの行番号, MAX(INDEX((LEN($C$11:C14)&gt;0)*ROW($C$11:C14),0)),
 _xlpm.確認観点2数, COUNTA(INDIRECT("D"&amp;_xlpm.直近で確認観点1が空でないセルの行番号):D14),
 _xlpm.確認観点2数（確認観点2が空の場合は1）,IF(_xlpm.確認観点2数=0,1,_xlpm.確認観点2数),
-_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D14)&gt;0)*ROW($D$11:D14),0)),
+_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D14)&gt;0)*ROW($D$11:D14),0),_xlpm.直近で確認観点1が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("H"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):H14),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点1が空でないセルの行番号&gt;_xlpm.直近で確認観点2が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点1数&amp;"-"&amp;_xlpm.確認観点2数（確認観点2が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33137CD8-69F0-4A83-9487-EE1EFFE738F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D8249E-12B8-4EF5-B665-1E5DE8754EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,19 +11,19 @@
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
     <sheet name="【テストターゲット名】_クラス単体" sheetId="23" r:id="rId3"/>
-    <sheet name="【テストターゲット名】_リクエスト単体" sheetId="24" r:id="rId4"/>
+    <sheet name="【リクエストID】_リクエスト単体" sheetId="24" r:id="rId4"/>
     <sheet name="取引単体" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【テストターゲット名】_リクエスト単体!$A$10:$R$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体!$A$10:$R$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【テストターゲット名】_リクエスト単体!$A$1:$R$319</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体!$A$1:$R$319</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体!$A$1:$P$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【テストターゲット名】_リクエスト単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="492">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -6741,6 +6741,10 @@
   </si>
   <si>
     <t>テストコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストID：</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7760,6 +7764,93 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7858,93 +7949,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9400,57 +9404,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="161" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="190" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="170" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="179" t="s">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="208" t="s">
         <v>463</v>
       </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="155" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="157" t="str">
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="186" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="164" t="str">
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="193" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="166"/>
+      <c r="AH1" s="194"/>
+      <c r="AI1" s="195"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9458,53 +9462,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="161" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="190" t="s">
         <v>465</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="155" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="167" t="str">
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="164" t="str">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="193" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="195"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9512,45 +9516,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="161" t="s">
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="190" t="s">
         <v>466</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="166"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="194"/>
+      <c r="AI3" s="195"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9587,1020 +9591,1181 @@
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="169"/>
+      <c r="D7" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="188" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="190"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="188" t="s">
+      <c r="H7" s="170"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="188" t="s">
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="190"/>
-      <c r="S7" s="190"/>
-      <c r="T7" s="190"/>
-      <c r="U7" s="190"/>
-      <c r="V7" s="190"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="190"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="190"/>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="188" t="s">
+      <c r="R7" s="170"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="169"/>
+      <c r="AF7" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" s="190"/>
-      <c r="AH7" s="190"/>
-      <c r="AI7" s="189"/>
+      <c r="AG7" s="170"/>
+      <c r="AH7" s="170"/>
+      <c r="AI7" s="169"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="201"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="202"/>
-      <c r="W8" s="202"/>
-      <c r="X8" s="202"/>
-      <c r="Y8" s="202"/>
-      <c r="Z8" s="202"/>
-      <c r="AA8" s="202"/>
-      <c r="AB8" s="202"/>
-      <c r="AC8" s="202"/>
-      <c r="AD8" s="202"/>
-      <c r="AE8" s="203"/>
-      <c r="AF8" s="198"/>
-      <c r="AG8" s="199"/>
-      <c r="AH8" s="199"/>
-      <c r="AI8" s="200"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="182"/>
+      <c r="Y8" s="182"/>
+      <c r="Z8" s="182"/>
+      <c r="AA8" s="182"/>
+      <c r="AB8" s="182"/>
+      <c r="AC8" s="182"/>
+      <c r="AD8" s="182"/>
+      <c r="AE8" s="183"/>
+      <c r="AF8" s="178"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="180"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="213"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
-      <c r="T9" s="214"/>
-      <c r="U9" s="214"/>
-      <c r="V9" s="214"/>
-      <c r="W9" s="214"/>
-      <c r="X9" s="214"/>
-      <c r="Y9" s="214"/>
-      <c r="Z9" s="214"/>
-      <c r="AA9" s="214"/>
-      <c r="AB9" s="214"/>
-      <c r="AC9" s="214"/>
-      <c r="AD9" s="214"/>
-      <c r="AE9" s="215"/>
-      <c r="AF9" s="210"/>
-      <c r="AG9" s="211"/>
-      <c r="AH9" s="211"/>
-      <c r="AI9" s="212"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="165"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="165"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="161"/>
+      <c r="AG9" s="162"/>
+      <c r="AH9" s="162"/>
+      <c r="AI9" s="163"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="211"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="213"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
-      <c r="T10" s="214"/>
-      <c r="U10" s="214"/>
-      <c r="V10" s="214"/>
-      <c r="W10" s="214"/>
-      <c r="X10" s="214"/>
-      <c r="Y10" s="214"/>
-      <c r="Z10" s="214"/>
-      <c r="AA10" s="214"/>
-      <c r="AB10" s="214"/>
-      <c r="AC10" s="214"/>
-      <c r="AD10" s="214"/>
-      <c r="AE10" s="215"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="211"/>
-      <c r="AH10" s="211"/>
-      <c r="AI10" s="212"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="165"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="165"/>
+      <c r="AC10" s="165"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="166"/>
+      <c r="AF10" s="161"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="163"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="208"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="211"/>
-      <c r="N11" s="211"/>
-      <c r="O11" s="211"/>
-      <c r="P11" s="212"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
-      <c r="T11" s="214"/>
-      <c r="U11" s="214"/>
-      <c r="V11" s="214"/>
-      <c r="W11" s="214"/>
-      <c r="X11" s="214"/>
-      <c r="Y11" s="214"/>
-      <c r="Z11" s="214"/>
-      <c r="AA11" s="214"/>
-      <c r="AB11" s="214"/>
-      <c r="AC11" s="214"/>
-      <c r="AD11" s="214"/>
-      <c r="AE11" s="215"/>
-      <c r="AF11" s="210"/>
-      <c r="AG11" s="211"/>
-      <c r="AH11" s="211"/>
-      <c r="AI11" s="212"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
+      <c r="U11" s="165"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="165"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="165"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="166"/>
+      <c r="AF11" s="161"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="162"/>
+      <c r="AI11" s="163"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="204"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
-      <c r="N12" s="211"/>
-      <c r="O12" s="211"/>
-      <c r="P12" s="212"/>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
-      <c r="T12" s="214"/>
-      <c r="U12" s="214"/>
-      <c r="V12" s="214"/>
-      <c r="W12" s="214"/>
-      <c r="X12" s="214"/>
-      <c r="Y12" s="214"/>
-      <c r="Z12" s="214"/>
-      <c r="AA12" s="214"/>
-      <c r="AB12" s="214"/>
-      <c r="AC12" s="214"/>
-      <c r="AD12" s="214"/>
-      <c r="AE12" s="215"/>
-      <c r="AF12" s="210"/>
-      <c r="AG12" s="211"/>
-      <c r="AH12" s="211"/>
-      <c r="AI12" s="212"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="165"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="165"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="165"/>
+      <c r="W12" s="165"/>
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="166"/>
+      <c r="AF12" s="161"/>
+      <c r="AG12" s="162"/>
+      <c r="AH12" s="162"/>
+      <c r="AI12" s="163"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="210"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="214"/>
-      <c r="U13" s="214"/>
-      <c r="V13" s="214"/>
-      <c r="W13" s="214"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="214"/>
-      <c r="AA13" s="214"/>
-      <c r="AB13" s="214"/>
-      <c r="AC13" s="214"/>
-      <c r="AD13" s="214"/>
-      <c r="AE13" s="215"/>
-      <c r="AF13" s="210"/>
-      <c r="AG13" s="211"/>
-      <c r="AH13" s="211"/>
-      <c r="AI13" s="212"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="165"/>
+      <c r="S13" s="165"/>
+      <c r="T13" s="165"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="165"/>
+      <c r="W13" s="165"/>
+      <c r="X13" s="165"/>
+      <c r="Y13" s="165"/>
+      <c r="Z13" s="165"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
+      <c r="AD13" s="165"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="161"/>
+      <c r="AG13" s="162"/>
+      <c r="AH13" s="162"/>
+      <c r="AI13" s="163"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="204"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="211"/>
-      <c r="N14" s="211"/>
-      <c r="O14" s="211"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="214"/>
-      <c r="S14" s="214"/>
-      <c r="T14" s="214"/>
-      <c r="U14" s="214"/>
-      <c r="V14" s="214"/>
-      <c r="W14" s="214"/>
-      <c r="X14" s="214"/>
-      <c r="Y14" s="214"/>
-      <c r="Z14" s="214"/>
-      <c r="AA14" s="214"/>
-      <c r="AB14" s="214"/>
-      <c r="AC14" s="214"/>
-      <c r="AD14" s="214"/>
-      <c r="AE14" s="215"/>
-      <c r="AF14" s="210"/>
-      <c r="AG14" s="211"/>
-      <c r="AH14" s="211"/>
-      <c r="AI14" s="212"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="165"/>
+      <c r="T14" s="165"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
+      <c r="W14" s="165"/>
+      <c r="X14" s="165"/>
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="165"/>
+      <c r="AA14" s="165"/>
+      <c r="AB14" s="165"/>
+      <c r="AC14" s="165"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="166"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="162"/>
+      <c r="AH14" s="162"/>
+      <c r="AI14" s="163"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="211"/>
-      <c r="N15" s="211"/>
-      <c r="O15" s="211"/>
-      <c r="P15" s="212"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="214"/>
-      <c r="S15" s="214"/>
-      <c r="T15" s="214"/>
-      <c r="U15" s="214"/>
-      <c r="V15" s="214"/>
-      <c r="W15" s="214"/>
-      <c r="X15" s="214"/>
-      <c r="Y15" s="214"/>
-      <c r="Z15" s="214"/>
-      <c r="AA15" s="214"/>
-      <c r="AB15" s="214"/>
-      <c r="AC15" s="214"/>
-      <c r="AD15" s="214"/>
-      <c r="AE15" s="215"/>
-      <c r="AF15" s="210"/>
-      <c r="AG15" s="211"/>
-      <c r="AH15" s="211"/>
-      <c r="AI15" s="212"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="165"/>
+      <c r="S15" s="165"/>
+      <c r="T15" s="165"/>
+      <c r="U15" s="165"/>
+      <c r="V15" s="165"/>
+      <c r="W15" s="165"/>
+      <c r="X15" s="165"/>
+      <c r="Y15" s="165"/>
+      <c r="Z15" s="165"/>
+      <c r="AA15" s="165"/>
+      <c r="AB15" s="165"/>
+      <c r="AC15" s="165"/>
+      <c r="AD15" s="165"/>
+      <c r="AE15" s="166"/>
+      <c r="AF15" s="161"/>
+      <c r="AG15" s="162"/>
+      <c r="AH15" s="162"/>
+      <c r="AI15" s="163"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="204"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="210"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="211"/>
-      <c r="N16" s="211"/>
-      <c r="O16" s="211"/>
-      <c r="P16" s="212"/>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="214"/>
-      <c r="S16" s="214"/>
-      <c r="T16" s="214"/>
-      <c r="U16" s="214"/>
-      <c r="V16" s="214"/>
-      <c r="W16" s="214"/>
-      <c r="X16" s="214"/>
-      <c r="Y16" s="214"/>
-      <c r="Z16" s="214"/>
-      <c r="AA16" s="214"/>
-      <c r="AB16" s="214"/>
-      <c r="AC16" s="214"/>
-      <c r="AD16" s="214"/>
-      <c r="AE16" s="215"/>
-      <c r="AF16" s="210"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="212"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="165"/>
+      <c r="T16" s="165"/>
+      <c r="U16" s="165"/>
+      <c r="V16" s="165"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="165"/>
+      <c r="Y16" s="165"/>
+      <c r="Z16" s="165"/>
+      <c r="AA16" s="165"/>
+      <c r="AB16" s="165"/>
+      <c r="AC16" s="165"/>
+      <c r="AD16" s="165"/>
+      <c r="AE16" s="166"/>
+      <c r="AF16" s="161"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="162"/>
+      <c r="AI16" s="163"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="211"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="212"/>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="214"/>
-      <c r="S17" s="214"/>
-      <c r="T17" s="214"/>
-      <c r="U17" s="214"/>
-      <c r="V17" s="214"/>
-      <c r="W17" s="214"/>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="214"/>
-      <c r="Z17" s="214"/>
-      <c r="AA17" s="214"/>
-      <c r="AB17" s="214"/>
-      <c r="AC17" s="214"/>
-      <c r="AD17" s="214"/>
-      <c r="AE17" s="215"/>
-      <c r="AF17" s="210"/>
-      <c r="AG17" s="211"/>
-      <c r="AH17" s="211"/>
-      <c r="AI17" s="212"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="165"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="165"/>
+      <c r="W17" s="165"/>
+      <c r="X17" s="165"/>
+      <c r="Y17" s="165"/>
+      <c r="Z17" s="165"/>
+      <c r="AA17" s="165"/>
+      <c r="AB17" s="165"/>
+      <c r="AC17" s="165"/>
+      <c r="AD17" s="165"/>
+      <c r="AE17" s="166"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="162"/>
+      <c r="AH17" s="162"/>
+      <c r="AI17" s="163"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="212"/>
-      <c r="Q18" s="213"/>
-      <c r="R18" s="214"/>
-      <c r="S18" s="214"/>
-      <c r="T18" s="214"/>
-      <c r="U18" s="214"/>
-      <c r="V18" s="214"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214"/>
-      <c r="AA18" s="214"/>
-      <c r="AB18" s="214"/>
-      <c r="AC18" s="214"/>
-      <c r="AD18" s="214"/>
-      <c r="AE18" s="215"/>
-      <c r="AF18" s="210"/>
-      <c r="AG18" s="211"/>
-      <c r="AH18" s="211"/>
-      <c r="AI18" s="212"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="165"/>
+      <c r="S18" s="165"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="165"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="165"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="165"/>
+      <c r="AD18" s="165"/>
+      <c r="AE18" s="166"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="162"/>
+      <c r="AH18" s="162"/>
+      <c r="AI18" s="163"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="210"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="211"/>
-      <c r="N19" s="211"/>
-      <c r="O19" s="211"/>
-      <c r="P19" s="212"/>
-      <c r="Q19" s="213"/>
-      <c r="R19" s="214"/>
-      <c r="S19" s="214"/>
-      <c r="T19" s="214"/>
-      <c r="U19" s="214"/>
-      <c r="V19" s="214"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="214"/>
-      <c r="Z19" s="214"/>
-      <c r="AA19" s="214"/>
-      <c r="AB19" s="214"/>
-      <c r="AC19" s="214"/>
-      <c r="AD19" s="214"/>
-      <c r="AE19" s="215"/>
-      <c r="AF19" s="210"/>
-      <c r="AG19" s="211"/>
-      <c r="AH19" s="211"/>
-      <c r="AI19" s="212"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="165"/>
+      <c r="S19" s="165"/>
+      <c r="T19" s="165"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="165"/>
+      <c r="W19" s="165"/>
+      <c r="X19" s="165"/>
+      <c r="Y19" s="165"/>
+      <c r="Z19" s="165"/>
+      <c r="AA19" s="165"/>
+      <c r="AB19" s="165"/>
+      <c r="AC19" s="165"/>
+      <c r="AD19" s="165"/>
+      <c r="AE19" s="166"/>
+      <c r="AF19" s="161"/>
+      <c r="AG19" s="162"/>
+      <c r="AH19" s="162"/>
+      <c r="AI19" s="163"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="211"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="211"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212"/>
-      <c r="Q20" s="213"/>
-      <c r="R20" s="214"/>
-      <c r="S20" s="214"/>
-      <c r="T20" s="214"/>
-      <c r="U20" s="214"/>
-      <c r="V20" s="214"/>
-      <c r="W20" s="214"/>
-      <c r="X20" s="214"/>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="214"/>
-      <c r="AA20" s="214"/>
-      <c r="AB20" s="214"/>
-      <c r="AC20" s="214"/>
-      <c r="AD20" s="214"/>
-      <c r="AE20" s="215"/>
-      <c r="AF20" s="210"/>
-      <c r="AG20" s="211"/>
-      <c r="AH20" s="211"/>
-      <c r="AI20" s="212"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="165"/>
+      <c r="S20" s="165"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="165"/>
+      <c r="Y20" s="165"/>
+      <c r="Z20" s="165"/>
+      <c r="AA20" s="165"/>
+      <c r="AB20" s="165"/>
+      <c r="AC20" s="165"/>
+      <c r="AD20" s="165"/>
+      <c r="AE20" s="166"/>
+      <c r="AF20" s="161"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="162"/>
+      <c r="AI20" s="163"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="210"/>
-      <c r="K21" s="211"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="211"/>
-      <c r="O21" s="211"/>
-      <c r="P21" s="212"/>
-      <c r="Q21" s="213"/>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
-      <c r="T21" s="214"/>
-      <c r="U21" s="214"/>
-      <c r="V21" s="214"/>
-      <c r="W21" s="214"/>
-      <c r="X21" s="214"/>
-      <c r="Y21" s="214"/>
-      <c r="Z21" s="214"/>
-      <c r="AA21" s="214"/>
-      <c r="AB21" s="214"/>
-      <c r="AC21" s="214"/>
-      <c r="AD21" s="214"/>
-      <c r="AE21" s="215"/>
-      <c r="AF21" s="210"/>
-      <c r="AG21" s="211"/>
-      <c r="AH21" s="211"/>
-      <c r="AI21" s="212"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="165"/>
+      <c r="S21" s="165"/>
+      <c r="T21" s="165"/>
+      <c r="U21" s="165"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="165"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
+      <c r="AD21" s="165"/>
+      <c r="AE21" s="166"/>
+      <c r="AF21" s="161"/>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="163"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="204"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="210"/>
-      <c r="K22" s="211"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="211"/>
-      <c r="N22" s="211"/>
-      <c r="O22" s="211"/>
-      <c r="P22" s="212"/>
-      <c r="Q22" s="213"/>
-      <c r="R22" s="214"/>
-      <c r="S22" s="214"/>
-      <c r="T22" s="214"/>
-      <c r="U22" s="214"/>
-      <c r="V22" s="214"/>
-      <c r="W22" s="214"/>
-      <c r="X22" s="214"/>
-      <c r="Y22" s="214"/>
-      <c r="Z22" s="214"/>
-      <c r="AA22" s="214"/>
-      <c r="AB22" s="214"/>
-      <c r="AC22" s="214"/>
-      <c r="AD22" s="214"/>
-      <c r="AE22" s="215"/>
-      <c r="AF22" s="210"/>
-      <c r="AG22" s="211"/>
-      <c r="AH22" s="211"/>
-      <c r="AI22" s="212"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="165"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
+      <c r="Y22" s="165"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
+      <c r="AD22" s="165"/>
+      <c r="AE22" s="166"/>
+      <c r="AF22" s="161"/>
+      <c r="AG22" s="162"/>
+      <c r="AH22" s="162"/>
+      <c r="AI22" s="163"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="211"/>
-      <c r="M23" s="211"/>
-      <c r="N23" s="211"/>
-      <c r="O23" s="211"/>
-      <c r="P23" s="212"/>
-      <c r="Q23" s="213"/>
-      <c r="R23" s="214"/>
-      <c r="S23" s="214"/>
-      <c r="T23" s="214"/>
-      <c r="U23" s="214"/>
-      <c r="V23" s="214"/>
-      <c r="W23" s="214"/>
-      <c r="X23" s="214"/>
-      <c r="Y23" s="214"/>
-      <c r="Z23" s="214"/>
-      <c r="AA23" s="214"/>
-      <c r="AB23" s="214"/>
-      <c r="AC23" s="214"/>
-      <c r="AD23" s="214"/>
-      <c r="AE23" s="215"/>
-      <c r="AF23" s="210"/>
-      <c r="AG23" s="211"/>
-      <c r="AH23" s="211"/>
-      <c r="AI23" s="212"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="165"/>
+      <c r="Z23" s="165"/>
+      <c r="AA23" s="165"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="165"/>
+      <c r="AD23" s="165"/>
+      <c r="AE23" s="166"/>
+      <c r="AF23" s="161"/>
+      <c r="AG23" s="162"/>
+      <c r="AH23" s="162"/>
+      <c r="AI23" s="163"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="210"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="211"/>
-      <c r="M24" s="211"/>
-      <c r="N24" s="211"/>
-      <c r="O24" s="211"/>
-      <c r="P24" s="212"/>
-      <c r="Q24" s="213"/>
-      <c r="R24" s="214"/>
-      <c r="S24" s="214"/>
-      <c r="T24" s="214"/>
-      <c r="U24" s="214"/>
-      <c r="V24" s="214"/>
-      <c r="W24" s="214"/>
-      <c r="X24" s="214"/>
-      <c r="Y24" s="214"/>
-      <c r="Z24" s="214"/>
-      <c r="AA24" s="214"/>
-      <c r="AB24" s="214"/>
-      <c r="AC24" s="214"/>
-      <c r="AD24" s="214"/>
-      <c r="AE24" s="215"/>
-      <c r="AF24" s="210"/>
-      <c r="AG24" s="211"/>
-      <c r="AH24" s="211"/>
-      <c r="AI24" s="212"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="165"/>
+      <c r="U24" s="165"/>
+      <c r="V24" s="165"/>
+      <c r="W24" s="165"/>
+      <c r="X24" s="165"/>
+      <c r="Y24" s="165"/>
+      <c r="Z24" s="165"/>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="165"/>
+      <c r="AD24" s="165"/>
+      <c r="AE24" s="166"/>
+      <c r="AF24" s="161"/>
+      <c r="AG24" s="162"/>
+      <c r="AH24" s="162"/>
+      <c r="AI24" s="163"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="211"/>
-      <c r="N25" s="211"/>
-      <c r="O25" s="211"/>
-      <c r="P25" s="212"/>
-      <c r="Q25" s="213"/>
-      <c r="R25" s="214"/>
-      <c r="S25" s="214"/>
-      <c r="T25" s="214"/>
-      <c r="U25" s="214"/>
-      <c r="V25" s="214"/>
-      <c r="W25" s="214"/>
-      <c r="X25" s="214"/>
-      <c r="Y25" s="214"/>
-      <c r="Z25" s="214"/>
-      <c r="AA25" s="214"/>
-      <c r="AB25" s="214"/>
-      <c r="AC25" s="214"/>
-      <c r="AD25" s="214"/>
-      <c r="AE25" s="215"/>
-      <c r="AF25" s="210"/>
-      <c r="AG25" s="211"/>
-      <c r="AH25" s="211"/>
-      <c r="AI25" s="212"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="165"/>
+      <c r="U25" s="165"/>
+      <c r="V25" s="165"/>
+      <c r="W25" s="165"/>
+      <c r="X25" s="165"/>
+      <c r="Y25" s="165"/>
+      <c r="Z25" s="165"/>
+      <c r="AA25" s="165"/>
+      <c r="AB25" s="165"/>
+      <c r="AC25" s="165"/>
+      <c r="AD25" s="165"/>
+      <c r="AE25" s="166"/>
+      <c r="AF25" s="161"/>
+      <c r="AG25" s="162"/>
+      <c r="AH25" s="162"/>
+      <c r="AI25" s="163"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="204"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="211"/>
-      <c r="M26" s="211"/>
-      <c r="N26" s="211"/>
-      <c r="O26" s="211"/>
-      <c r="P26" s="212"/>
-      <c r="Q26" s="213"/>
-      <c r="R26" s="214"/>
-      <c r="S26" s="214"/>
-      <c r="T26" s="214"/>
-      <c r="U26" s="214"/>
-      <c r="V26" s="214"/>
-      <c r="W26" s="214"/>
-      <c r="X26" s="214"/>
-      <c r="Y26" s="214"/>
-      <c r="Z26" s="214"/>
-      <c r="AA26" s="214"/>
-      <c r="AB26" s="214"/>
-      <c r="AC26" s="214"/>
-      <c r="AD26" s="214"/>
-      <c r="AE26" s="215"/>
-      <c r="AF26" s="210"/>
-      <c r="AG26" s="211"/>
-      <c r="AH26" s="211"/>
-      <c r="AI26" s="212"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="165"/>
+      <c r="W26" s="165"/>
+      <c r="X26" s="165"/>
+      <c r="Y26" s="165"/>
+      <c r="Z26" s="165"/>
+      <c r="AA26" s="165"/>
+      <c r="AB26" s="165"/>
+      <c r="AC26" s="165"/>
+      <c r="AD26" s="165"/>
+      <c r="AE26" s="166"/>
+      <c r="AF26" s="161"/>
+      <c r="AG26" s="162"/>
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="163"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="212"/>
-      <c r="Q27" s="213"/>
-      <c r="R27" s="214"/>
-      <c r="S27" s="214"/>
-      <c r="T27" s="214"/>
-      <c r="U27" s="214"/>
-      <c r="V27" s="214"/>
-      <c r="W27" s="214"/>
-      <c r="X27" s="214"/>
-      <c r="Y27" s="214"/>
-      <c r="Z27" s="214"/>
-      <c r="AA27" s="214"/>
-      <c r="AB27" s="214"/>
-      <c r="AC27" s="214"/>
-      <c r="AD27" s="214"/>
-      <c r="AE27" s="215"/>
-      <c r="AF27" s="210"/>
-      <c r="AG27" s="211"/>
-      <c r="AH27" s="211"/>
-      <c r="AI27" s="212"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="165"/>
+      <c r="W27" s="165"/>
+      <c r="X27" s="165"/>
+      <c r="Y27" s="165"/>
+      <c r="Z27" s="165"/>
+      <c r="AA27" s="165"/>
+      <c r="AB27" s="165"/>
+      <c r="AC27" s="165"/>
+      <c r="AD27" s="165"/>
+      <c r="AE27" s="166"/>
+      <c r="AF27" s="161"/>
+      <c r="AG27" s="162"/>
+      <c r="AH27" s="162"/>
+      <c r="AI27" s="163"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="204"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="213"/>
-      <c r="R28" s="214"/>
-      <c r="S28" s="214"/>
-      <c r="T28" s="214"/>
-      <c r="U28" s="214"/>
-      <c r="V28" s="214"/>
-      <c r="W28" s="214"/>
-      <c r="X28" s="214"/>
-      <c r="Y28" s="214"/>
-      <c r="Z28" s="214"/>
-      <c r="AA28" s="214"/>
-      <c r="AB28" s="214"/>
-      <c r="AC28" s="214"/>
-      <c r="AD28" s="214"/>
-      <c r="AE28" s="215"/>
-      <c r="AF28" s="210"/>
-      <c r="AG28" s="211"/>
-      <c r="AH28" s="211"/>
-      <c r="AI28" s="212"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="165"/>
+      <c r="W28" s="165"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="165"/>
+      <c r="Z28" s="165"/>
+      <c r="AA28" s="165"/>
+      <c r="AB28" s="165"/>
+      <c r="AC28" s="165"/>
+      <c r="AD28" s="165"/>
+      <c r="AE28" s="166"/>
+      <c r="AF28" s="161"/>
+      <c r="AG28" s="162"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="163"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="212"/>
-      <c r="Q29" s="213"/>
-      <c r="R29" s="214"/>
-      <c r="S29" s="214"/>
-      <c r="T29" s="214"/>
-      <c r="U29" s="214"/>
-      <c r="V29" s="214"/>
-      <c r="W29" s="214"/>
-      <c r="X29" s="214"/>
-      <c r="Y29" s="214"/>
-      <c r="Z29" s="214"/>
-      <c r="AA29" s="214"/>
-      <c r="AB29" s="214"/>
-      <c r="AC29" s="214"/>
-      <c r="AD29" s="214"/>
-      <c r="AE29" s="215"/>
-      <c r="AF29" s="210"/>
-      <c r="AG29" s="211"/>
-      <c r="AH29" s="211"/>
-      <c r="AI29" s="212"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+      <c r="P29" s="163"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="165"/>
+      <c r="T29" s="165"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="165"/>
+      <c r="W29" s="165"/>
+      <c r="X29" s="165"/>
+      <c r="Y29" s="165"/>
+      <c r="Z29" s="165"/>
+      <c r="AA29" s="165"/>
+      <c r="AB29" s="165"/>
+      <c r="AC29" s="165"/>
+      <c r="AD29" s="165"/>
+      <c r="AE29" s="166"/>
+      <c r="AF29" s="161"/>
+      <c r="AG29" s="162"/>
+      <c r="AH29" s="162"/>
+      <c r="AI29" s="163"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="212"/>
-      <c r="Q30" s="213"/>
-      <c r="R30" s="214"/>
-      <c r="S30" s="214"/>
-      <c r="T30" s="214"/>
-      <c r="U30" s="214"/>
-      <c r="V30" s="214"/>
-      <c r="W30" s="214"/>
-      <c r="X30" s="214"/>
-      <c r="Y30" s="214"/>
-      <c r="Z30" s="214"/>
-      <c r="AA30" s="214"/>
-      <c r="AB30" s="214"/>
-      <c r="AC30" s="214"/>
-      <c r="AD30" s="214"/>
-      <c r="AE30" s="215"/>
-      <c r="AF30" s="210"/>
-      <c r="AG30" s="211"/>
-      <c r="AH30" s="211"/>
-      <c r="AI30" s="212"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
+      <c r="U30" s="165"/>
+      <c r="V30" s="165"/>
+      <c r="W30" s="165"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="165"/>
+      <c r="AB30" s="165"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="166"/>
+      <c r="AF30" s="161"/>
+      <c r="AG30" s="162"/>
+      <c r="AH30" s="162"/>
+      <c r="AI30" s="163"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="212"/>
-      <c r="Q31" s="213"/>
-      <c r="R31" s="214"/>
-      <c r="S31" s="214"/>
-      <c r="T31" s="214"/>
-      <c r="U31" s="214"/>
-      <c r="V31" s="214"/>
-      <c r="W31" s="214"/>
-      <c r="X31" s="214"/>
-      <c r="Y31" s="214"/>
-      <c r="Z31" s="214"/>
-      <c r="AA31" s="214"/>
-      <c r="AB31" s="214"/>
-      <c r="AC31" s="214"/>
-      <c r="AD31" s="214"/>
-      <c r="AE31" s="215"/>
-      <c r="AF31" s="210"/>
-      <c r="AG31" s="211"/>
-      <c r="AH31" s="211"/>
-      <c r="AI31" s="212"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
+      <c r="U31" s="165"/>
+      <c r="V31" s="165"/>
+      <c r="W31" s="165"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="165"/>
+      <c r="Z31" s="165"/>
+      <c r="AA31" s="165"/>
+      <c r="AB31" s="165"/>
+      <c r="AC31" s="165"/>
+      <c r="AD31" s="165"/>
+      <c r="AE31" s="166"/>
+      <c r="AF31" s="161"/>
+      <c r="AG31" s="162"/>
+      <c r="AH31" s="162"/>
+      <c r="AI31" s="163"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="204"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="210"/>
-      <c r="K32" s="216"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="211"/>
-      <c r="O32" s="211"/>
-      <c r="P32" s="212"/>
-      <c r="Q32" s="213"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="214"/>
-      <c r="T32" s="214"/>
-      <c r="U32" s="214"/>
-      <c r="V32" s="214"/>
-      <c r="W32" s="214"/>
-      <c r="X32" s="214"/>
-      <c r="Y32" s="214"/>
-      <c r="Z32" s="214"/>
-      <c r="AA32" s="214"/>
-      <c r="AB32" s="214"/>
-      <c r="AC32" s="214"/>
-      <c r="AD32" s="214"/>
-      <c r="AE32" s="215"/>
-      <c r="AF32" s="210"/>
-      <c r="AG32" s="211"/>
-      <c r="AH32" s="211"/>
-      <c r="AI32" s="212"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165"/>
+      <c r="U32" s="165"/>
+      <c r="V32" s="165"/>
+      <c r="W32" s="165"/>
+      <c r="X32" s="165"/>
+      <c r="Y32" s="165"/>
+      <c r="Z32" s="165"/>
+      <c r="AA32" s="165"/>
+      <c r="AB32" s="165"/>
+      <c r="AC32" s="165"/>
+      <c r="AD32" s="165"/>
+      <c r="AE32" s="166"/>
+      <c r="AF32" s="161"/>
+      <c r="AG32" s="162"/>
+      <c r="AH32" s="162"/>
+      <c r="AI32" s="163"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="211"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="211"/>
-      <c r="P33" s="212"/>
-      <c r="Q33" s="213"/>
-      <c r="R33" s="214"/>
-      <c r="S33" s="214"/>
-      <c r="T33" s="214"/>
-      <c r="U33" s="214"/>
-      <c r="V33" s="214"/>
-      <c r="W33" s="214"/>
-      <c r="X33" s="214"/>
-      <c r="Y33" s="214"/>
-      <c r="Z33" s="214"/>
-      <c r="AA33" s="214"/>
-      <c r="AB33" s="214"/>
-      <c r="AC33" s="214"/>
-      <c r="AD33" s="214"/>
-      <c r="AE33" s="215"/>
-      <c r="AF33" s="210"/>
-      <c r="AG33" s="211"/>
-      <c r="AH33" s="211"/>
-      <c r="AI33" s="212"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="165"/>
+      <c r="U33" s="165"/>
+      <c r="V33" s="165"/>
+      <c r="W33" s="165"/>
+      <c r="X33" s="165"/>
+      <c r="Y33" s="165"/>
+      <c r="Z33" s="165"/>
+      <c r="AA33" s="165"/>
+      <c r="AB33" s="165"/>
+      <c r="AC33" s="165"/>
+      <c r="AD33" s="165"/>
+      <c r="AE33" s="166"/>
+      <c r="AF33" s="161"/>
+      <c r="AG33" s="162"/>
+      <c r="AH33" s="162"/>
+      <c r="AI33" s="163"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10619,167 +10784,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -21036,7 +21040,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.5" thickBot="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="27" t="s">
+        <v>491</v>
+      </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="27"/>
